--- a/inst/extdata/main_dict_india.xlsx
+++ b/inst/extdata/main_dict_india.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="640">
   <si>
     <t>old</t>
   </si>
@@ -1502,9 +1502,6 @@
     <t>a4_c_10</t>
   </si>
   <si>
-    <t>a4_c_10a</t>
-  </si>
-  <si>
     <t>phone_nb2</t>
   </si>
   <si>
@@ -1523,9 +1520,6 @@
     <t>age_yr_ctg</t>
   </si>
   <si>
-    <t>phone_nb3</t>
-  </si>
-  <si>
     <t>crfs-t02b-a4_c_9</t>
   </si>
   <si>
@@ -1883,9 +1877,6 @@
     <t>crfs-t02a-a4_c_10</t>
   </si>
   <si>
-    <t>crfs-t02a-a4_c_10a</t>
-  </si>
-  <si>
     <t>crfs-t02a-a4_c_1</t>
   </si>
   <si>
@@ -1893,6 +1884,66 @@
   </si>
   <si>
     <t>crfs-t02a-location_name</t>
+  </si>
+  <si>
+    <t>start_geopoint-Latitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>start_geopoint-Longitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>start_geopoint-Altitude</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>start_geopoint-Accuracy</t>
+  </si>
+  <si>
+    <t>gps_accuracy</t>
+  </si>
+  <si>
+    <t>a3-screening_start</t>
+  </si>
+  <si>
+    <t>screening_start</t>
+  </si>
+  <si>
+    <t>a3-district1</t>
+  </si>
+  <si>
+    <t>district_ra</t>
+  </si>
+  <si>
+    <t>a3-fcode</t>
+  </si>
+  <si>
+    <t>fid_ra</t>
+  </si>
+  <si>
+    <t>district1</t>
+  </si>
+  <si>
+    <t>fcode</t>
+  </si>
+  <si>
+    <t>crfs-t02a-a4_a_11o</t>
+  </si>
+  <si>
+    <t>phone_owner_oth</t>
+  </si>
+  <si>
+    <t>a4_a_11o</t>
+  </si>
+  <si>
+    <t>t_screening_start</t>
   </si>
 </sst>
 </file>
@@ -1968,7 +2019,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2032,6 +2083,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2313,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H212"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2350,7 +2404,7 @@
         <v>171</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>193</v>
@@ -2462,10 +2516,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2483,15 +2537,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -2509,15 +2563,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>20</v>
+      <c r="A8" s="24" t="s">
+        <v>620</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>621</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2532,44 +2586,44 @@
         <v>1</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>173</v>
+        <v>1</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>34</v>
+      <c r="A9" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>623</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>174</v>
+        <v>1</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>622</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>490</v>
+      <c r="A10" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>625</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2584,24 +2638,24 @@
         <v>1</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>490</v>
+        <v>1</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>35</v>
+      <c r="A11" s="24" t="s">
+        <v>626</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>627</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -2610,24 +2664,24 @@
         <v>1</v>
       </c>
       <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>175</v>
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>36</v>
+      <c r="A12" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>639</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -2638,22 +2692,22 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>36</v>
+      <c r="H12" s="19" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>498</v>
+      <c r="A13" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>631</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="4">
         <v>1</v>
@@ -2662,24 +2716,24 @@
         <v>1</v>
       </c>
       <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>497</v>
+        <v>1</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>634</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>9</v>
+      <c r="A14" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>633</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -2690,16 +2744,16 @@
       <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>176</v>
+      <c r="H14" s="19" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>28</v>
+      <c r="A15" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>629</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -2716,22 +2770,22 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>177</v>
+      <c r="H15" s="19" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
       <c r="D16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
@@ -2740,44 +2794,44 @@
         <v>1</v>
       </c>
       <c r="G16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>494</v>
+      <c r="A17" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>494</v>
+      <c r="H17" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>11</v>
+      <c r="A18" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>490</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -2794,22 +2848,22 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>180</v>
+      <c r="H18" s="8" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>12</v>
+      <c r="A19" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -2820,16 +2874,16 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>181</v>
+      <c r="H19" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>10</v>
+      <c r="A20" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -2844,24 +2898,24 @@
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>182</v>
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>340</v>
+        <v>495</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>614</v>
+        <v>497</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
       </c>
       <c r="D21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="4">
         <v>1</v>
@@ -2870,102 +2924,102 @@
         <v>1</v>
       </c>
       <c r="G21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>179</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="20">
-        <v>1</v>
-      </c>
-      <c r="D22" s="20">
-        <v>0</v>
-      </c>
-      <c r="E22" s="21">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22">
-        <v>1</v>
-      </c>
-      <c r="G22" s="22">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="20">
-        <v>1</v>
-      </c>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20">
-        <v>1</v>
-      </c>
-      <c r="F23" s="20">
-        <v>1</v>
-      </c>
-      <c r="G23" s="22">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="20">
-        <v>1</v>
-      </c>
-      <c r="D24" s="20">
-        <v>1</v>
-      </c>
-      <c r="E24" s="21">
-        <v>1</v>
-      </c>
-      <c r="F24" s="22">
-        <v>1</v>
-      </c>
-      <c r="G24" s="22">
+        <v>2</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
         <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>347</v>
+        <v>494</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>37</v>
+        <v>493</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
       </c>
       <c r="D25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="4">
         <v>1</v>
@@ -2974,18 +3028,18 @@
         <v>1</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>185</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -3003,21 +3057,21 @@
         <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -3026,434 +3080,434 @@
         <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
+        <v>343</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>612</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="20">
+        <v>1</v>
+      </c>
+      <c r="D30" s="20">
+        <v>0</v>
+      </c>
+      <c r="E30" s="21">
+        <v>1</v>
+      </c>
+      <c r="F30" s="22">
+        <v>1</v>
+      </c>
+      <c r="G30" s="22">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="20">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0</v>
+      </c>
+      <c r="E31" s="20">
+        <v>1</v>
+      </c>
+      <c r="F31" s="20">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="20">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1</v>
+      </c>
+      <c r="F32" s="22">
+        <v>1</v>
+      </c>
+      <c r="G32" s="22">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>1</v>
-      </c>
-      <c r="H28" s="11" t="s">
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B37" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
-        <v>1</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B38" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0</v>
-      </c>
-      <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="3">
-        <v>1</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="12" t="s">
+      <c r="C38" s="2">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="12" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="12" t="s">
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <v>1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="12" t="s">
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="B33" s="12" t="s">
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0</v>
-      </c>
-      <c r="E33" s="4">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>1</v>
-      </c>
-      <c r="G33" s="3">
-        <v>1</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>513</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>514</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>1</v>
-      </c>
-      <c r="G37" s="3">
-        <v>1</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1</v>
-      </c>
-      <c r="D39" s="2">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>1</v>
-      </c>
-      <c r="G39" s="3">
-        <v>1</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>1</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>1</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="3">
         <v>1</v>
       </c>
       <c r="G43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>3</v>
+      <c r="A44" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3468,18 +3522,18 @@
         <v>1</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>203</v>
+        <v>1</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>29</v>
+      <c r="A45" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -3494,21 +3548,21 @@
         <v>1</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>204</v>
+        <v>1</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="2">
         <v>1</v>
@@ -3523,249 +3577,249 @@
         <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
-      <c r="D47" s="2">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>1</v>
-      </c>
-      <c r="G47" s="3">
-        <v>1</v>
-      </c>
-      <c r="H47" s="7" t="s">
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="9" t="s">
-        <v>620</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0</v>
-      </c>
-      <c r="D48" s="2">
-        <v>1</v>
-      </c>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="B49" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2">
-        <v>1</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
-        <v>1</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="11" t="s">
-        <v>565</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0</v>
-      </c>
-      <c r="D51" s="2">
-        <v>1</v>
-      </c>
-      <c r="E51" s="4">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
-        <v>1</v>
-      </c>
-      <c r="H51" s="11" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4">
-        <v>0</v>
-      </c>
-      <c r="F52" s="4">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="2">
-        <v>0</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>0</v>
-      </c>
-      <c r="F53" s="4">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
-        <v>500</v>
+        <v>369</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>501</v>
+        <v>40</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3783,15 +3837,15 @@
         <v>0</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>502</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3809,15 +3863,15 @@
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>41</v>
+      <c r="A58" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -3826,24 +3880,24 @@
         <v>1</v>
       </c>
       <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>214</v>
+        <v>1</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
-        <v>371</v>
+        <v>617</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3854,412 +3908,412 @@
       <c r="E59" s="4">
         <v>0</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>561</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C63" s="2">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B68" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C60" s="2">
-        <v>0</v>
-      </c>
-      <c r="D60" s="2">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>0</v>
-      </c>
-      <c r="F60" s="4">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
-        <v>0</v>
-      </c>
-      <c r="H60" s="9" t="s">
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="19" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>504</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B70" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="C61" s="2">
-        <v>1</v>
-      </c>
-      <c r="D61" s="2">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="11" t="s">
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="11" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="19" t="s">
-        <v>507</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>508</v>
-      </c>
-      <c r="C62" s="2">
-        <v>1</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-      <c r="F62" s="4">
-        <v>1</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
-      <c r="D63" s="2">
-        <v>1</v>
-      </c>
-      <c r="E63" s="4">
-        <v>1</v>
-      </c>
-      <c r="F63" s="4">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3">
-        <v>1</v>
-      </c>
-      <c r="H63" s="11" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="11" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11" t="s">
         <v>554</v>
       </c>
-      <c r="B64" s="11" t="s">
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4">
-        <v>1</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>1</v>
-      </c>
-      <c r="H64" s="11" t="s">
+      <c r="B73" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="11" t="s">
-        <v>557</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>559</v>
-      </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>1</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>1</v>
-      </c>
-      <c r="H65" s="11" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>560</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>1</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1</v>
-      </c>
-      <c r="H66" s="11" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C67" s="2">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C68" s="20">
-        <v>0</v>
-      </c>
-      <c r="D68" s="20">
-        <v>0</v>
-      </c>
-      <c r="E68" s="21">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C69" s="20">
-        <v>0</v>
-      </c>
-      <c r="D69" s="20">
-        <v>0</v>
-      </c>
-      <c r="E69" s="20">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C70" s="20">
-        <v>0</v>
-      </c>
-      <c r="D70" s="20">
-        <v>0</v>
-      </c>
-      <c r="E70" s="21">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="20">
-        <v>0</v>
-      </c>
-      <c r="D71" s="20">
-        <v>0</v>
-      </c>
-      <c r="E71" s="21">
-        <v>1</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="2">
-        <v>0</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="13" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="2">
-        <v>0</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C75" s="2">
         <v>0</v>
@@ -4277,23 +4331,23 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C76" s="2">
-        <v>0</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
-      <c r="E76" s="4">
+        <v>52</v>
+      </c>
+      <c r="C76" s="20">
+        <v>0</v>
+      </c>
+      <c r="D76" s="20">
+        <v>0</v>
+      </c>
+      <c r="E76" s="21">
         <v>1</v>
       </c>
       <c r="F76" s="3">
@@ -4303,23 +4357,23 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" s="2">
-        <v>0</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0</v>
-      </c>
-      <c r="E77" s="4">
+        <v>53</v>
+      </c>
+      <c r="C77" s="20">
+        <v>0</v>
+      </c>
+      <c r="D77" s="20">
+        <v>0</v>
+      </c>
+      <c r="E77" s="20">
         <v>1</v>
       </c>
       <c r="F77" s="3">
@@ -4329,23 +4383,23 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C78" s="2">
-        <v>0</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
-      <c r="E78" s="4">
+        <v>54</v>
+      </c>
+      <c r="C78" s="20">
+        <v>0</v>
+      </c>
+      <c r="D78" s="20">
+        <v>0</v>
+      </c>
+      <c r="E78" s="21">
         <v>1</v>
       </c>
       <c r="F78" s="3">
@@ -4355,23 +4409,23 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-      <c r="E79" s="4">
+        <v>55</v>
+      </c>
+      <c r="C79" s="20">
+        <v>0</v>
+      </c>
+      <c r="D79" s="20">
+        <v>0</v>
+      </c>
+      <c r="E79" s="21">
         <v>1</v>
       </c>
       <c r="F79" s="3">
@@ -4381,15 +4435,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4407,15 +4461,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4433,15 +4487,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4459,15 +4513,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4485,15 +4539,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4511,15 +4565,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4537,15 +4591,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -4563,23 +4617,23 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C87" s="20">
+        <v>63</v>
+      </c>
+      <c r="C87" s="2">
         <v>0</v>
       </c>
       <c r="D87" s="2">
         <v>0</v>
       </c>
-      <c r="E87" s="21">
+      <c r="E87" s="4">
         <v>1</v>
       </c>
       <c r="F87" s="3">
@@ -4589,23 +4643,23 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C88" s="20">
+        <v>64</v>
+      </c>
+      <c r="C88" s="2">
         <v>0</v>
       </c>
       <c r="D88" s="2">
         <v>0</v>
       </c>
-      <c r="E88" s="20">
+      <c r="E88" s="4">
         <v>1</v>
       </c>
       <c r="F88" s="3">
@@ -4615,23 +4669,23 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C89" s="20">
+        <v>65</v>
+      </c>
+      <c r="C89" s="2">
         <v>0</v>
       </c>
       <c r="D89" s="2">
         <v>0</v>
       </c>
-      <c r="E89" s="21">
+      <c r="E89" s="4">
         <v>1</v>
       </c>
       <c r="F89" s="3">
@@ -4641,23 +4695,23 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C90" s="20">
+        <v>66</v>
+      </c>
+      <c r="C90" s="2">
         <v>0</v>
       </c>
       <c r="D90" s="2">
         <v>0</v>
       </c>
-      <c r="E90" s="21">
+      <c r="E90" s="4">
         <v>1</v>
       </c>
       <c r="F90" s="3">
@@ -4667,23 +4721,23 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C91" s="20">
+        <v>67</v>
+      </c>
+      <c r="C91" s="2">
         <v>0</v>
       </c>
       <c r="D91" s="2">
         <v>0</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="4">
         <v>1</v>
       </c>
       <c r="F91" s="3">
@@ -4693,17 +4747,17 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92" s="20">
+        <v>68</v>
+      </c>
+      <c r="C92" s="2">
         <v>0</v>
       </c>
       <c r="D92" s="2">
@@ -4719,17 +4773,17 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C93" s="20">
+        <v>69</v>
+      </c>
+      <c r="C93" s="2">
         <v>0</v>
       </c>
       <c r="D93" s="2">
@@ -4745,15 +4799,15 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C94" s="2">
         <v>0</v>
@@ -4771,249 +4825,249 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C95" s="20">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="21">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C96" s="20">
+        <v>0</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="20">
+        <v>1</v>
+      </c>
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>1</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C97" s="20">
+        <v>0</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="21">
+        <v>1</v>
+      </c>
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>1</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C98" s="20">
+        <v>0</v>
+      </c>
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="21">
+        <v>1</v>
+      </c>
+      <c r="F98" s="3">
+        <v>0</v>
+      </c>
+      <c r="G98" s="3">
+        <v>1</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99" s="20">
+        <v>0</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="20">
+        <v>1</v>
+      </c>
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C100" s="20">
+        <v>0</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>1</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="20">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B103" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C95" s="2">
-        <v>0</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0</v>
-      </c>
-      <c r="E95" s="4">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3">
-        <v>0</v>
-      </c>
-      <c r="G95" s="3">
-        <v>1</v>
-      </c>
-      <c r="H95" s="13" t="s">
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+      <c r="H103" s="13" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C96" s="2">
-        <v>0</v>
-      </c>
-      <c r="D96" s="2">
-        <v>0</v>
-      </c>
-      <c r="E96" s="2">
-        <v>1</v>
-      </c>
-      <c r="F96" s="3">
-        <v>1</v>
-      </c>
-      <c r="G96" s="3">
-        <v>1</v>
-      </c>
-      <c r="H96" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="B97" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C97" s="2">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2">
-        <v>0</v>
-      </c>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97" s="3">
-        <v>1</v>
-      </c>
-      <c r="G97" s="3">
-        <v>0</v>
-      </c>
-      <c r="H97" s="17" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="17" t="s">
-        <v>404</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" s="2">
-        <v>0</v>
-      </c>
-      <c r="D98" s="2">
-        <v>0</v>
-      </c>
-      <c r="E98" s="2">
-        <v>1</v>
-      </c>
-      <c r="F98" s="3">
-        <v>1</v>
-      </c>
-      <c r="G98" s="3">
-        <v>0</v>
-      </c>
-      <c r="H98" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="17" t="s">
-        <v>405</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C99" s="2">
-        <v>0</v>
-      </c>
-      <c r="D99" s="2">
-        <v>0</v>
-      </c>
-      <c r="E99" s="2">
-        <v>1</v>
-      </c>
-      <c r="F99" s="3">
-        <v>1</v>
-      </c>
-      <c r="G99" s="3">
-        <v>0</v>
-      </c>
-      <c r="H99" s="17" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="17" t="s">
-        <v>406</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C100" s="2">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2">
-        <v>1</v>
-      </c>
-      <c r="F100" s="3">
-        <v>1</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="17" t="s">
-        <v>407</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C101" s="2">
-        <v>0</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="2">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3">
-        <v>1</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="17" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
-        <v>408</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C102" s="2">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0</v>
-      </c>
-      <c r="E102" s="2">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="17" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="17" t="s">
-        <v>409</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C103" s="2">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <v>1</v>
-      </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3">
-        <v>0</v>
-      </c>
-      <c r="H103" s="17" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5028,18 +5082,18 @@
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5057,15 +5111,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5083,15 +5137,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5109,15 +5163,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5135,15 +5189,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5161,15 +5215,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5187,15 +5241,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5213,15 +5267,15 @@
         <v>0</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5239,15 +5293,15 @@
         <v>0</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5262,18 +5316,18 @@
         <v>1</v>
       </c>
       <c r="G113" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="B114" s="15" t="s">
-        <v>98</v>
+        <v>412</v>
+      </c>
+      <c r="B114" s="14" t="s">
+        <v>90</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5288,18 +5342,18 @@
         <v>1</v>
       </c>
       <c r="G114" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="B115" s="15" t="s">
-        <v>99</v>
+        <v>413</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5314,18 +5368,18 @@
         <v>1</v>
       </c>
       <c r="G115" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>422</v>
-      </c>
-      <c r="B116" s="15" t="s">
-        <v>100</v>
+        <v>414</v>
+      </c>
+      <c r="B116" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5340,18 +5394,18 @@
         <v>1</v>
       </c>
       <c r="G116" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
-        <v>423</v>
-      </c>
-      <c r="B117" s="15" t="s">
-        <v>101</v>
+        <v>415</v>
+      </c>
+      <c r="B117" s="14" t="s">
+        <v>93</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5366,18 +5420,18 @@
         <v>1</v>
       </c>
       <c r="G117" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="B118" s="15" t="s">
-        <v>102</v>
+        <v>416</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>94</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5392,18 +5446,18 @@
         <v>1</v>
       </c>
       <c r="G118" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
-        <v>425</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>103</v>
+        <v>417</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>95</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5418,18 +5472,18 @@
         <v>1</v>
       </c>
       <c r="G119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
-        <v>426</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>104</v>
+        <v>418</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5444,18 +5498,18 @@
         <v>1</v>
       </c>
       <c r="G120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>427</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>105</v>
+        <v>419</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5463,25 +5517,25 @@
       <c r="D121" s="2">
         <v>0</v>
       </c>
-      <c r="E121" s="20">
-        <v>1</v>
-      </c>
-      <c r="F121" s="22">
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="3">
         <v>1</v>
       </c>
       <c r="G121" s="3">
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5489,25 +5543,25 @@
       <c r="D122" s="2">
         <v>0</v>
       </c>
-      <c r="E122" s="20">
-        <v>1</v>
-      </c>
-      <c r="F122" s="22">
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="3">
         <v>1</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5515,25 +5569,25 @@
       <c r="D123" s="2">
         <v>0</v>
       </c>
-      <c r="E123" s="20">
-        <v>1</v>
-      </c>
-      <c r="F123" s="22">
+      <c r="E123" s="2">
+        <v>1</v>
+      </c>
+      <c r="F123" s="3">
         <v>1</v>
       </c>
       <c r="G123" s="3">
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5541,25 +5595,25 @@
       <c r="D124" s="2">
         <v>0</v>
       </c>
-      <c r="E124" s="20">
-        <v>1</v>
-      </c>
-      <c r="F124" s="20">
+      <c r="E124" s="2">
+        <v>1</v>
+      </c>
+      <c r="F124" s="3">
         <v>1</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5567,25 +5621,25 @@
       <c r="D125" s="2">
         <v>0</v>
       </c>
-      <c r="E125" s="20">
-        <v>1</v>
-      </c>
-      <c r="F125" s="22">
+      <c r="E125" s="2">
+        <v>1</v>
+      </c>
+      <c r="F125" s="3">
         <v>1</v>
       </c>
       <c r="G125" s="3">
         <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5593,25 +5647,25 @@
       <c r="D126" s="2">
         <v>0</v>
       </c>
-      <c r="E126" s="20">
-        <v>1</v>
-      </c>
-      <c r="F126" s="22">
+      <c r="E126" s="2">
+        <v>1</v>
+      </c>
+      <c r="F126" s="3">
         <v>1</v>
       </c>
       <c r="G126" s="3">
         <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5619,25 +5673,25 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-      <c r="E127" s="20">
-        <v>1</v>
-      </c>
-      <c r="F127" s="22">
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
         <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5645,25 +5699,25 @@
       <c r="D128" s="2">
         <v>0</v>
       </c>
-      <c r="E128" s="20">
-        <v>1</v>
-      </c>
-      <c r="F128" s="20">
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
         <v>1</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>113</v>
+        <v>427</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5681,15 +5735,15 @@
         <v>1</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>114</v>
+        <v>428</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5704,18 +5758,18 @@
         <v>1</v>
       </c>
       <c r="G130" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>114</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
-        <v>437</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>115</v>
+        <v>429</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>107</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5730,18 +5784,18 @@
         <v>1</v>
       </c>
       <c r="G131" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
-        <v>602</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>116</v>
+        <v>430</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5752,22 +5806,22 @@
       <c r="E132" s="20">
         <v>1</v>
       </c>
-      <c r="F132" s="22">
+      <c r="F132" s="20">
         <v>1</v>
       </c>
       <c r="G132" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>605</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
-        <v>438</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>117</v>
+        <v>431</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>109</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5782,18 +5836,18 @@
         <v>1</v>
       </c>
       <c r="G133" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
-        <v>439</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>118</v>
+        <v>432</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>110</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5804,22 +5858,22 @@
       <c r="E134" s="20">
         <v>1</v>
       </c>
-      <c r="F134" s="20">
+      <c r="F134" s="22">
         <v>1</v>
       </c>
       <c r="G134" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>603</v>
+        <v>433</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5834,18 +5888,18 @@
         <v>1</v>
       </c>
       <c r="G135" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>604</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
-        <v>440</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>119</v>
+        <v>434</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5856,22 +5910,22 @@
       <c r="E136" s="20">
         <v>1</v>
       </c>
-      <c r="F136" s="22">
+      <c r="F136" s="20">
         <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5886,18 +5940,18 @@
         <v>1</v>
       </c>
       <c r="G137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5915,15 +5969,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>285</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="B139" s="16" t="s">
-        <v>596</v>
+      <c r="A139" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5934,22 +5988,22 @@
       <c r="E139" s="20">
         <v>1</v>
       </c>
-      <c r="F139" s="20">
+      <c r="F139" s="22">
         <v>1</v>
       </c>
       <c r="G139" s="3">
         <v>0</v>
       </c>
-      <c r="H139" s="18" t="s">
-        <v>606</v>
+      <c r="H139" s="17" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="18" t="s">
-        <v>591</v>
-      </c>
-      <c r="B140" s="16" t="s">
-        <v>597</v>
+      <c r="A140" s="17" t="s">
+        <v>600</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>116</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5960,22 +6014,22 @@
       <c r="E140" s="20">
         <v>1</v>
       </c>
-      <c r="F140" s="20">
+      <c r="F140" s="22">
         <v>1</v>
       </c>
       <c r="G140" s="3">
         <v>0</v>
       </c>
-      <c r="H140" s="18" t="s">
-        <v>607</v>
+      <c r="H140" s="17" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="18" t="s">
-        <v>592</v>
-      </c>
-      <c r="B141" s="16" t="s">
-        <v>598</v>
+      <c r="A141" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B141" s="14" t="s">
+        <v>117</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5986,22 +6040,22 @@
       <c r="E141" s="20">
         <v>1</v>
       </c>
-      <c r="F141" s="20">
+      <c r="F141" s="22">
         <v>1</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
       </c>
-      <c r="H141" s="18" t="s">
-        <v>608</v>
+      <c r="H141" s="17" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="B142" s="16" t="s">
-        <v>599</v>
+      <c r="A142" s="17" t="s">
+        <v>439</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>118</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6018,16 +6072,16 @@
       <c r="G142" s="3">
         <v>0</v>
       </c>
-      <c r="H142" s="18" t="s">
-        <v>609</v>
+      <c r="H142" s="17" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="18" t="s">
-        <v>594</v>
-      </c>
-      <c r="B143" s="16" t="s">
-        <v>600</v>
+      <c r="A143" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="B143" s="14" t="s">
+        <v>601</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6038,22 +6092,22 @@
       <c r="E143" s="20">
         <v>1</v>
       </c>
-      <c r="F143" s="20">
+      <c r="F143" s="22">
         <v>1</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
       </c>
-      <c r="H143" s="18" t="s">
-        <v>610</v>
+      <c r="H143" s="17" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="18" t="s">
-        <v>595</v>
-      </c>
-      <c r="B144" s="16" t="s">
-        <v>601</v>
+      <c r="A144" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6064,22 +6118,22 @@
       <c r="E144" s="20">
         <v>1</v>
       </c>
-      <c r="F144" s="20">
+      <c r="F144" s="22">
         <v>1</v>
       </c>
       <c r="G144" s="3">
         <v>0</v>
       </c>
-      <c r="H144" s="18" t="s">
-        <v>611</v>
+      <c r="H144" s="17" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
-        <v>612</v>
+        <v>441</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6097,15 +6151,15 @@
         <v>0</v>
       </c>
       <c r="H145" s="17" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="B146" s="23" t="s">
-        <v>534</v>
+        <v>442</v>
+      </c>
+      <c r="B146" s="14" t="s">
+        <v>121</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6113,7 +6167,7 @@
       <c r="D146" s="2">
         <v>0</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E146" s="20">
         <v>1</v>
       </c>
       <c r="F146" s="22">
@@ -6123,15 +6177,15 @@
         <v>0</v>
       </c>
       <c r="H146" s="17" t="s">
-        <v>516</v>
+        <v>285</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="B147" s="23" t="s">
-        <v>535</v>
+      <c r="A147" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>594</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6139,25 +6193,25 @@
       <c r="D147" s="2">
         <v>0</v>
       </c>
-      <c r="E147" s="4">
-        <v>1</v>
-      </c>
-      <c r="F147" s="22">
+      <c r="E147" s="20">
+        <v>1</v>
+      </c>
+      <c r="F147" s="20">
         <v>1</v>
       </c>
       <c r="G147" s="3">
         <v>0</v>
       </c>
-      <c r="H147" s="17" t="s">
-        <v>517</v>
+      <c r="H147" s="18" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="B148" s="23" t="s">
-        <v>541</v>
+      <c r="A148" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>595</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6165,25 +6219,25 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-      <c r="E148" s="4">
-        <v>1</v>
-      </c>
-      <c r="F148" s="22">
+      <c r="E148" s="20">
+        <v>1</v>
+      </c>
+      <c r="F148" s="20">
         <v>1</v>
       </c>
       <c r="G148" s="3">
         <v>0</v>
       </c>
-      <c r="H148" s="17" t="s">
-        <v>518</v>
+      <c r="H148" s="18" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="B149" s="23" t="s">
-        <v>536</v>
+      <c r="A149" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>596</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6191,25 +6245,25 @@
       <c r="D149" s="2">
         <v>0</v>
       </c>
-      <c r="E149" s="4">
-        <v>1</v>
-      </c>
-      <c r="F149" s="22">
+      <c r="E149" s="20">
+        <v>1</v>
+      </c>
+      <c r="F149" s="20">
         <v>1</v>
       </c>
       <c r="G149" s="3">
         <v>0</v>
       </c>
-      <c r="H149" s="17" t="s">
-        <v>519</v>
+      <c r="H149" s="18" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="17" t="s">
-        <v>576</v>
-      </c>
-      <c r="B150" s="23" t="s">
-        <v>542</v>
+      <c r="A150" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>597</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6217,25 +6271,25 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-      <c r="E150" s="4">
-        <v>1</v>
-      </c>
-      <c r="F150" s="22">
+      <c r="E150" s="20">
+        <v>1</v>
+      </c>
+      <c r="F150" s="20">
         <v>1</v>
       </c>
       <c r="G150" s="3">
         <v>0</v>
       </c>
-      <c r="H150" s="17" t="s">
-        <v>520</v>
+      <c r="H150" s="18" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="17" t="s">
-        <v>577</v>
-      </c>
-      <c r="B151" s="23" t="s">
-        <v>543</v>
+      <c r="A151" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>598</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6243,25 +6297,25 @@
       <c r="D151" s="2">
         <v>0</v>
       </c>
-      <c r="E151" s="4">
-        <v>1</v>
-      </c>
-      <c r="F151" s="22">
+      <c r="E151" s="20">
+        <v>1</v>
+      </c>
+      <c r="F151" s="20">
         <v>1</v>
       </c>
       <c r="G151" s="3">
         <v>0</v>
       </c>
-      <c r="H151" s="17" t="s">
-        <v>521</v>
+      <c r="H151" s="18" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="17" t="s">
-        <v>578</v>
-      </c>
-      <c r="B152" s="23" t="s">
-        <v>537</v>
+      <c r="A152" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="B152" s="16" t="s">
+        <v>599</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6269,25 +6323,25 @@
       <c r="D152" s="2">
         <v>0</v>
       </c>
-      <c r="E152" s="4">
-        <v>1</v>
-      </c>
-      <c r="F152" s="22">
+      <c r="E152" s="20">
+        <v>1</v>
+      </c>
+      <c r="F152" s="20">
         <v>1</v>
       </c>
       <c r="G152" s="3">
         <v>0</v>
       </c>
-      <c r="H152" s="17" t="s">
-        <v>522</v>
+      <c r="H152" s="18" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="B153" s="23" t="s">
-        <v>544</v>
+        <v>610</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6295,7 +6349,7 @@
       <c r="D153" s="2">
         <v>0</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="20">
         <v>1</v>
       </c>
       <c r="F153" s="22">
@@ -6305,15 +6359,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>523</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6331,15 +6385,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6357,15 +6411,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6383,15 +6437,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6409,15 +6463,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="17" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6435,15 +6489,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6461,15 +6515,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6487,15 +6541,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6513,15 +6567,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6539,15 +6593,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6565,15 +6619,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="B164" s="14" t="s">
-        <v>123</v>
+        <v>580</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>544</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6581,7 +6635,7 @@
       <c r="D164" s="2">
         <v>0</v>
       </c>
-      <c r="E164" s="20">
+      <c r="E164" s="4">
         <v>1</v>
       </c>
       <c r="F164" s="22">
@@ -6591,15 +6645,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>287</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="B165" s="14" t="s">
-        <v>124</v>
+        <v>581</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>545</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6607,7 +6661,7 @@
       <c r="D165" s="2">
         <v>0</v>
       </c>
-      <c r="E165" s="20">
+      <c r="E165" s="4">
         <v>1</v>
       </c>
       <c r="F165" s="22">
@@ -6617,15 +6671,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>288</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
-        <v>444</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>125</v>
+        <v>582</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>537</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6633,25 +6687,25 @@
       <c r="D166" s="2">
         <v>0</v>
       </c>
-      <c r="E166" s="20">
+      <c r="E166" s="4">
         <v>1</v>
       </c>
       <c r="F166" s="22">
         <v>1</v>
       </c>
       <c r="G166" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>289</v>
+        <v>526</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>126</v>
+        <v>583</v>
+      </c>
+      <c r="B167" s="23" t="s">
+        <v>546</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6659,25 +6713,25 @@
       <c r="D167" s="2">
         <v>0</v>
       </c>
-      <c r="E167" s="20">
+      <c r="E167" s="4">
         <v>1</v>
       </c>
       <c r="F167" s="22">
         <v>1</v>
       </c>
       <c r="G167" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>290</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
-        <v>566</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>567</v>
+        <v>584</v>
+      </c>
+      <c r="B168" s="23" t="s">
+        <v>538</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6685,25 +6739,25 @@
       <c r="D168" s="2">
         <v>0</v>
       </c>
-      <c r="E168" s="20">
+      <c r="E168" s="4">
         <v>1</v>
       </c>
       <c r="F168" s="22">
         <v>1</v>
       </c>
       <c r="G168" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
-        <v>569</v>
-      </c>
-      <c r="B169" s="14" t="s">
-        <v>570</v>
+        <v>585</v>
+      </c>
+      <c r="B169" s="23" t="s">
+        <v>547</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6711,25 +6765,25 @@
       <c r="D169" s="2">
         <v>0</v>
       </c>
-      <c r="E169" s="20">
+      <c r="E169" s="4">
         <v>1</v>
       </c>
       <c r="F169" s="22">
         <v>1</v>
       </c>
       <c r="G169" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>571</v>
+        <v>529</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>127</v>
+        <v>586</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>549</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6737,7 +6791,7 @@
       <c r="D170" s="2">
         <v>0</v>
       </c>
-      <c r="E170" s="20">
+      <c r="E170" s="4">
         <v>1</v>
       </c>
       <c r="F170" s="22">
@@ -6747,15 +6801,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>291</v>
+        <v>530</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="B171" s="15" t="s">
-        <v>128</v>
+        <v>587</v>
+      </c>
+      <c r="B171" s="23" t="s">
+        <v>548</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6763,7 +6817,7 @@
       <c r="D171" s="2">
         <v>0</v>
       </c>
-      <c r="E171" s="20">
+      <c r="E171" s="4">
         <v>1</v>
       </c>
       <c r="F171" s="22">
@@ -6773,15 +6827,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>292</v>
+        <v>531</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6799,15 +6853,15 @@
         <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
-        <v>449</v>
+        <v>550</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6818,22 +6872,22 @@
       <c r="E173" s="20">
         <v>1</v>
       </c>
-      <c r="F173" s="20">
+      <c r="F173" s="22">
         <v>1</v>
       </c>
       <c r="G173" s="3">
         <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6848,18 +6902,18 @@
         <v>1</v>
       </c>
       <c r="G174" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6874,18 +6928,18 @@
         <v>1</v>
       </c>
       <c r="G175" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="17" t="s">
-        <v>452</v>
+        <v>564</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>133</v>
+        <v>565</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6903,15 +6957,15 @@
         <v>1</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>297</v>
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
-        <v>453</v>
+        <v>567</v>
       </c>
       <c r="B177" s="14" t="s">
-        <v>134</v>
+        <v>568</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6929,15 +6983,15 @@
         <v>1</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>298</v>
+        <v>569</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="B178" s="14" t="s">
-        <v>135</v>
+        <v>446</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6955,15 +7009,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>136</v>
+        <v>447</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6981,15 +7035,15 @@
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="17" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7007,15 +7061,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7026,22 +7080,22 @@
       <c r="E181" s="20">
         <v>1</v>
       </c>
-      <c r="F181" s="22">
+      <c r="F181" s="20">
         <v>1</v>
       </c>
       <c r="G181" s="3">
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7059,15 +7113,15 @@
         <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7085,15 +7139,15 @@
         <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7108,18 +7162,18 @@
         <v>1</v>
       </c>
       <c r="G184" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7134,18 +7188,18 @@
         <v>1</v>
       </c>
       <c r="G185" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7163,15 +7217,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7189,15 +7243,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7215,15 +7269,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7241,15 +7295,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7267,15 +7321,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7293,15 +7347,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7319,15 +7373,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7345,15 +7399,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7371,15 +7425,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="17" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7390,22 +7444,22 @@
       <c r="E195" s="20">
         <v>1</v>
       </c>
-      <c r="F195" s="20">
+      <c r="F195" s="22">
         <v>1</v>
       </c>
       <c r="G195" s="3">
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7423,15 +7477,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7449,15 +7503,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7475,15 +7529,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7501,15 +7555,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7527,15 +7581,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7553,15 +7607,15 @@
         <v>0</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7579,15 +7633,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="17" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7598,247 +7652,455 @@
       <c r="E203" s="20">
         <v>1</v>
       </c>
-      <c r="F203" s="22">
+      <c r="F203" s="20">
         <v>1</v>
       </c>
       <c r="G203" s="3">
         <v>0</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="B204" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C204" s="2">
+        <v>0</v>
+      </c>
+      <c r="D204" s="2">
+        <v>0</v>
+      </c>
+      <c r="E204" s="20">
+        <v>1</v>
+      </c>
+      <c r="F204" s="22">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3">
+        <v>0</v>
+      </c>
+      <c r="H204" s="17" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="B205" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C205" s="2">
+        <v>0</v>
+      </c>
+      <c r="D205" s="2">
+        <v>0</v>
+      </c>
+      <c r="E205" s="20">
+        <v>1</v>
+      </c>
+      <c r="F205" s="22">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0</v>
+      </c>
+      <c r="H205" s="17" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="B206" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C206" s="2">
+        <v>0</v>
+      </c>
+      <c r="D206" s="2">
+        <v>0</v>
+      </c>
+      <c r="E206" s="20">
+        <v>1</v>
+      </c>
+      <c r="F206" s="22">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3">
+        <v>0</v>
+      </c>
+      <c r="H206" s="17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="17" t="s">
+        <v>475</v>
+      </c>
+      <c r="B207" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="C207" s="2">
+        <v>0</v>
+      </c>
+      <c r="D207" s="2">
+        <v>0</v>
+      </c>
+      <c r="E207" s="20">
+        <v>1</v>
+      </c>
+      <c r="F207" s="22">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="17" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="17" t="s">
+        <v>476</v>
+      </c>
+      <c r="B208" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="C208" s="2">
+        <v>0</v>
+      </c>
+      <c r="D208" s="2">
+        <v>0</v>
+      </c>
+      <c r="E208" s="20">
+        <v>1</v>
+      </c>
+      <c r="F208" s="22">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="17" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="17" t="s">
+        <v>477</v>
+      </c>
+      <c r="B209" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C209" s="2">
+        <v>0</v>
+      </c>
+      <c r="D209" s="2">
+        <v>0</v>
+      </c>
+      <c r="E209" s="20">
+        <v>1</v>
+      </c>
+      <c r="F209" s="22">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="17" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0</v>
+      </c>
+      <c r="E210" s="20">
+        <v>1</v>
+      </c>
+      <c r="F210" s="22">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0</v>
+      </c>
+      <c r="E211" s="20">
+        <v>1</v>
+      </c>
+      <c r="F211" s="22">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="B204" s="14" t="s">
+      <c r="B212" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C204" s="2">
-        <v>0</v>
-      </c>
-      <c r="D204" s="2">
-        <v>0</v>
-      </c>
-      <c r="E204" s="20">
-        <v>1</v>
-      </c>
-      <c r="F204" s="22">
-        <v>1</v>
-      </c>
-      <c r="G204" s="3">
-        <v>0</v>
-      </c>
-      <c r="H204" s="17" t="s">
+      <c r="C212" s="2">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0</v>
+      </c>
+      <c r="E212" s="20">
+        <v>1</v>
+      </c>
+      <c r="F212" s="22">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0</v>
+      </c>
+      <c r="H212" s="17" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A205" s="18" t="s">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="18" t="s">
         <v>481</v>
       </c>
-      <c r="B205" s="16" t="s">
+      <c r="B213" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="C205" s="2">
-        <v>0</v>
-      </c>
-      <c r="D205" s="2">
-        <v>0</v>
-      </c>
-      <c r="E205" s="20">
-        <v>1</v>
-      </c>
-      <c r="F205" s="22">
-        <v>1</v>
-      </c>
-      <c r="G205" s="3">
-        <v>0</v>
-      </c>
-      <c r="H205" s="18" t="s">
+      <c r="C213" s="2">
+        <v>0</v>
+      </c>
+      <c r="D213" s="2">
+        <v>0</v>
+      </c>
+      <c r="E213" s="20">
+        <v>1</v>
+      </c>
+      <c r="F213" s="22">
+        <v>1</v>
+      </c>
+      <c r="G213" s="3">
+        <v>0</v>
+      </c>
+      <c r="H213" s="18" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A206" s="18" t="s">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="B206" s="16" t="s">
+      <c r="B214" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="C206" s="2">
-        <v>0</v>
-      </c>
-      <c r="D206" s="2">
-        <v>0</v>
-      </c>
-      <c r="E206" s="20">
-        <v>1</v>
-      </c>
-      <c r="F206" s="22">
-        <v>1</v>
-      </c>
-      <c r="G206" s="3">
-        <v>0</v>
-      </c>
-      <c r="H206" s="18" t="s">
+      <c r="C214" s="2">
+        <v>0</v>
+      </c>
+      <c r="D214" s="2">
+        <v>0</v>
+      </c>
+      <c r="E214" s="20">
+        <v>1</v>
+      </c>
+      <c r="F214" s="22">
+        <v>1</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0</v>
+      </c>
+      <c r="H214" s="18" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A207" s="18" t="s">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="B207" s="16" t="s">
+      <c r="B215" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C207" s="2">
-        <v>0</v>
-      </c>
-      <c r="D207" s="2">
-        <v>0</v>
-      </c>
-      <c r="E207" s="20">
-        <v>1</v>
-      </c>
-      <c r="F207" s="22">
-        <v>1</v>
-      </c>
-      <c r="G207" s="3">
-        <v>0</v>
-      </c>
-      <c r="H207" s="18" t="s">
+      <c r="C215" s="2">
+        <v>0</v>
+      </c>
+      <c r="D215" s="2">
+        <v>0</v>
+      </c>
+      <c r="E215" s="20">
+        <v>1</v>
+      </c>
+      <c r="F215" s="22">
+        <v>1</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
+      <c r="H215" s="18" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A208" s="18" t="s">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="B208" s="16" t="s">
+      <c r="B216" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="C208" s="2">
-        <v>0</v>
-      </c>
-      <c r="D208" s="2">
-        <v>0</v>
-      </c>
-      <c r="E208" s="20">
-        <v>1</v>
-      </c>
-      <c r="F208" s="22">
-        <v>1</v>
-      </c>
-      <c r="G208" s="3">
-        <v>0</v>
-      </c>
-      <c r="H208" s="18" t="s">
+      <c r="C216" s="2">
+        <v>0</v>
+      </c>
+      <c r="D216" s="2">
+        <v>0</v>
+      </c>
+      <c r="E216" s="20">
+        <v>1</v>
+      </c>
+      <c r="F216" s="22">
+        <v>1</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0</v>
+      </c>
+      <c r="H216" s="18" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A209" s="18" t="s">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="18" t="s">
         <v>485</v>
       </c>
-      <c r="B209" s="16" t="s">
+      <c r="B217" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="C209" s="2">
-        <v>0</v>
-      </c>
-      <c r="D209" s="2">
-        <v>0</v>
-      </c>
-      <c r="E209" s="20">
-        <v>1</v>
-      </c>
-      <c r="F209" s="22">
-        <v>1</v>
-      </c>
-      <c r="G209" s="3">
-        <v>0</v>
-      </c>
-      <c r="H209" s="18" t="s">
+      <c r="C217" s="2">
+        <v>0</v>
+      </c>
+      <c r="D217" s="2">
+        <v>0</v>
+      </c>
+      <c r="E217" s="20">
+        <v>1</v>
+      </c>
+      <c r="F217" s="22">
+        <v>1</v>
+      </c>
+      <c r="G217" s="3">
+        <v>0</v>
+      </c>
+      <c r="H217" s="18" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A210" s="18" t="s">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="B210" s="16" t="s">
+      <c r="B218" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C210" s="2">
-        <v>0</v>
-      </c>
-      <c r="D210" s="2">
-        <v>0</v>
-      </c>
-      <c r="E210" s="20">
-        <v>1</v>
-      </c>
-      <c r="F210" s="22">
-        <v>1</v>
-      </c>
-      <c r="G210" s="3">
-        <v>0</v>
-      </c>
-      <c r="H210" s="18" t="s">
+      <c r="C218" s="2">
+        <v>0</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0</v>
+      </c>
+      <c r="E218" s="20">
+        <v>1</v>
+      </c>
+      <c r="F218" s="22">
+        <v>1</v>
+      </c>
+      <c r="G218" s="3">
+        <v>0</v>
+      </c>
+      <c r="H218" s="18" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="18" t="s">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="B211" s="16" t="s">
+      <c r="B219" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C211" s="2">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2">
-        <v>0</v>
-      </c>
-      <c r="E211" s="20">
-        <v>1</v>
-      </c>
-      <c r="F211" s="22">
-        <v>1</v>
-      </c>
-      <c r="G211" s="3">
-        <v>0</v>
-      </c>
-      <c r="H211" s="18" t="s">
+      <c r="C219" s="2">
+        <v>0</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0</v>
+      </c>
+      <c r="E219" s="20">
+        <v>1</v>
+      </c>
+      <c r="F219" s="22">
+        <v>1</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
+      <c r="H219" s="18" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="18" t="s">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="B212" s="16" t="s">
+      <c r="B220" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C212" s="2">
-        <v>0</v>
-      </c>
-      <c r="D212" s="2">
-        <v>0</v>
-      </c>
-      <c r="E212" s="20">
-        <v>1</v>
-      </c>
-      <c r="F212" s="20">
-        <v>1</v>
-      </c>
-      <c r="G212" s="3">
-        <v>0</v>
-      </c>
-      <c r="H212" s="18" t="s">
+      <c r="C220" s="2">
+        <v>0</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0</v>
+      </c>
+      <c r="E220" s="20">
+        <v>1</v>
+      </c>
+      <c r="F220" s="20">
+        <v>1</v>
+      </c>
+      <c r="G220" s="3">
+        <v>0</v>
+      </c>
+      <c r="H220" s="18" t="s">
         <v>212</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_india.xlsx
+++ b/inst/extdata/main_dict_india.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="637">
   <si>
     <t>old</t>
   </si>
@@ -1910,12 +1910,6 @@
     <t>gps_accuracy</t>
   </si>
   <si>
-    <t>a3-screening_start</t>
-  </si>
-  <si>
-    <t>screening_start</t>
-  </si>
-  <si>
     <t>a3-district1</t>
   </si>
   <si>
@@ -1941,9 +1935,6 @@
   </si>
   <si>
     <t>a4_a_11o</t>
-  </si>
-  <si>
-    <t>t_screening_start</t>
   </si>
 </sst>
 </file>
@@ -2367,10 +2358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2675,13 +2666,13 @@
         <v>628</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
@@ -2690,10 +2681,10 @@
         <v>1</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2719,21 +2710,21 @@
         <v>1</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>633</v>
+      <c r="A14" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -2742,44 +2733,44 @@
         <v>1</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>635</v>
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
-        <v>628</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>629</v>
+      <c r="A15" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>629</v>
+      <c r="H15" s="8" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>333</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
+      <c r="A16" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>490</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -2796,48 +2787,48 @@
       <c r="G16" s="3">
         <v>0</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>173</v>
+      <c r="H16" s="8" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>490</v>
+        <v>336</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>490</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="4">
         <v>1</v>
@@ -2849,21 +2840,21 @@
         <v>0</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>490</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>35</v>
+      <c r="A19" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -2874,22 +2865,22 @@
       <c r="G19" s="3">
         <v>0</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>175</v>
+      <c r="H19" s="11" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>36</v>
+      <c r="A20" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
       </c>
       <c r="D20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="4">
         <v>1</v>
@@ -2898,18 +2889,18 @@
         <v>1</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>495</v>
+        <v>338</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>497</v>
+        <v>28</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -2927,21 +2918,21 @@
         <v>0</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>496</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -2953,15 +2944,15 @@
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>338</v>
+        <v>494</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>28</v>
+        <v>493</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -2979,21 +2970,21 @@
         <v>0</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>177</v>
+        <v>493</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -3002,18 +2993,18 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>494</v>
+        <v>342</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>493</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -3031,21 +3022,21 @@
         <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>493</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -3054,24 +3045,24 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>12</v>
+        <v>612</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -3080,76 +3071,76 @@
         <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
-      <c r="D28" s="2">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>1</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
+        <v>22</v>
+      </c>
+      <c r="C28" s="20">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20">
+        <v>0</v>
+      </c>
+      <c r="E28" s="21">
+        <v>1</v>
+      </c>
+      <c r="F28" s="22">
+        <v>1</v>
+      </c>
+      <c r="G28" s="22">
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>612</v>
-      </c>
-      <c r="C29" s="2">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="3">
+        <v>23</v>
+      </c>
+      <c r="C29" s="20">
+        <v>1</v>
+      </c>
+      <c r="D29" s="20">
+        <v>0</v>
+      </c>
+      <c r="E29" s="20">
+        <v>1</v>
+      </c>
+      <c r="F29" s="20">
+        <v>1</v>
+      </c>
+      <c r="G29" s="22">
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C30" s="20">
         <v>1</v>
       </c>
       <c r="D30" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="21">
         <v>1</v>
@@ -3161,67 +3152,67 @@
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>183</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="20">
-        <v>1</v>
-      </c>
-      <c r="D31" s="20">
-        <v>0</v>
-      </c>
-      <c r="E31" s="20">
-        <v>1</v>
-      </c>
-      <c r="F31" s="20">
-        <v>1</v>
-      </c>
-      <c r="G31" s="22">
+        <v>37</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
         <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="20">
-        <v>1</v>
-      </c>
-      <c r="D32" s="20">
-        <v>1</v>
-      </c>
-      <c r="E32" s="21">
-        <v>1</v>
-      </c>
-      <c r="F32" s="22">
-        <v>1</v>
-      </c>
-      <c r="G32" s="22">
-        <v>1</v>
+        <v>21</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -3239,21 +3230,21 @@
         <v>1</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C34" s="2">
         <v>1</v>
       </c>
       <c r="D34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="4">
         <v>1</v>
@@ -3262,24 +3253,24 @@
         <v>1</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="11" t="s">
-        <v>349</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>13</v>
+      <c r="A35" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -3290,22 +3281,22 @@
       <c r="G35" s="3">
         <v>1</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>187</v>
+      <c r="H35" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>14</v>
+      <c r="A36" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>6</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
       </c>
       <c r="D36" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" s="4">
         <v>1</v>
@@ -3314,18 +3305,18 @@
         <v>1</v>
       </c>
       <c r="G36" s="3">
-        <v>1</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>188</v>
+        <v>0</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3340,18 +3331,18 @@
         <v>1</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3369,15 +3360,15 @@
         <v>0</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>353</v>
+        <v>507</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>15</v>
+        <v>508</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -3392,18 +3383,18 @@
         <v>1</v>
       </c>
       <c r="G39" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>191</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
-        <v>354</v>
+        <v>511</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>5</v>
+        <v>512</v>
       </c>
       <c r="C40" s="2">
         <v>1</v>
@@ -3415,27 +3406,27 @@
         <v>1</v>
       </c>
       <c r="F40" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="3">
         <v>0</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>192</v>
+        <v>510</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>508</v>
+      <c r="A41" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
       </c>
       <c r="D41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="4">
         <v>1</v>
@@ -3446,42 +3437,42 @@
       <c r="G41" s="3">
         <v>1</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>509</v>
+      <c r="H41" s="7" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>512</v>
+      <c r="A42" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
       </c>
       <c r="D42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="4">
         <v>1</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>510</v>
+        <v>1</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -3499,15 +3490,15 @@
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>45</v>
+      <c r="A44" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3524,16 +3515,16 @@
       <c r="G44" s="3">
         <v>1</v>
       </c>
-      <c r="H44" s="10" t="s">
-        <v>195</v>
+      <c r="H44" s="7" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -3551,15 +3542,15 @@
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -3574,18 +3565,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -3600,18 +3591,18 @@
         <v>1</v>
       </c>
       <c r="G47" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -3629,24 +3620,24 @@
         <v>0</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>1</v>
@@ -3655,15 +3646,15 @@
         <v>0</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -3681,24 +3672,24 @@
         <v>0</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>19</v>
+      <c r="A51" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
@@ -3706,19 +3697,19 @@
       <c r="G51" s="3">
         <v>0</v>
       </c>
-      <c r="H51" s="7" t="s">
-        <v>202</v>
+      <c r="H51" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C52" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2">
         <v>1</v>
@@ -3730,18 +3721,18 @@
         <v>1</v>
       </c>
       <c r="G52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>29</v>
+      <c r="A53" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="C53" s="2">
         <v>1</v>
@@ -3756,18 +3747,18 @@
         <v>1</v>
       </c>
       <c r="G53" s="3">
-        <v>0</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>204</v>
+        <v>1</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>31</v>
+      <c r="A54" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>40</v>
       </c>
       <c r="C54" s="2">
         <v>0</v>
@@ -3776,50 +3767,50 @@
         <v>1</v>
       </c>
       <c r="E54" s="4">
-        <v>1</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F54" s="4">
+        <v>0</v>
       </c>
       <c r="G54" s="3">
-        <v>1</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>205</v>
+        <v>0</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>332</v>
+      <c r="A55" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>41</v>
       </c>
       <c r="C55" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2">
         <v>1</v>
       </c>
       <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>0</v>
       </c>
       <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>332</v>
+        <v>0</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>40</v>
+      <c r="A56" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C56" s="2">
         <v>0</v>
@@ -3828,24 +3819,24 @@
         <v>1</v>
       </c>
       <c r="E56" s="4">
-        <v>0</v>
-      </c>
-      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
         <v>0</v>
       </c>
       <c r="G56" s="3">
-        <v>0</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>211</v>
+        <v>1</v>
+      </c>
+      <c r="H56" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
-        <v>370</v>
+        <v>617</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2">
         <v>0</v>
@@ -3856,22 +3847,22 @@
       <c r="E57" s="4">
         <v>0</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>42</v>
+      <c r="A58" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C58" s="2">
         <v>0</v>
@@ -3880,24 +3871,24 @@
         <v>1</v>
       </c>
       <c r="E58" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>1</v>
-      </c>
-      <c r="H58" s="11" t="s">
-        <v>208</v>
+        <v>0</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="9" t="s">
-        <v>617</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>32</v>
+      <c r="A59" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>561</v>
       </c>
       <c r="C59" s="2">
         <v>0</v>
@@ -3906,24 +3897,24 @@
         <v>1</v>
       </c>
       <c r="E59" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>206</v>
+        <v>1</v>
+      </c>
+      <c r="H59" s="11" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3934,22 +3925,22 @@
       <c r="E60" s="4">
         <v>0</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="4">
         <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>561</v>
+      <c r="A61" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3958,24 +3949,24 @@
         <v>1</v>
       </c>
       <c r="E61" s="4">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="4">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>1</v>
-      </c>
-      <c r="H61" s="11" t="s">
-        <v>562</v>
+        <v>0</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>38</v>
+        <v>635</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3993,15 +3984,15 @@
         <v>0</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>209</v>
+        <v>636</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>39</v>
+        <v>492</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -4019,15 +4010,15 @@
         <v>0</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>210</v>
+        <v>491</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>636</v>
+        <v>498</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>637</v>
+        <v>499</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -4045,15 +4036,15 @@
         <v>0</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>638</v>
+        <v>500</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>616</v>
+        <v>371</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>492</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -4071,15 +4062,15 @@
         <v>0</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>491</v>
+        <v>215</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
-        <v>498</v>
+        <v>372</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>499</v>
+        <v>44</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -4097,67 +4088,67 @@
         <v>0</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>500</v>
+        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>43</v>
+      <c r="A67" s="19" t="s">
+        <v>503</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>504</v>
       </c>
       <c r="C67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D67" s="2">
         <v>1</v>
       </c>
       <c r="E67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>215</v>
+        <v>1</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>44</v>
+      <c r="A68" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>506</v>
       </c>
       <c r="C68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="2">
         <v>1</v>
       </c>
       <c r="E68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F68" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>216</v>
+        <v>1</v>
+      </c>
+      <c r="H68" s="11" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="19" t="s">
-        <v>503</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>504</v>
+      <c r="A69" s="11" t="s">
+        <v>619</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>502</v>
       </c>
       <c r="C69" s="2">
         <v>1</v>
@@ -4169,21 +4160,21 @@
         <v>1</v>
       </c>
       <c r="F69" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="3">
         <v>1</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="19" t="s">
-        <v>505</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>506</v>
+      <c r="A70" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>553</v>
       </c>
       <c r="C70" s="2">
         <v>1</v>
@@ -4195,21 +4186,21 @@
         <v>1</v>
       </c>
       <c r="F70" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>1</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>619</v>
+        <v>555</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -4227,15 +4218,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -4253,75 +4244,75 @@
         <v>1</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
-        <v>555</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>557</v>
+      <c r="A73" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="C73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E73" s="4">
         <v>1</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="3">
         <v>0</v>
       </c>
       <c r="G73" s="3">
         <v>1</v>
       </c>
-      <c r="H73" s="11" t="s">
-        <v>559</v>
+      <c r="H73" s="13" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="C74" s="2">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
-      <c r="F74" s="4">
+      <c r="A74" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="20">
+        <v>0</v>
+      </c>
+      <c r="D74" s="20">
+        <v>0</v>
+      </c>
+      <c r="E74" s="21">
+        <v>1</v>
+      </c>
+      <c r="F74" s="3">
         <v>0</v>
       </c>
       <c r="G74" s="3">
         <v>1</v>
       </c>
-      <c r="H74" s="11" t="s">
-        <v>560</v>
+      <c r="H74" s="13" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C75" s="2">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2">
-        <v>0</v>
-      </c>
-      <c r="E75" s="4">
+        <v>53</v>
+      </c>
+      <c r="C75" s="20">
+        <v>0</v>
+      </c>
+      <c r="D75" s="20">
+        <v>0</v>
+      </c>
+      <c r="E75" s="20">
         <v>1</v>
       </c>
       <c r="F75" s="3">
@@ -4331,15 +4322,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C76" s="20">
         <v>0</v>
@@ -4357,15 +4348,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C77" s="20">
         <v>0</v>
@@ -4373,7 +4364,7 @@
       <c r="D77" s="20">
         <v>0</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="21">
         <v>1</v>
       </c>
       <c r="F77" s="3">
@@ -4383,23 +4374,23 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C78" s="20">
-        <v>0</v>
-      </c>
-      <c r="D78" s="20">
-        <v>0</v>
-      </c>
-      <c r="E78" s="21">
+        <v>56</v>
+      </c>
+      <c r="C78" s="2">
+        <v>0</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
         <v>1</v>
       </c>
       <c r="F78" s="3">
@@ -4409,23 +4400,23 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C79" s="20">
-        <v>0</v>
-      </c>
-      <c r="D79" s="20">
-        <v>0</v>
-      </c>
-      <c r="E79" s="21">
+        <v>57</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
         <v>1</v>
       </c>
       <c r="F79" s="3">
@@ -4435,15 +4426,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4461,15 +4452,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4487,15 +4478,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4513,15 +4504,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4539,15 +4530,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4565,15 +4556,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4591,15 +4582,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -4617,15 +4608,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -4643,15 +4634,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -4669,15 +4660,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4695,15 +4686,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4721,15 +4712,15 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4747,15 +4738,15 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4773,23 +4764,23 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C93" s="2">
+        <v>71</v>
+      </c>
+      <c r="C93" s="20">
         <v>0</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E93" s="21">
         <v>1</v>
       </c>
       <c r="F93" s="3">
@@ -4799,23 +4790,23 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C94" s="2">
+        <v>72</v>
+      </c>
+      <c r="C94" s="20">
         <v>0</v>
       </c>
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E94" s="20">
         <v>1</v>
       </c>
       <c r="F94" s="3">
@@ -4825,15 +4816,15 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C95" s="20">
         <v>0</v>
@@ -4851,15 +4842,15 @@
         <v>1</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C96" s="20">
         <v>0</v>
@@ -4867,7 +4858,7 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="20">
+      <c r="E96" s="21">
         <v>1</v>
       </c>
       <c r="F96" s="3">
@@ -4877,15 +4868,15 @@
         <v>1</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C97" s="20">
         <v>0</v>
@@ -4893,7 +4884,7 @@
       <c r="D97" s="2">
         <v>0</v>
       </c>
-      <c r="E97" s="21">
+      <c r="E97" s="20">
         <v>1</v>
       </c>
       <c r="F97" s="3">
@@ -4903,15 +4894,15 @@
         <v>1</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C98" s="20">
         <v>0</v>
@@ -4919,7 +4910,7 @@
       <c r="D98" s="2">
         <v>0</v>
       </c>
-      <c r="E98" s="21">
+      <c r="E98" s="4">
         <v>1</v>
       </c>
       <c r="F98" s="3">
@@ -4929,15 +4920,15 @@
         <v>1</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C99" s="20">
         <v>0</v>
@@ -4945,7 +4936,7 @@
       <c r="D99" s="2">
         <v>0</v>
       </c>
-      <c r="E99" s="20">
+      <c r="E99" s="4">
         <v>1</v>
       </c>
       <c r="F99" s="3">
@@ -4955,17 +4946,17 @@
         <v>1</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C100" s="20">
+        <v>78</v>
+      </c>
+      <c r="C100" s="2">
         <v>0</v>
       </c>
       <c r="D100" s="2">
@@ -4981,17 +4972,17 @@
         <v>1</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B101" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C101" s="20">
+        <v>79</v>
+      </c>
+      <c r="C101" s="2">
         <v>0</v>
       </c>
       <c r="D101" s="2">
@@ -5007,15 +4998,15 @@
         <v>1</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>78</v>
+      <c r="A102" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -5023,25 +5014,25 @@
       <c r="D102" s="2">
         <v>0</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E102" s="2">
         <v>1</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102" s="3">
         <v>1</v>
       </c>
-      <c r="H102" s="13" t="s">
-        <v>256</v>
+      <c r="H102" s="17" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>79</v>
+      <c r="A103" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>81</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -5049,25 +5040,25 @@
       <c r="D103" s="2">
         <v>0</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E103" s="2">
         <v>1</v>
       </c>
       <c r="F103" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103" s="3">
-        <v>1</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>257</v>
+        <v>0</v>
+      </c>
+      <c r="H103" s="17" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5082,18 +5073,18 @@
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5111,15 +5102,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5137,15 +5128,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5163,15 +5154,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5189,15 +5180,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5215,15 +5206,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5241,15 +5232,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5267,15 +5258,15 @@
         <v>0</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5293,15 +5284,15 @@
         <v>0</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5319,15 +5310,15 @@
         <v>0</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5345,15 +5336,15 @@
         <v>0</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5371,15 +5362,15 @@
         <v>0</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5397,15 +5388,15 @@
         <v>0</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5423,15 +5414,15 @@
         <v>0</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5449,15 +5440,15 @@
         <v>0</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5472,18 +5463,18 @@
         <v>1</v>
       </c>
       <c r="G119" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
-        <v>418</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>96</v>
+        <v>420</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>98</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5498,18 +5489,18 @@
         <v>1</v>
       </c>
       <c r="G120" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="B121" s="14" t="s">
-        <v>97</v>
+        <v>421</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>99</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5527,15 +5518,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5553,15 +5544,15 @@
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5579,15 +5570,15 @@
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5605,15 +5596,15 @@
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5631,15 +5622,15 @@
         <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5657,15 +5648,15 @@
         <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5673,25 +5664,25 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-      <c r="E127" s="2">
-        <v>1</v>
-      </c>
-      <c r="F127" s="3">
+      <c r="E127" s="20">
+        <v>1</v>
+      </c>
+      <c r="F127" s="22">
         <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5699,25 +5690,25 @@
       <c r="D128" s="2">
         <v>0</v>
       </c>
-      <c r="E128" s="2">
-        <v>1</v>
-      </c>
-      <c r="F128" s="3">
+      <c r="E128" s="20">
+        <v>1</v>
+      </c>
+      <c r="F128" s="22">
         <v>1</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5735,15 +5726,15 @@
         <v>1</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5754,22 +5745,22 @@
       <c r="E130" s="20">
         <v>1</v>
       </c>
-      <c r="F130" s="22">
+      <c r="F130" s="20">
         <v>1</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5787,15 +5778,15 @@
         <v>1</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5806,22 +5797,22 @@
       <c r="E132" s="20">
         <v>1</v>
       </c>
-      <c r="F132" s="20">
+      <c r="F132" s="22">
         <v>1</v>
       </c>
       <c r="G132" s="3">
         <v>1</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5839,15 +5830,15 @@
         <v>1</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5858,22 +5849,22 @@
       <c r="E134" s="20">
         <v>1</v>
       </c>
-      <c r="F134" s="22">
+      <c r="F134" s="20">
         <v>1</v>
       </c>
       <c r="G134" s="3">
         <v>1</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="B135" s="15" t="s">
-        <v>111</v>
+        <v>435</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5891,15 +5882,15 @@
         <v>1</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="B136" s="15" t="s">
-        <v>112</v>
+        <v>436</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>114</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5910,22 +5901,22 @@
       <c r="E136" s="20">
         <v>1</v>
       </c>
-      <c r="F136" s="20">
+      <c r="F136" s="22">
         <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>278</v>
+        <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5940,18 +5931,18 @@
         <v>1</v>
       </c>
       <c r="G137" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
-        <v>436</v>
+        <v>600</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5969,15 +5960,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>114</v>
+        <v>603</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5995,15 +5986,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="17" t="s">
-        <v>600</v>
+        <v>439</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -6014,22 +6005,22 @@
       <c r="E140" s="20">
         <v>1</v>
       </c>
-      <c r="F140" s="22">
+      <c r="F140" s="20">
         <v>1</v>
       </c>
       <c r="G140" s="3">
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>603</v>
+        <v>282</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
-        <v>438</v>
+        <v>611</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>117</v>
+        <v>601</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -6047,15 +6038,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>281</v>
+        <v>602</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6066,22 +6057,22 @@
       <c r="E142" s="20">
         <v>1</v>
       </c>
-      <c r="F142" s="20">
+      <c r="F142" s="22">
         <v>1</v>
       </c>
       <c r="G142" s="3">
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
-        <v>611</v>
+        <v>441</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>601</v>
+        <v>120</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6099,15 +6090,15 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>602</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -6125,15 +6116,15 @@
         <v>0</v>
       </c>
       <c r="H144" s="17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="17" t="s">
-        <v>441</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>120</v>
+      <c r="A145" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>594</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -6144,22 +6135,22 @@
       <c r="E145" s="20">
         <v>1</v>
       </c>
-      <c r="F145" s="22">
+      <c r="F145" s="20">
         <v>1</v>
       </c>
       <c r="G145" s="3">
         <v>0</v>
       </c>
-      <c r="H145" s="17" t="s">
-        <v>284</v>
+      <c r="H145" s="18" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="17" t="s">
-        <v>442</v>
-      </c>
-      <c r="B146" s="14" t="s">
-        <v>121</v>
+      <c r="A146" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>595</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -6170,22 +6161,22 @@
       <c r="E146" s="20">
         <v>1</v>
       </c>
-      <c r="F146" s="22">
+      <c r="F146" s="20">
         <v>1</v>
       </c>
       <c r="G146" s="3">
         <v>0</v>
       </c>
-      <c r="H146" s="17" t="s">
-        <v>285</v>
+      <c r="H146" s="18" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="18" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6203,15 +6194,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="18" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6229,15 +6220,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="18" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6255,15 +6246,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="18" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -6281,15 +6272,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="18" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="18" t="s">
-        <v>592</v>
-      </c>
-      <c r="B151" s="16" t="s">
-        <v>598</v>
+      <c r="A151" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="B151" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -6300,22 +6291,22 @@
       <c r="E151" s="20">
         <v>1</v>
       </c>
-      <c r="F151" s="20">
+      <c r="F151" s="22">
         <v>1</v>
       </c>
       <c r="G151" s="3">
         <v>0</v>
       </c>
-      <c r="H151" s="18" t="s">
-        <v>608</v>
+      <c r="H151" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="B152" s="16" t="s">
-        <v>599</v>
+      <c r="A152" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>532</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -6323,25 +6314,25 @@
       <c r="D152" s="2">
         <v>0</v>
       </c>
-      <c r="E152" s="20">
-        <v>1</v>
-      </c>
-      <c r="F152" s="20">
+      <c r="E152" s="4">
+        <v>1</v>
+      </c>
+      <c r="F152" s="22">
         <v>1</v>
       </c>
       <c r="G152" s="3">
         <v>0</v>
       </c>
-      <c r="H152" s="18" t="s">
-        <v>609</v>
+      <c r="H152" s="17" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="B153" s="14" t="s">
-        <v>122</v>
+        <v>571</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>533</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6349,7 +6340,7 @@
       <c r="D153" s="2">
         <v>0</v>
       </c>
-      <c r="E153" s="20">
+      <c r="E153" s="4">
         <v>1</v>
       </c>
       <c r="F153" s="22">
@@ -6359,15 +6350,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>286</v>
+        <v>515</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6385,15 +6376,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6411,15 +6402,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6437,15 +6428,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6463,15 +6454,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="17" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6489,15 +6480,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6515,15 +6506,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6541,15 +6532,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6567,15 +6558,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6593,15 +6584,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6619,15 +6610,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6645,15 +6636,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6671,15 +6662,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6697,15 +6688,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6723,15 +6714,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6749,15 +6740,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6775,15 +6766,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="B170" s="23" t="s">
-        <v>549</v>
+        <v>443</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>123</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6791,7 +6782,7 @@
       <c r="D170" s="2">
         <v>0</v>
       </c>
-      <c r="E170" s="4">
+      <c r="E170" s="20">
         <v>1</v>
       </c>
       <c r="F170" s="22">
@@ -6801,15 +6792,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>530</v>
+        <v>287</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B171" s="23" t="s">
-        <v>548</v>
+        <v>550</v>
+      </c>
+      <c r="B171" s="14" t="s">
+        <v>124</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6817,7 +6808,7 @@
       <c r="D171" s="2">
         <v>0</v>
       </c>
-      <c r="E171" s="4">
+      <c r="E171" s="20">
         <v>1</v>
       </c>
       <c r="F171" s="22">
@@ -6827,15 +6818,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>531</v>
+        <v>288</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6850,18 +6841,18 @@
         <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
-        <v>550</v>
+        <v>445</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6876,18 +6867,18 @@
         <v>1</v>
       </c>
       <c r="G173" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
-        <v>444</v>
+        <v>564</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>125</v>
+        <v>565</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6905,15 +6896,15 @@
         <v>1</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>289</v>
+        <v>566</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
-        <v>445</v>
+        <v>567</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>126</v>
+        <v>568</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6931,15 +6922,15 @@
         <v>1</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>290</v>
+        <v>569</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="17" t="s">
-        <v>564</v>
-      </c>
-      <c r="B176" s="14" t="s">
-        <v>565</v>
+        <v>446</v>
+      </c>
+      <c r="B176" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6954,18 +6945,18 @@
         <v>1</v>
       </c>
       <c r="G176" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>566</v>
+        <v>291</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
-        <v>567</v>
-      </c>
-      <c r="B177" s="14" t="s">
-        <v>568</v>
+        <v>447</v>
+      </c>
+      <c r="B177" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6980,18 +6971,18 @@
         <v>1</v>
       </c>
       <c r="G177" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>569</v>
+        <v>292</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="B178" s="15" t="s">
-        <v>127</v>
+        <v>448</v>
+      </c>
+      <c r="B178" s="14" t="s">
+        <v>129</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -7009,15 +7000,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="B179" s="15" t="s">
-        <v>128</v>
+        <v>449</v>
+      </c>
+      <c r="B179" s="14" t="s">
+        <v>130</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7028,22 +7019,22 @@
       <c r="E179" s="20">
         <v>1</v>
       </c>
-      <c r="F179" s="22">
+      <c r="F179" s="20">
         <v>1</v>
       </c>
       <c r="G179" s="3">
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="17" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7061,15 +7052,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7080,22 +7071,22 @@
       <c r="E181" s="20">
         <v>1</v>
       </c>
-      <c r="F181" s="20">
+      <c r="F181" s="22">
         <v>1</v>
       </c>
       <c r="G181" s="3">
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7110,18 +7101,18 @@
         <v>1</v>
       </c>
       <c r="G182" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7136,18 +7127,18 @@
         <v>1</v>
       </c>
       <c r="G183" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7162,18 +7153,18 @@
         <v>1</v>
       </c>
       <c r="G184" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7188,18 +7179,18 @@
         <v>1</v>
       </c>
       <c r="G185" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7217,15 +7208,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7243,15 +7234,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7269,15 +7260,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7295,15 +7286,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7321,15 +7312,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7347,15 +7338,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7373,15 +7364,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7399,15 +7390,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7425,15 +7416,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="17" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7451,15 +7442,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7477,15 +7468,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7503,15 +7494,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7529,15 +7520,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7555,15 +7546,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7581,15 +7572,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7600,22 +7591,22 @@
       <c r="E201" s="20">
         <v>1</v>
       </c>
-      <c r="F201" s="22">
+      <c r="F201" s="20">
         <v>1</v>
       </c>
       <c r="G201" s="3">
         <v>0</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7633,15 +7624,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="17" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7652,22 +7643,22 @@
       <c r="E203" s="20">
         <v>1</v>
       </c>
-      <c r="F203" s="20">
+      <c r="F203" s="22">
         <v>1</v>
       </c>
       <c r="G203" s="3">
         <v>0</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7685,15 +7676,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="17" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7711,15 +7702,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="17" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7737,15 +7728,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="17" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7763,15 +7754,15 @@
         <v>0</v>
       </c>
       <c r="H207" s="17" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="17" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -7789,15 +7780,15 @@
         <v>0</v>
       </c>
       <c r="H208" s="17" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -7815,15 +7806,15 @@
         <v>0</v>
       </c>
       <c r="H209" s="17" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B210" s="14" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C210" s="2">
         <v>0</v>
@@ -7841,15 +7832,15 @@
         <v>0</v>
       </c>
       <c r="H210" s="17" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="17" t="s">
-        <v>479</v>
-      </c>
-      <c r="B211" s="14" t="s">
-        <v>160</v>
+      <c r="A211" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="B211" s="16" t="s">
+        <v>162</v>
       </c>
       <c r="C211" s="2">
         <v>0</v>
@@ -7866,16 +7857,16 @@
       <c r="G211" s="3">
         <v>0</v>
       </c>
-      <c r="H211" s="17" t="s">
-        <v>324</v>
+      <c r="H211" s="18" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="17" t="s">
-        <v>480</v>
-      </c>
-      <c r="B212" s="14" t="s">
-        <v>161</v>
+      <c r="A212" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="B212" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="C212" s="2">
         <v>0</v>
@@ -7892,16 +7883,16 @@
       <c r="G212" s="3">
         <v>0</v>
       </c>
-      <c r="H212" s="17" t="s">
-        <v>325</v>
+      <c r="H212" s="18" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="18" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -7919,15 +7910,15 @@
         <v>0</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="18" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -7945,15 +7936,15 @@
         <v>0</v>
       </c>
       <c r="H214" s="18" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="18" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -7971,15 +7962,15 @@
         <v>0</v>
       </c>
       <c r="H215" s="18" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="18" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -7997,15 +7988,15 @@
         <v>0</v>
       </c>
       <c r="H216" s="18" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="18" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -8023,15 +8014,15 @@
         <v>0</v>
       </c>
       <c r="H217" s="18" t="s">
-        <v>330</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="18" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B218" s="16" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C218" s="2">
         <v>0</v>
@@ -8042,65 +8033,13 @@
       <c r="E218" s="20">
         <v>1</v>
       </c>
-      <c r="F218" s="22">
+      <c r="F218" s="20">
         <v>1</v>
       </c>
       <c r="G218" s="3">
         <v>0</v>
       </c>
       <c r="H218" s="18" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A219" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="B219" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C219" s="2">
-        <v>0</v>
-      </c>
-      <c r="D219" s="2">
-        <v>0</v>
-      </c>
-      <c r="E219" s="20">
-        <v>1</v>
-      </c>
-      <c r="F219" s="22">
-        <v>1</v>
-      </c>
-      <c r="G219" s="3">
-        <v>0</v>
-      </c>
-      <c r="H219" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A220" s="18" t="s">
-        <v>488</v>
-      </c>
-      <c r="B220" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="C220" s="2">
-        <v>0</v>
-      </c>
-      <c r="D220" s="2">
-        <v>0</v>
-      </c>
-      <c r="E220" s="20">
-        <v>1</v>
-      </c>
-      <c r="F220" s="20">
-        <v>1</v>
-      </c>
-      <c r="G220" s="3">
-        <v>0</v>
-      </c>
-      <c r="H220" s="18" t="s">
         <v>212</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_india.xlsx
+++ b/inst/extdata/main_dict_india.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="639">
   <si>
     <t>old</t>
   </si>
@@ -1935,6 +1935,12 @@
   </si>
   <si>
     <t>a4_a_11o</t>
+  </si>
+  <si>
+    <t>start_time</t>
+  </si>
+  <si>
+    <t>end_time</t>
   </si>
 </sst>
 </file>
@@ -2358,10 +2364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H218"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A6" sqref="A6:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2533,62 +2539,62 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5" t="s">
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>620</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>621</v>
-      </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>1</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>620</v>
-      </c>
-    </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>622</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>623</v>
+      <c r="A9" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>638</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2603,18 +2609,18 @@
         <v>1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>622</v>
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2632,275 +2638,275 @@
         <v>1</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
+        <v>622</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>623</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="24" t="s">
+        <v>624</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>625</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B13" s="24" t="s">
         <v>627</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="s">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B14" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="19" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B15" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="11" t="s">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>490</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8" t="s">
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="8" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C19" s="2">
-        <v>1</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="4">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3">
-        <v>1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>338</v>
+        <v>495</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>28</v>
+        <v>497</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -2918,21 +2924,21 @@
         <v>0</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>177</v>
+        <v>496</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
       <c r="D22" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="4">
         <v>1</v>
@@ -2944,15 +2950,15 @@
         <v>1</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>494</v>
+        <v>338</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>493</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -2970,21 +2976,21 @@
         <v>0</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>493</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
       </c>
       <c r="D24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="4">
         <v>1</v>
@@ -2993,18 +2999,18 @@
         <v>1</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>342</v>
+        <v>494</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>12</v>
+        <v>493</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -3022,21 +3028,21 @@
         <v>0</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>181</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
       </c>
       <c r="D26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="4">
         <v>1</v>
@@ -3045,24 +3051,24 @@
         <v>1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>612</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2">
         <v>1</v>
       </c>
       <c r="D27" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="4">
         <v>1</v>
@@ -3071,76 +3077,76 @@
         <v>1</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="20">
-        <v>1</v>
-      </c>
-      <c r="D28" s="20">
-        <v>0</v>
-      </c>
-      <c r="E28" s="21">
-        <v>1</v>
-      </c>
-      <c r="F28" s="22">
-        <v>1</v>
-      </c>
-      <c r="G28" s="22">
+        <v>10</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
         <v>1</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="20">
-        <v>1</v>
-      </c>
-      <c r="D29" s="20">
-        <v>0</v>
-      </c>
-      <c r="E29" s="20">
-        <v>1</v>
-      </c>
-      <c r="F29" s="20">
-        <v>1</v>
-      </c>
-      <c r="G29" s="22">
+        <v>612</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
         <v>1</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C30" s="20">
         <v>1</v>
       </c>
       <c r="D30" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" s="21">
         <v>1</v>
@@ -3152,67 +3158,67 @@
         <v>1</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3">
+        <v>23</v>
+      </c>
+      <c r="C31" s="20">
+        <v>1</v>
+      </c>
+      <c r="D31" s="20">
+        <v>0</v>
+      </c>
+      <c r="E31" s="20">
+        <v>1</v>
+      </c>
+      <c r="F31" s="20">
+        <v>1</v>
+      </c>
+      <c r="G31" s="22">
         <v>1</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C32" s="20">
+        <v>1</v>
+      </c>
+      <c r="D32" s="20">
+        <v>1</v>
+      </c>
+      <c r="E32" s="21">
+        <v>1</v>
+      </c>
+      <c r="F32" s="22">
+        <v>1</v>
+      </c>
+      <c r="G32" s="22">
+        <v>1</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>186</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C33" s="2">
         <v>1</v>
@@ -3230,93 +3236,93 @@
         <v>1</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>1</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1</v>
-      </c>
-      <c r="H34" s="11" t="s">
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>188</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0</v>
-      </c>
-      <c r="E35" s="4">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>1</v>
-      </c>
-      <c r="G35" s="3">
-        <v>1</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0</v>
-      </c>
-      <c r="E36" s="4">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C37" s="2">
         <v>1</v>
@@ -3331,18 +3337,18 @@
         <v>1</v>
       </c>
       <c r="G37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -3360,15 +3366,15 @@
         <v>0</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
-        <v>507</v>
+        <v>353</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>508</v>
+        <v>15</v>
       </c>
       <c r="C39" s="2">
         <v>1</v>
@@ -3383,96 +3389,96 @@
         <v>1</v>
       </c>
       <c r="G39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>509</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="4">
+        <v>1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="C40" s="2">
-        <v>1</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
-        <v>0</v>
-      </c>
-      <c r="H40" s="12" t="s">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>510</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
-      <c r="D41" s="2">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -3490,15 +3496,15 @@
         <v>1</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>47</v>
+      <c r="A44" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -3515,16 +3521,16 @@
       <c r="G44" s="3">
         <v>1</v>
       </c>
-      <c r="H44" s="7" t="s">
-        <v>197</v>
+      <c r="H44" s="10" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -3542,15 +3548,15 @@
         <v>1</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2">
         <v>1</v>
@@ -3565,18 +3571,18 @@
         <v>1</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C47" s="2">
         <v>1</v>
@@ -3591,18 +3597,18 @@
         <v>1</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -3620,24 +3626,24 @@
         <v>0</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
       <c r="D49" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="3">
         <v>1</v>
@@ -3646,15 +3652,15 @@
         <v>0</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -3672,24 +3678,24 @@
         <v>0</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>29</v>
+      <c r="A51" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="C51" s="2">
         <v>1</v>
       </c>
       <c r="D51" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" s="3">
         <v>1</v>
@@ -3697,224 +3703,224 @@
       <c r="G51" s="3">
         <v>0</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>204</v>
+      <c r="H51" s="7" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B54" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="2">
-        <v>0</v>
-      </c>
-      <c r="D52" s="2">
-        <v>1</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>1</v>
-      </c>
-      <c r="G52" s="3">
-        <v>1</v>
-      </c>
-      <c r="H52" s="7" t="s">
+      <c r="C54" s="2">
+        <v>0</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B55" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C53" s="2">
-        <v>1</v>
-      </c>
-      <c r="D53" s="2">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>1</v>
-      </c>
-      <c r="G53" s="3">
-        <v>1</v>
-      </c>
-      <c r="H53" s="7" t="s">
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="7" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="9" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B56" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="2">
-        <v>0</v>
-      </c>
-      <c r="D54" s="2">
-        <v>1</v>
-      </c>
-      <c r="E54" s="4">
-        <v>0</v>
-      </c>
-      <c r="F54" s="4">
-        <v>0</v>
-      </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9" t="s">
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+      <c r="F56" s="4">
+        <v>0</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>0</v>
-      </c>
-      <c r="G55" s="3">
-        <v>0</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="2">
-        <v>0</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="11" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+      <c r="F57" s="4">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="2">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="11" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9" t="s">
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="11" t="s">
-        <v>563</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>561</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3925,22 +3931,22 @@
       <c r="E60" s="4">
         <v>0</v>
       </c>
-      <c r="F60" s="4">
+      <c r="F60" s="3">
         <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="9" t="s">
-        <v>615</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>39</v>
+      <c r="A61" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>561</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3949,24 +3955,24 @@
         <v>1</v>
       </c>
       <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>210</v>
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>634</v>
+        <v>614</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>635</v>
+        <v>38</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3984,15 +3990,15 @@
         <v>0</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>636</v>
+        <v>209</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>492</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -4010,15 +4016,15 @@
         <v>0</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>491</v>
+        <v>210</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>498</v>
+        <v>634</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>499</v>
+        <v>635</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -4036,15 +4042,15 @@
         <v>0</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>500</v>
+        <v>636</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>371</v>
+        <v>616</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>43</v>
+        <v>492</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -4062,145 +4068,145 @@
         <v>0</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>215</v>
+        <v>491</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B68" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="2">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9" t="s">
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="19" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B69" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>1</v>
-      </c>
-      <c r="F67" s="4">
-        <v>1</v>
-      </c>
-      <c r="G67" s="3">
-        <v>1</v>
-      </c>
-      <c r="H67" s="11" t="s">
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="11" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="19" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B70" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>1</v>
-      </c>
-      <c r="F68" s="4">
-        <v>1</v>
-      </c>
-      <c r="G68" s="3">
-        <v>1</v>
-      </c>
-      <c r="H68" s="11" t="s">
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="11" t="s">
         <v>506</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="11" t="s">
-        <v>552</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>553</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="11" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>557</v>
+        <v>502</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -4218,101 +4224,101 @@
         <v>1</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>559</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>557</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B74" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="11" t="s">
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="11" t="s">
         <v>560</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C73" s="2">
-        <v>0</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C74" s="20">
-        <v>0</v>
-      </c>
-      <c r="D74" s="20">
-        <v>0</v>
-      </c>
-      <c r="E74" s="21">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C75" s="20">
-        <v>0</v>
-      </c>
-      <c r="D75" s="20">
-        <v>0</v>
-      </c>
-      <c r="E75" s="20">
+        <v>51</v>
+      </c>
+      <c r="C75" s="2">
+        <v>0</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
         <v>1</v>
       </c>
       <c r="F75" s="3">
@@ -4322,15 +4328,15 @@
         <v>1</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C76" s="20">
         <v>0</v>
@@ -4348,15 +4354,15 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C77" s="20">
         <v>0</v>
@@ -4364,7 +4370,7 @@
       <c r="D77" s="20">
         <v>0</v>
       </c>
-      <c r="E77" s="21">
+      <c r="E77" s="20">
         <v>1</v>
       </c>
       <c r="F77" s="3">
@@ -4374,23 +4380,23 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="2">
-        <v>0</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
-      <c r="E78" s="4">
+        <v>54</v>
+      </c>
+      <c r="C78" s="20">
+        <v>0</v>
+      </c>
+      <c r="D78" s="20">
+        <v>0</v>
+      </c>
+      <c r="E78" s="21">
         <v>1</v>
       </c>
       <c r="F78" s="3">
@@ -4400,23 +4406,23 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2">
-        <v>0</v>
-      </c>
-      <c r="E79" s="4">
+        <v>55</v>
+      </c>
+      <c r="C79" s="20">
+        <v>0</v>
+      </c>
+      <c r="D79" s="20">
+        <v>0</v>
+      </c>
+      <c r="E79" s="21">
         <v>1</v>
       </c>
       <c r="F79" s="3">
@@ -4426,15 +4432,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4452,15 +4458,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4478,15 +4484,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4504,15 +4510,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4530,15 +4536,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4556,15 +4562,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4582,15 +4588,15 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C86" s="2">
         <v>0</v>
@@ -4608,15 +4614,15 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C87" s="2">
         <v>0</v>
@@ -4634,15 +4640,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2">
         <v>0</v>
@@ -4660,15 +4666,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C89" s="2">
         <v>0</v>
@@ -4686,15 +4692,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C90" s="2">
         <v>0</v>
@@ -4712,15 +4718,15 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C91" s="2">
         <v>0</v>
@@ -4738,15 +4744,15 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
@@ -4764,23 +4770,23 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B93" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C93" s="20">
+        <v>69</v>
+      </c>
+      <c r="C93" s="2">
         <v>0</v>
       </c>
       <c r="D93" s="2">
         <v>0</v>
       </c>
-      <c r="E93" s="21">
+      <c r="E93" s="4">
         <v>1</v>
       </c>
       <c r="F93" s="3">
@@ -4790,23 +4796,23 @@
         <v>1</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C94" s="20">
+        <v>70</v>
+      </c>
+      <c r="C94" s="2">
         <v>0</v>
       </c>
       <c r="D94" s="2">
         <v>0</v>
       </c>
-      <c r="E94" s="20">
+      <c r="E94" s="4">
         <v>1</v>
       </c>
       <c r="F94" s="3">
@@ -4816,15 +4822,15 @@
         <v>1</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C95" s="20">
         <v>0</v>
@@ -4842,15 +4848,15 @@
         <v>1</v>
       </c>
       <c r="H95" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C96" s="20">
         <v>0</v>
@@ -4858,7 +4864,7 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-      <c r="E96" s="21">
+      <c r="E96" s="20">
         <v>1</v>
       </c>
       <c r="F96" s="3">
@@ -4868,15 +4874,15 @@
         <v>1</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C97" s="20">
         <v>0</v>
@@ -4884,7 +4890,7 @@
       <c r="D97" s="2">
         <v>0</v>
       </c>
-      <c r="E97" s="20">
+      <c r="E97" s="21">
         <v>1</v>
       </c>
       <c r="F97" s="3">
@@ -4894,15 +4900,15 @@
         <v>1</v>
       </c>
       <c r="H97" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B98" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C98" s="20">
         <v>0</v>
@@ -4910,7 +4916,7 @@
       <c r="D98" s="2">
         <v>0</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E98" s="21">
         <v>1</v>
       </c>
       <c r="F98" s="3">
@@ -4920,15 +4926,15 @@
         <v>1</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C99" s="20">
         <v>0</v>
@@ -4936,7 +4942,7 @@
       <c r="D99" s="2">
         <v>0</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E99" s="20">
         <v>1</v>
       </c>
       <c r="F99" s="3">
@@ -4946,17 +4952,17 @@
         <v>1</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C100" s="2">
+        <v>76</v>
+      </c>
+      <c r="C100" s="20">
         <v>0</v>
       </c>
       <c r="D100" s="2">
@@ -4972,93 +4978,93 @@
         <v>1</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C101" s="20">
+        <v>0</v>
+      </c>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C102" s="2">
+        <v>0</v>
+      </c>
+      <c r="D102" s="2">
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>1</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B103" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C101" s="2">
-        <v>0</v>
-      </c>
-      <c r="D101" s="2">
-        <v>0</v>
-      </c>
-      <c r="E101" s="4">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1</v>
-      </c>
-      <c r="H101" s="13" t="s">
+      <c r="C103" s="2">
+        <v>0</v>
+      </c>
+      <c r="D103" s="2">
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <v>1</v>
+      </c>
+      <c r="F103" s="3">
+        <v>0</v>
+      </c>
+      <c r="G103" s="3">
+        <v>1</v>
+      </c>
+      <c r="H103" s="13" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="17" t="s">
-        <v>402</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C102" s="2">
-        <v>0</v>
-      </c>
-      <c r="D102" s="2">
-        <v>0</v>
-      </c>
-      <c r="E102" s="2">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3">
-        <v>1</v>
-      </c>
-      <c r="G102" s="3">
-        <v>1</v>
-      </c>
-      <c r="H102" s="17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="17" t="s">
-        <v>403</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C103" s="2">
-        <v>0</v>
-      </c>
-      <c r="D103" s="2">
-        <v>0</v>
-      </c>
-      <c r="E103" s="2">
-        <v>1</v>
-      </c>
-      <c r="F103" s="3">
-        <v>1</v>
-      </c>
-      <c r="G103" s="3">
-        <v>0</v>
-      </c>
-      <c r="H103" s="17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="17" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -5073,18 +5079,18 @@
         <v>1</v>
       </c>
       <c r="G104" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104" s="17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -5102,15 +5108,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -5128,15 +5134,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="17" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -5154,15 +5160,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="17" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -5180,15 +5186,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="17" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -5206,15 +5212,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -5232,15 +5238,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -5258,15 +5264,15 @@
         <v>0</v>
       </c>
       <c r="H111" s="17" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B112" s="14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -5284,15 +5290,15 @@
         <v>0</v>
       </c>
       <c r="H112" s="17" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B113" s="14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -5310,15 +5316,15 @@
         <v>0</v>
       </c>
       <c r="H113" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B114" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -5336,15 +5342,15 @@
         <v>0</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B115" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5362,15 +5368,15 @@
         <v>0</v>
       </c>
       <c r="H115" s="17" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B116" s="14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5388,15 +5394,15 @@
         <v>0</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B117" s="14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5414,15 +5420,15 @@
         <v>0</v>
       </c>
       <c r="H117" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5440,15 +5446,15 @@
         <v>0</v>
       </c>
       <c r="H118" s="17" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5463,18 +5469,18 @@
         <v>1</v>
       </c>
       <c r="G119" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
-        <v>420</v>
-      </c>
-      <c r="B120" s="15" t="s">
-        <v>98</v>
+        <v>418</v>
+      </c>
+      <c r="B120" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5489,18 +5495,18 @@
         <v>1</v>
       </c>
       <c r="G120" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H120" s="17" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>421</v>
-      </c>
-      <c r="B121" s="15" t="s">
-        <v>99</v>
+        <v>419</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5518,15 +5524,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="17" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5544,15 +5550,15 @@
         <v>1</v>
       </c>
       <c r="H122" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5570,15 +5576,15 @@
         <v>1</v>
       </c>
       <c r="H123" s="17" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5596,15 +5602,15 @@
         <v>1</v>
       </c>
       <c r="H124" s="17" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5622,15 +5628,15 @@
         <v>1</v>
       </c>
       <c r="H125" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5648,15 +5654,15 @@
         <v>1</v>
       </c>
       <c r="H126" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5664,25 +5670,25 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-      <c r="E127" s="20">
-        <v>1</v>
-      </c>
-      <c r="F127" s="22">
+      <c r="E127" s="2">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
         <v>1</v>
       </c>
       <c r="G127" s="3">
         <v>1</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5690,25 +5696,25 @@
       <c r="D128" s="2">
         <v>0</v>
       </c>
-      <c r="E128" s="20">
-        <v>1</v>
-      </c>
-      <c r="F128" s="22">
+      <c r="E128" s="2">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
         <v>1</v>
       </c>
       <c r="G128" s="3">
         <v>1</v>
       </c>
       <c r="H128" s="17" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5726,15 +5732,15 @@
         <v>1</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5745,22 +5751,22 @@
       <c r="E130" s="20">
         <v>1</v>
       </c>
-      <c r="F130" s="20">
+      <c r="F130" s="22">
         <v>1</v>
       </c>
       <c r="G130" s="3">
         <v>1</v>
       </c>
       <c r="H130" s="17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5778,15 +5784,15 @@
         <v>1</v>
       </c>
       <c r="H131" s="17" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5797,22 +5803,22 @@
       <c r="E132" s="20">
         <v>1</v>
       </c>
-      <c r="F132" s="22">
+      <c r="F132" s="20">
         <v>1</v>
       </c>
       <c r="G132" s="3">
         <v>1</v>
       </c>
       <c r="H132" s="17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5830,15 +5836,15 @@
         <v>1</v>
       </c>
       <c r="H133" s="17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5849,22 +5855,22 @@
       <c r="E134" s="20">
         <v>1</v>
       </c>
-      <c r="F134" s="20">
+      <c r="F134" s="22">
         <v>1</v>
       </c>
       <c r="G134" s="3">
         <v>1</v>
       </c>
       <c r="H134" s="17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>113</v>
+        <v>433</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>111</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5882,15 +5888,15 @@
         <v>1</v>
       </c>
       <c r="H135" s="17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
-        <v>436</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>114</v>
+        <v>434</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5901,22 +5907,22 @@
       <c r="E136" s="20">
         <v>1</v>
       </c>
-      <c r="F136" s="22">
+      <c r="F136" s="20">
         <v>1</v>
       </c>
       <c r="G136" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" s="17" t="s">
-        <v>114</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5931,18 +5937,18 @@
         <v>1</v>
       </c>
       <c r="G137" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
-        <v>600</v>
+        <v>436</v>
       </c>
       <c r="B138" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5960,15 +5966,15 @@
         <v>0</v>
       </c>
       <c r="H138" s="17" t="s">
-        <v>603</v>
+        <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B139" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5986,15 +5992,15 @@
         <v>0</v>
       </c>
       <c r="H139" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="17" t="s">
-        <v>439</v>
+        <v>600</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -6005,22 +6011,22 @@
       <c r="E140" s="20">
         <v>1</v>
       </c>
-      <c r="F140" s="20">
+      <c r="F140" s="22">
         <v>1</v>
       </c>
       <c r="G140" s="3">
         <v>0</v>
       </c>
       <c r="H140" s="17" t="s">
-        <v>282</v>
+        <v>603</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
-        <v>611</v>
+        <v>438</v>
       </c>
       <c r="B141" s="14" t="s">
-        <v>601</v>
+        <v>117</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -6038,15 +6044,15 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>602</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -6057,22 +6063,22 @@
       <c r="E142" s="20">
         <v>1</v>
       </c>
-      <c r="F142" s="22">
+      <c r="F142" s="20">
         <v>1</v>
       </c>
       <c r="G142" s="3">
         <v>0</v>
       </c>
       <c r="H142" s="17" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
-        <v>441</v>
+        <v>611</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>120</v>
+        <v>601</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -6090,93 +6096,93 @@
         <v>0</v>
       </c>
       <c r="H143" s="17" t="s">
-        <v>284</v>
+        <v>602</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="B144" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0</v>
+      </c>
+      <c r="E144" s="20">
+        <v>1</v>
+      </c>
+      <c r="F144" s="22">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="17" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="17" t="s">
+        <v>441</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C145" s="2">
+        <v>0</v>
+      </c>
+      <c r="D145" s="2">
+        <v>0</v>
+      </c>
+      <c r="E145" s="20">
+        <v>1</v>
+      </c>
+      <c r="F145" s="22">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+      <c r="H145" s="17" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="B144" s="14" t="s">
+      <c r="B146" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C144" s="2">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2">
-        <v>0</v>
-      </c>
-      <c r="E144" s="20">
-        <v>1</v>
-      </c>
-      <c r="F144" s="22">
-        <v>1</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
-      <c r="H144" s="17" t="s">
+      <c r="C146" s="2">
+        <v>0</v>
+      </c>
+      <c r="D146" s="2">
+        <v>0</v>
+      </c>
+      <c r="E146" s="20">
+        <v>1</v>
+      </c>
+      <c r="F146" s="22">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>0</v>
+      </c>
+      <c r="H146" s="17" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="B145" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="C145" s="2">
-        <v>0</v>
-      </c>
-      <c r="D145" s="2">
-        <v>0</v>
-      </c>
-      <c r="E145" s="20">
-        <v>1</v>
-      </c>
-      <c r="F145" s="20">
-        <v>1</v>
-      </c>
-      <c r="G145" s="3">
-        <v>0</v>
-      </c>
-      <c r="H145" s="18" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="18" t="s">
-        <v>589</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="C146" s="2">
-        <v>0</v>
-      </c>
-      <c r="D146" s="2">
-        <v>0</v>
-      </c>
-      <c r="E146" s="20">
-        <v>1</v>
-      </c>
-      <c r="F146" s="20">
-        <v>1</v>
-      </c>
-      <c r="G146" s="3">
-        <v>0</v>
-      </c>
-      <c r="H146" s="18" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="18" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -6194,15 +6200,15 @@
         <v>0</v>
       </c>
       <c r="H147" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="18" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -6220,15 +6226,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="18" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="18" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -6246,93 +6252,93 @@
         <v>0</v>
       </c>
       <c r="H149" s="18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>597</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+      <c r="E150" s="20">
+        <v>1</v>
+      </c>
+      <c r="F150" s="20">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="18" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>598</v>
+      </c>
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="20">
+        <v>1</v>
+      </c>
+      <c r="F151" s="20">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="18" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B152" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="C150" s="2">
-        <v>0</v>
-      </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-      <c r="E150" s="20">
-        <v>1</v>
-      </c>
-      <c r="F150" s="20">
-        <v>1</v>
-      </c>
-      <c r="G150" s="3">
-        <v>0</v>
-      </c>
-      <c r="H150" s="18" t="s">
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="20">
+        <v>1</v>
+      </c>
+      <c r="F152" s="20">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="18" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="B151" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="C151" s="2">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="20">
-        <v>1</v>
-      </c>
-      <c r="F151" s="22">
-        <v>1</v>
-      </c>
-      <c r="G151" s="3">
-        <v>0</v>
-      </c>
-      <c r="H151" s="17" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="17" t="s">
-        <v>570</v>
-      </c>
-      <c r="B152" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="C152" s="2">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152" s="4">
-        <v>1</v>
-      </c>
-      <c r="F152" s="22">
-        <v>1</v>
-      </c>
-      <c r="G152" s="3">
-        <v>0</v>
-      </c>
-      <c r="H152" s="17" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="17" t="s">
-        <v>571</v>
-      </c>
-      <c r="B153" s="23" t="s">
-        <v>533</v>
+        <v>610</v>
+      </c>
+      <c r="B153" s="14" t="s">
+        <v>122</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6340,7 +6346,7 @@
       <c r="D153" s="2">
         <v>0</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E153" s="20">
         <v>1</v>
       </c>
       <c r="F153" s="22">
@@ -6350,15 +6356,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="17" t="s">
-        <v>515</v>
+        <v>286</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B154" s="23" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6376,15 +6382,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="17" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B155" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6402,15 +6408,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="17" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B156" s="23" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6428,15 +6434,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="17" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B157" s="23" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6454,15 +6460,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="17" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="17" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B158" s="23" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6480,15 +6486,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="17" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B159" s="23" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6506,15 +6512,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="17" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B160" s="23" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6532,15 +6538,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="17" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B161" s="23" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6558,15 +6564,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="17" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B162" s="23" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6584,15 +6590,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B163" s="23" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6610,15 +6616,15 @@
         <v>0</v>
       </c>
       <c r="H163" s="17" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B164" s="23" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6636,15 +6642,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="17" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B165" s="23" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6662,15 +6668,15 @@
         <v>0</v>
       </c>
       <c r="H165" s="17" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B166" s="23" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6688,15 +6694,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="17" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B167" s="23" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6714,15 +6720,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="17" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B168" s="23" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6740,15 +6746,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="17" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B169" s="23" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6766,15 +6772,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="17" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
-        <v>443</v>
-      </c>
-      <c r="B170" s="14" t="s">
-        <v>123</v>
+        <v>586</v>
+      </c>
+      <c r="B170" s="23" t="s">
+        <v>549</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6782,7 +6788,7 @@
       <c r="D170" s="2">
         <v>0</v>
       </c>
-      <c r="E170" s="20">
+      <c r="E170" s="4">
         <v>1</v>
       </c>
       <c r="F170" s="22">
@@ -6792,15 +6798,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="17" t="s">
-        <v>287</v>
+        <v>530</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="B171" s="14" t="s">
-        <v>124</v>
+        <v>587</v>
+      </c>
+      <c r="B171" s="23" t="s">
+        <v>548</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6808,7 +6814,7 @@
       <c r="D171" s="2">
         <v>0</v>
       </c>
-      <c r="E171" s="20">
+      <c r="E171" s="4">
         <v>1</v>
       </c>
       <c r="F171" s="22">
@@ -6818,15 +6824,15 @@
         <v>0</v>
       </c>
       <c r="H171" s="17" t="s">
-        <v>288</v>
+        <v>531</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B172" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C172" s="2">
         <v>0</v>
@@ -6841,18 +6847,18 @@
         <v>1</v>
       </c>
       <c r="G172" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H172" s="17" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
-        <v>445</v>
+        <v>550</v>
       </c>
       <c r="B173" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C173" s="2">
         <v>0</v>
@@ -6867,18 +6873,18 @@
         <v>1</v>
       </c>
       <c r="G173" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H173" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
-        <v>564</v>
+        <v>444</v>
       </c>
       <c r="B174" s="14" t="s">
-        <v>565</v>
+        <v>125</v>
       </c>
       <c r="C174" s="2">
         <v>0</v>
@@ -6896,15 +6902,15 @@
         <v>1</v>
       </c>
       <c r="H174" s="17" t="s">
-        <v>566</v>
+        <v>289</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
-        <v>567</v>
+        <v>445</v>
       </c>
       <c r="B175" s="14" t="s">
-        <v>568</v>
+        <v>126</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6922,15 +6928,15 @@
         <v>1</v>
       </c>
       <c r="H175" s="17" t="s">
-        <v>569</v>
+        <v>290</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="17" t="s">
-        <v>446</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>127</v>
+        <v>564</v>
+      </c>
+      <c r="B176" s="14" t="s">
+        <v>565</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6945,18 +6951,18 @@
         <v>1</v>
       </c>
       <c r="G176" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" s="17" t="s">
-        <v>291</v>
+        <v>566</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
-        <v>447</v>
-      </c>
-      <c r="B177" s="15" t="s">
-        <v>128</v>
+        <v>567</v>
+      </c>
+      <c r="B177" s="14" t="s">
+        <v>568</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6971,18 +6977,18 @@
         <v>1</v>
       </c>
       <c r="G177" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" s="17" t="s">
-        <v>292</v>
+        <v>569</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="s">
-        <v>448</v>
-      </c>
-      <c r="B178" s="14" t="s">
-        <v>129</v>
+        <v>446</v>
+      </c>
+      <c r="B178" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -7000,15 +7006,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
-        <v>449</v>
-      </c>
-      <c r="B179" s="14" t="s">
-        <v>130</v>
+        <v>447</v>
+      </c>
+      <c r="B179" s="15" t="s">
+        <v>128</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -7019,22 +7025,22 @@
       <c r="E179" s="20">
         <v>1</v>
       </c>
-      <c r="F179" s="20">
+      <c r="F179" s="22">
         <v>1</v>
       </c>
       <c r="G179" s="3">
         <v>0</v>
       </c>
       <c r="H179" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="17" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B180" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C180" s="2">
         <v>0</v>
@@ -7052,15 +7058,15 @@
         <v>0</v>
       </c>
       <c r="H180" s="17" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C181" s="2">
         <v>0</v>
@@ -7071,22 +7077,22 @@
       <c r="E181" s="20">
         <v>1</v>
       </c>
-      <c r="F181" s="22">
+      <c r="F181" s="20">
         <v>1</v>
       </c>
       <c r="G181" s="3">
         <v>0</v>
       </c>
       <c r="H181" s="17" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B182" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C182" s="2">
         <v>0</v>
@@ -7101,18 +7107,18 @@
         <v>1</v>
       </c>
       <c r="G182" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" s="17" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B183" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C183" s="2">
         <v>0</v>
@@ -7127,18 +7133,18 @@
         <v>1</v>
       </c>
       <c r="G183" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" s="17" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C184" s="2">
         <v>0</v>
@@ -7153,18 +7159,18 @@
         <v>1</v>
       </c>
       <c r="G184" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H184" s="17" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B185" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C185" s="2">
         <v>0</v>
@@ -7179,18 +7185,18 @@
         <v>1</v>
       </c>
       <c r="G185" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H185" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B186" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C186" s="2">
         <v>0</v>
@@ -7208,15 +7214,15 @@
         <v>0</v>
       </c>
       <c r="H186" s="17" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B187" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C187" s="2">
         <v>0</v>
@@ -7234,15 +7240,15 @@
         <v>0</v>
       </c>
       <c r="H187" s="17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B188" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C188" s="2">
         <v>0</v>
@@ -7260,15 +7266,15 @@
         <v>0</v>
       </c>
       <c r="H188" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B189" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C189" s="2">
         <v>0</v>
@@ -7286,15 +7292,15 @@
         <v>0</v>
       </c>
       <c r="H189" s="17" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B190" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C190" s="2">
         <v>0</v>
@@ -7312,15 +7318,15 @@
         <v>0</v>
       </c>
       <c r="H190" s="17" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B191" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C191" s="2">
         <v>0</v>
@@ -7338,15 +7344,15 @@
         <v>0</v>
       </c>
       <c r="H191" s="17" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C192" s="2">
         <v>0</v>
@@ -7364,15 +7370,15 @@
         <v>0</v>
       </c>
       <c r="H192" s="17" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C193" s="2">
         <v>0</v>
@@ -7390,15 +7396,15 @@
         <v>0</v>
       </c>
       <c r="H193" s="17" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B194" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C194" s="2">
         <v>0</v>
@@ -7416,15 +7422,15 @@
         <v>0</v>
       </c>
       <c r="H194" s="17" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B195" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C195" s="2">
         <v>0</v>
@@ -7442,15 +7448,15 @@
         <v>0</v>
       </c>
       <c r="H195" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C196" s="2">
         <v>0</v>
@@ -7468,15 +7474,15 @@
         <v>0</v>
       </c>
       <c r="H196" s="17" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C197" s="2">
         <v>0</v>
@@ -7494,15 +7500,15 @@
         <v>0</v>
       </c>
       <c r="H197" s="17" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C198" s="2">
         <v>0</v>
@@ -7520,15 +7526,15 @@
         <v>0</v>
       </c>
       <c r="H198" s="17" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C199" s="2">
         <v>0</v>
@@ -7546,15 +7552,15 @@
         <v>0</v>
       </c>
       <c r="H199" s="17" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B200" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C200" s="2">
         <v>0</v>
@@ -7572,15 +7578,15 @@
         <v>0</v>
       </c>
       <c r="H200" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C201" s="2">
         <v>0</v>
@@ -7591,22 +7597,22 @@
       <c r="E201" s="20">
         <v>1</v>
       </c>
-      <c r="F201" s="20">
+      <c r="F201" s="22">
         <v>1</v>
       </c>
       <c r="G201" s="3">
         <v>0</v>
       </c>
       <c r="H201" s="17" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B202" s="14" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C202" s="2">
         <v>0</v>
@@ -7624,15 +7630,15 @@
         <v>0</v>
       </c>
       <c r="H202" s="17" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B203" s="14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C203" s="2">
         <v>0</v>
@@ -7643,22 +7649,22 @@
       <c r="E203" s="20">
         <v>1</v>
       </c>
-      <c r="F203" s="22">
+      <c r="F203" s="20">
         <v>1</v>
       </c>
       <c r="G203" s="3">
         <v>0</v>
       </c>
       <c r="H203" s="17" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B204" s="14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C204" s="2">
         <v>0</v>
@@ -7676,15 +7682,15 @@
         <v>0</v>
       </c>
       <c r="H204" s="17" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C205" s="2">
         <v>0</v>
@@ -7702,15 +7708,15 @@
         <v>0</v>
       </c>
       <c r="H205" s="17" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B206" s="14" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C206" s="2">
         <v>0</v>
@@ -7728,15 +7734,15 @@
         <v>0</v>
       </c>
       <c r="H206" s="17" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B207" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C207" s="2">
         <v>0</v>
@@ -7754,15 +7760,15 @@
         <v>0</v>
       </c>
       <c r="H207" s="17" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="17" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B208" s="14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C208" s="2">
         <v>0</v>
@@ -7780,15 +7786,15 @@
         <v>0</v>
       </c>
       <c r="H208" s="17" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B209" s="14" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C209" s="2">
         <v>0</v>
@@ -7806,93 +7812,93 @@
         <v>0</v>
       </c>
       <c r="H209" s="17" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="B210" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C210" s="2">
+        <v>0</v>
+      </c>
+      <c r="D210" s="2">
+        <v>0</v>
+      </c>
+      <c r="E210" s="20">
+        <v>1</v>
+      </c>
+      <c r="F210" s="22">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="17" t="s">
+        <v>479</v>
+      </c>
+      <c r="B211" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C211" s="2">
+        <v>0</v>
+      </c>
+      <c r="D211" s="2">
+        <v>0</v>
+      </c>
+      <c r="E211" s="20">
+        <v>1</v>
+      </c>
+      <c r="F211" s="22">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="17" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="17" t="s">
         <v>480</v>
       </c>
-      <c r="B210" s="14" t="s">
+      <c r="B212" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="C210" s="2">
-        <v>0</v>
-      </c>
-      <c r="D210" s="2">
-        <v>0</v>
-      </c>
-      <c r="E210" s="20">
-        <v>1</v>
-      </c>
-      <c r="F210" s="22">
-        <v>1</v>
-      </c>
-      <c r="G210" s="3">
-        <v>0</v>
-      </c>
-      <c r="H210" s="17" t="s">
+      <c r="C212" s="2">
+        <v>0</v>
+      </c>
+      <c r="D212" s="2">
+        <v>0</v>
+      </c>
+      <c r="E212" s="20">
+        <v>1</v>
+      </c>
+      <c r="F212" s="22">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0</v>
+      </c>
+      <c r="H212" s="17" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A211" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="B211" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C211" s="2">
-        <v>0</v>
-      </c>
-      <c r="D211" s="2">
-        <v>0</v>
-      </c>
-      <c r="E211" s="20">
-        <v>1</v>
-      </c>
-      <c r="F211" s="22">
-        <v>1</v>
-      </c>
-      <c r="G211" s="3">
-        <v>0</v>
-      </c>
-      <c r="H211" s="18" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A212" s="18" t="s">
-        <v>482</v>
-      </c>
-      <c r="B212" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="C212" s="2">
-        <v>0</v>
-      </c>
-      <c r="D212" s="2">
-        <v>0</v>
-      </c>
-      <c r="E212" s="20">
-        <v>1</v>
-      </c>
-      <c r="F212" s="22">
-        <v>1</v>
-      </c>
-      <c r="G212" s="3">
-        <v>0</v>
-      </c>
-      <c r="H212" s="18" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="18" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B213" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C213" s="2">
         <v>0</v>
@@ -7910,15 +7916,15 @@
         <v>0</v>
       </c>
       <c r="H213" s="18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="18" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B214" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C214" s="2">
         <v>0</v>
@@ -7936,15 +7942,15 @@
         <v>0</v>
       </c>
       <c r="H214" s="18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="18" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B215" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C215" s="2">
         <v>0</v>
@@ -7962,15 +7968,15 @@
         <v>0</v>
       </c>
       <c r="H215" s="18" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="18" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B216" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C216" s="2">
         <v>0</v>
@@ -7988,15 +7994,15 @@
         <v>0</v>
       </c>
       <c r="H216" s="18" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="18" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B217" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C217" s="2">
         <v>0</v>
@@ -8014,32 +8020,84 @@
         <v>0</v>
       </c>
       <c r="H217" s="18" t="s">
-        <v>213</v>
+        <v>330</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="B218" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="C218" s="2">
+        <v>0</v>
+      </c>
+      <c r="D218" s="2">
+        <v>0</v>
+      </c>
+      <c r="E218" s="20">
+        <v>1</v>
+      </c>
+      <c r="F218" s="22">
+        <v>1</v>
+      </c>
+      <c r="G218" s="3">
+        <v>0</v>
+      </c>
+      <c r="H218" s="18" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B219" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C219" s="2">
+        <v>0</v>
+      </c>
+      <c r="D219" s="2">
+        <v>0</v>
+      </c>
+      <c r="E219" s="20">
+        <v>1</v>
+      </c>
+      <c r="F219" s="22">
+        <v>1</v>
+      </c>
+      <c r="G219" s="3">
+        <v>0</v>
+      </c>
+      <c r="H219" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="B218" s="16" t="s">
+      <c r="B220" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C218" s="2">
-        <v>0</v>
-      </c>
-      <c r="D218" s="2">
-        <v>0</v>
-      </c>
-      <c r="E218" s="20">
-        <v>1</v>
-      </c>
-      <c r="F218" s="20">
-        <v>1</v>
-      </c>
-      <c r="G218" s="3">
-        <v>0</v>
-      </c>
-      <c r="H218" s="18" t="s">
+      <c r="C220" s="2">
+        <v>0</v>
+      </c>
+      <c r="D220" s="2">
+        <v>0</v>
+      </c>
+      <c r="E220" s="20">
+        <v>1</v>
+      </c>
+      <c r="F220" s="20">
+        <v>1</v>
+      </c>
+      <c r="G220" s="3">
+        <v>0</v>
+      </c>
+      <c r="H220" s="18" t="s">
         <v>212</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_india.xlsx
+++ b/inst/extdata/main_dict_india.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="644">
   <si>
     <t>old</t>
   </si>
@@ -1947,6 +1947,15 @@
   </si>
   <si>
     <t>submission_date</t>
+  </si>
+  <si>
+    <t>meta-instanceID</t>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>instanceID</t>
   </si>
 </sst>
 </file>
@@ -2370,24 +2379,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H221"/>
+  <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="A222" sqref="A222:XFD222"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2413,7 +2422,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2439,7 +2448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2465,7 +2474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2491,7 +2500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>489</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>639</v>
       </c>
@@ -2543,7 +2552,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>551</v>
       </c>
@@ -2569,7 +2578,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>637</v>
       </c>
@@ -2595,7 +2604,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>613</v>
       </c>
@@ -2621,7 +2630,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>638</v>
       </c>
@@ -2647,7 +2656,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="24" t="s">
         <v>620</v>
       </c>
@@ -2673,7 +2682,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="24" t="s">
         <v>622</v>
       </c>
@@ -2699,7 +2708,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>624</v>
       </c>
@@ -2725,7 +2734,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>626</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>628</v>
       </c>
@@ -2777,7 +2786,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>630</v>
       </c>
@@ -2803,7 +2812,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>333</v>
       </c>
@@ -2829,7 +2838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>334</v>
       </c>
@@ -2855,7 +2864,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>490</v>
       </c>
@@ -2881,7 +2890,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>335</v>
       </c>
@@ -2907,7 +2916,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>336</v>
       </c>
@@ -2933,7 +2942,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>495</v>
       </c>
@@ -2959,7 +2968,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>337</v>
       </c>
@@ -2985,7 +2994,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>338</v>
       </c>
@@ -3011,7 +3020,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>339</v>
       </c>
@@ -3037,7 +3046,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>494</v>
       </c>
@@ -3063,7 +3072,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>341</v>
       </c>
@@ -3089,7 +3098,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>342</v>
       </c>
@@ -3115,7 +3124,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>343</v>
       </c>
@@ -3141,7 +3150,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>340</v>
       </c>
@@ -3167,7 +3176,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>344</v>
       </c>
@@ -3193,7 +3202,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>345</v>
       </c>
@@ -3219,7 +3228,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>346</v>
       </c>
@@ -3245,7 +3254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>347</v>
       </c>
@@ -3271,7 +3280,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>348</v>
       </c>
@@ -3297,7 +3306,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>349</v>
       </c>
@@ -3323,7 +3332,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>350</v>
       </c>
@@ -3349,7 +3358,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>351</v>
       </c>
@@ -3375,7 +3384,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>352</v>
       </c>
@@ -3401,7 +3410,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>353</v>
       </c>
@@ -3427,7 +3436,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>354</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>507</v>
       </c>
@@ -3479,7 +3488,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>511</v>
       </c>
@@ -3505,7 +3514,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>355</v>
       </c>
@@ -3531,7 +3540,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>356</v>
       </c>
@@ -3557,7 +3566,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>357</v>
       </c>
@@ -3583,7 +3592,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>358</v>
       </c>
@@ -3609,7 +3618,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>359</v>
       </c>
@@ -3635,7 +3644,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>360</v>
       </c>
@@ -3661,7 +3670,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>361</v>
       </c>
@@ -3687,7 +3696,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>362</v>
       </c>
@@ -3713,7 +3722,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>363</v>
       </c>
@@ -3739,7 +3748,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>364</v>
       </c>
@@ -3765,7 +3774,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>365</v>
       </c>
@@ -3791,7 +3800,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
         <v>366</v>
       </c>
@@ -3817,7 +3826,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
         <v>367</v>
       </c>
@@ -3843,7 +3852,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>369</v>
       </c>
@@ -3869,7 +3878,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>370</v>
       </c>
@@ -3895,7 +3904,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
         <v>368</v>
       </c>
@@ -3921,7 +3930,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>617</v>
       </c>
@@ -3947,7 +3956,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>618</v>
       </c>
@@ -3973,7 +3982,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
         <v>563</v>
       </c>
@@ -3999,7 +4008,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>614</v>
       </c>
@@ -4025,7 +4034,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>615</v>
       </c>
@@ -4051,7 +4060,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>634</v>
       </c>
@@ -4077,7 +4086,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>616</v>
       </c>
@@ -4103,7 +4112,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>498</v>
       </c>
@@ -4129,7 +4138,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>371</v>
       </c>
@@ -4155,7 +4164,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>372</v>
       </c>
@@ -4181,7 +4190,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>503</v>
       </c>
@@ -4207,7 +4216,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>505</v>
       </c>
@@ -4233,7 +4242,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="11" t="s">
         <v>619</v>
       </c>
@@ -4259,7 +4268,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>552</v>
       </c>
@@ -4285,7 +4294,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>555</v>
       </c>
@@ -4311,7 +4320,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>556</v>
       </c>
@@ -4337,7 +4346,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>373</v>
       </c>
@@ -4363,7 +4372,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>374</v>
       </c>
@@ -4389,7 +4398,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>375</v>
       </c>
@@ -4415,7 +4424,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>376</v>
       </c>
@@ -4441,7 +4450,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>377</v>
       </c>
@@ -4467,7 +4476,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>378</v>
       </c>
@@ -4493,7 +4502,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>379</v>
       </c>
@@ -4519,7 +4528,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>380</v>
       </c>
@@ -4545,7 +4554,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>381</v>
       </c>
@@ -4571,7 +4580,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>382</v>
       </c>
@@ -4597,7 +4606,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>383</v>
       </c>
@@ -4623,7 +4632,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>384</v>
       </c>
@@ -4649,7 +4658,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>385</v>
       </c>
@@ -4675,7 +4684,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>386</v>
       </c>
@@ -4701,7 +4710,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>387</v>
       </c>
@@ -4727,7 +4736,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>388</v>
       </c>
@@ -4753,7 +4762,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>389</v>
       </c>
@@ -4779,7 +4788,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>390</v>
       </c>
@@ -4805,7 +4814,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>391</v>
       </c>
@@ -4831,7 +4840,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>392</v>
       </c>
@@ -4857,7 +4866,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>393</v>
       </c>
@@ -4883,7 +4892,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
         <v>394</v>
       </c>
@@ -4909,7 +4918,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
         <v>395</v>
       </c>
@@ -4935,7 +4944,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
         <v>396</v>
       </c>
@@ -4961,7 +4970,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
         <v>397</v>
       </c>
@@ -4987,7 +4996,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
         <v>398</v>
       </c>
@@ -5013,7 +5022,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
         <v>399</v>
       </c>
@@ -5039,7 +5048,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
         <v>400</v>
       </c>
@@ -5065,7 +5074,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
         <v>401</v>
       </c>
@@ -5091,7 +5100,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="17" t="s">
         <v>402</v>
       </c>
@@ -5117,7 +5126,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="17" t="s">
         <v>403</v>
       </c>
@@ -5143,7 +5152,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="17" t="s">
         <v>404</v>
       </c>
@@ -5169,7 +5178,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="17" t="s">
         <v>405</v>
       </c>
@@ -5195,7 +5204,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="17" t="s">
         <v>406</v>
       </c>
@@ -5221,7 +5230,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="17" t="s">
         <v>407</v>
       </c>
@@ -5247,7 +5256,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="17" t="s">
         <v>408</v>
       </c>
@@ -5273,7 +5282,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
         <v>409</v>
       </c>
@@ -5299,7 +5308,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="17" t="s">
         <v>410</v>
       </c>
@@ -5325,7 +5334,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="17" t="s">
         <v>411</v>
       </c>
@@ -5351,7 +5360,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="17" t="s">
         <v>412</v>
       </c>
@@ -5377,7 +5386,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="17" t="s">
         <v>413</v>
       </c>
@@ -5403,7 +5412,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
         <v>414</v>
       </c>
@@ -5429,7 +5438,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
         <v>415</v>
       </c>
@@ -5455,7 +5464,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
         <v>416</v>
       </c>
@@ -5481,7 +5490,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
         <v>417</v>
       </c>
@@ -5507,7 +5516,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
         <v>418</v>
       </c>
@@ -5533,7 +5542,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
         <v>419</v>
       </c>
@@ -5559,7 +5568,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="17" t="s">
         <v>420</v>
       </c>
@@ -5585,7 +5594,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="17" t="s">
         <v>421</v>
       </c>
@@ -5611,7 +5620,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="17" t="s">
         <v>422</v>
       </c>
@@ -5637,7 +5646,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="17" t="s">
         <v>423</v>
       </c>
@@ -5663,7 +5672,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="17" t="s">
         <v>424</v>
       </c>
@@ -5689,7 +5698,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="17" t="s">
         <v>425</v>
       </c>
@@ -5715,7 +5724,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="17" t="s">
         <v>426</v>
       </c>
@@ -5741,7 +5750,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
         <v>427</v>
       </c>
@@ -5767,7 +5776,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
         <v>428</v>
       </c>
@@ -5793,7 +5802,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
         <v>429</v>
       </c>
@@ -5819,7 +5828,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
         <v>430</v>
       </c>
@@ -5845,7 +5854,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="17" t="s">
         <v>431</v>
       </c>
@@ -5871,7 +5880,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="17" t="s">
         <v>432</v>
       </c>
@@ -5897,7 +5906,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="17" t="s">
         <v>433</v>
       </c>
@@ -5923,7 +5932,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="17" t="s">
         <v>434</v>
       </c>
@@ -5949,7 +5958,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="17" t="s">
         <v>435</v>
       </c>
@@ -5975,7 +5984,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="17" t="s">
         <v>436</v>
       </c>
@@ -6001,7 +6010,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="17" t="s">
         <v>437</v>
       </c>
@@ -6027,7 +6036,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="17" t="s">
         <v>600</v>
       </c>
@@ -6053,7 +6062,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="17" t="s">
         <v>438</v>
       </c>
@@ -6079,7 +6088,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="17" t="s">
         <v>439</v>
       </c>
@@ -6105,7 +6114,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="17" t="s">
         <v>611</v>
       </c>
@@ -6131,7 +6140,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="17" t="s">
         <v>440</v>
       </c>
@@ -6157,7 +6166,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="17" t="s">
         <v>441</v>
       </c>
@@ -6183,7 +6192,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="17" t="s">
         <v>442</v>
       </c>
@@ -6209,7 +6218,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="18" t="s">
         <v>588</v>
       </c>
@@ -6235,7 +6244,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="18" t="s">
         <v>589</v>
       </c>
@@ -6261,7 +6270,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="18" t="s">
         <v>590</v>
       </c>
@@ -6287,7 +6296,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="18" t="s">
         <v>591</v>
       </c>
@@ -6313,7 +6322,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="18" t="s">
         <v>592</v>
       </c>
@@ -6339,7 +6348,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="18" t="s">
         <v>593</v>
       </c>
@@ -6365,7 +6374,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="17" t="s">
         <v>610</v>
       </c>
@@ -6391,7 +6400,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="17" t="s">
         <v>570</v>
       </c>
@@ -6417,7 +6426,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="17" t="s">
         <v>571</v>
       </c>
@@ -6443,7 +6452,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="17" t="s">
         <v>572</v>
       </c>
@@ -6469,7 +6478,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="17" t="s">
         <v>573</v>
       </c>
@@ -6495,7 +6504,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="17" t="s">
         <v>574</v>
       </c>
@@ -6521,7 +6530,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="17" t="s">
         <v>575</v>
       </c>
@@ -6547,7 +6556,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="17" t="s">
         <v>576</v>
       </c>
@@ -6573,7 +6582,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="17" t="s">
         <v>577</v>
       </c>
@@ -6599,7 +6608,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="17" t="s">
         <v>578</v>
       </c>
@@ -6625,7 +6634,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="17" t="s">
         <v>579</v>
       </c>
@@ -6651,7 +6660,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="17" t="s">
         <v>580</v>
       </c>
@@ -6677,7 +6686,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="17" t="s">
         <v>581</v>
       </c>
@@ -6703,7 +6712,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="17" t="s">
         <v>582</v>
       </c>
@@ -6729,7 +6738,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="17" t="s">
         <v>583</v>
       </c>
@@ -6755,7 +6764,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="17" t="s">
         <v>584</v>
       </c>
@@ -6781,7 +6790,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="17" t="s">
         <v>585</v>
       </c>
@@ -6807,7 +6816,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="17" t="s">
         <v>586</v>
       </c>
@@ -6833,7 +6842,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="17" t="s">
         <v>587</v>
       </c>
@@ -6859,7 +6868,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="17" t="s">
         <v>443</v>
       </c>
@@ -6885,7 +6894,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="17" t="s">
         <v>550</v>
       </c>
@@ -6911,7 +6920,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="17" t="s">
         <v>444</v>
       </c>
@@ -6937,7 +6946,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="17" t="s">
         <v>445</v>
       </c>
@@ -6963,7 +6972,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="17" t="s">
         <v>564</v>
       </c>
@@ -6989,7 +6998,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="17" t="s">
         <v>567</v>
       </c>
@@ -7015,7 +7024,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="17" t="s">
         <v>446</v>
       </c>
@@ -7041,7 +7050,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="17" t="s">
         <v>447</v>
       </c>
@@ -7067,7 +7076,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="17" t="s">
         <v>448</v>
       </c>
@@ -7093,7 +7102,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="17" t="s">
         <v>449</v>
       </c>
@@ -7119,7 +7128,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="17" t="s">
         <v>450</v>
       </c>
@@ -7145,7 +7154,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="17" t="s">
         <v>451</v>
       </c>
@@ -7171,7 +7180,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="17" t="s">
         <v>452</v>
       </c>
@@ -7197,7 +7206,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="17" t="s">
         <v>453</v>
       </c>
@@ -7223,7 +7232,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="17" t="s">
         <v>454</v>
       </c>
@@ -7249,7 +7258,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="17" t="s">
         <v>455</v>
       </c>
@@ -7275,7 +7284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="17" t="s">
         <v>456</v>
       </c>
@@ -7301,7 +7310,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="17" t="s">
         <v>457</v>
       </c>
@@ -7327,7 +7336,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="17" t="s">
         <v>458</v>
       </c>
@@ -7353,7 +7362,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="17" t="s">
         <v>459</v>
       </c>
@@ -7379,7 +7388,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="17" t="s">
         <v>460</v>
       </c>
@@ -7405,7 +7414,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="17" t="s">
         <v>461</v>
       </c>
@@ -7431,7 +7440,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="17" t="s">
         <v>462</v>
       </c>
@@ -7457,7 +7466,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="17" t="s">
         <v>463</v>
       </c>
@@ -7483,7 +7492,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="17" t="s">
         <v>464</v>
       </c>
@@ -7509,7 +7518,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="17" t="s">
         <v>465</v>
       </c>
@@ -7535,7 +7544,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="17" t="s">
         <v>466</v>
       </c>
@@ -7561,7 +7570,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="17" t="s">
         <v>467</v>
       </c>
@@ -7587,7 +7596,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="17" t="s">
         <v>468</v>
       </c>
@@ -7613,7 +7622,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="17" t="s">
         <v>469</v>
       </c>
@@ -7639,7 +7648,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="17" t="s">
         <v>470</v>
       </c>
@@ -7665,7 +7674,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="17" t="s">
         <v>471</v>
       </c>
@@ -7691,7 +7700,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="17" t="s">
         <v>472</v>
       </c>
@@ -7717,7 +7726,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="17" t="s">
         <v>473</v>
       </c>
@@ -7743,7 +7752,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="17" t="s">
         <v>474</v>
       </c>
@@ -7769,7 +7778,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="17" t="s">
         <v>475</v>
       </c>
@@ -7795,7 +7804,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="17" t="s">
         <v>476</v>
       </c>
@@ -7821,7 +7830,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="17" t="s">
         <v>477</v>
       </c>
@@ -7847,7 +7856,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="17" t="s">
         <v>478</v>
       </c>
@@ -7873,7 +7882,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="17" t="s">
         <v>479</v>
       </c>
@@ -7899,7 +7908,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="17" t="s">
         <v>480</v>
       </c>
@@ -7925,7 +7934,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="18" t="s">
         <v>481</v>
       </c>
@@ -7951,7 +7960,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="18" t="s">
         <v>482</v>
       </c>
@@ -7977,7 +7986,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="18" t="s">
         <v>483</v>
       </c>
@@ -8003,7 +8012,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="18" t="s">
         <v>484</v>
       </c>
@@ -8029,7 +8038,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="18" t="s">
         <v>485</v>
       </c>
@@ -8055,7 +8064,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="18" t="s">
         <v>486</v>
       </c>
@@ -8081,7 +8090,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="18" t="s">
         <v>487</v>
       </c>
@@ -8107,7 +8116,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="18" t="s">
         <v>488</v>
       </c>
@@ -8131,6 +8140,32 @@
       </c>
       <c r="H221" s="18" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="B222" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="C222" s="2">
+        <v>1</v>
+      </c>
+      <c r="D222" s="2">
+        <v>1</v>
+      </c>
+      <c r="E222" s="4">
+        <v>1</v>
+      </c>
+      <c r="F222" s="3">
+        <v>1</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0</v>
+      </c>
+      <c r="H222" s="5" t="s">
+        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_india.xlsx
+++ b/inst/extdata/main_dict_india.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1451,9 +1451,6 @@
     <t>crfs-t08a-f2_4</t>
   </si>
   <si>
-    <t>crfs-t08a-f2_5</t>
-  </si>
-  <si>
     <t>crfs-t08a-f2_10a</t>
   </si>
   <si>
@@ -1956,6 +1953,9 @@
   </si>
   <si>
     <t>instanceID</t>
+  </si>
+  <si>
+    <t>crfs-t08a-f2_5a</t>
   </si>
 </sst>
 </file>
@@ -2381,22 +2381,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
-      <selection activeCell="A222" sqref="A222:XFD222"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A216" sqref="A216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31.08203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2416,13 +2416,13 @@
         <v>171</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2474,7 +2474,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2500,9 +2500,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>172</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>640</v>
-      </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -2549,15 +2549,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -2575,68 +2575,68 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>613</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>638</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>638</v>
-      </c>
       <c r="C10" s="2">
         <v>1</v>
       </c>
@@ -2653,166 +2653,166 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
+        <v>619</v>
+      </c>
+      <c r="B11" s="24" t="s">
         <v>620</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>621</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
+      <c r="B12" s="24" t="s">
         <v>622</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
+      <c r="B13" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>625</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
+      <c r="B14" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>627</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="24" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="B15" s="19" t="s">
         <v>628</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19" t="s">
+      <c r="B16" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="19" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
-        <v>630</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>631</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="19" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>333</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>334</v>
       </c>
@@ -2864,12 +2864,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -2887,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>335</v>
       </c>
@@ -2916,7 +2916,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>336</v>
       </c>
@@ -2942,33 +2942,33 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>495</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>337</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>338</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>339</v>
       </c>
@@ -3046,12 +3046,12 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -3069,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>341</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>342</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>343</v>
       </c>
@@ -3150,12 +3150,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>340</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -3176,7 +3176,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>344</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>345</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>346</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>347</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>348</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>349</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>350</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
         <v>351</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
         <v>352</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
         <v>353</v>
       </c>
@@ -3436,7 +3436,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
         <v>354</v>
       </c>
@@ -3462,59 +3462,59 @@
         <v>192</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="12" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>511</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>512</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>355</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
         <v>356</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>357</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>358</v>
       </c>
@@ -3618,7 +3618,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>359</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>360</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>361</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>362</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>363</v>
       </c>
@@ -3748,7 +3748,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>364</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>365</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>366</v>
       </c>
@@ -3826,7 +3826,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>367</v>
       </c>
@@ -3852,7 +3852,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>369</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>370</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>368</v>
       </c>
@@ -3930,9 +3930,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>32</v>
@@ -3956,9 +3956,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>33</v>
@@ -3982,35 +3982,35 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>560</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="C62" s="2">
-        <v>0</v>
-      </c>
-      <c r="D62" s="2">
-        <v>1</v>
-      </c>
-      <c r="E62" s="4">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1</v>
-      </c>
-      <c r="H62" s="11" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>38</v>
@@ -4034,9 +4034,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>39</v>
@@ -4060,38 +4060,38 @@
         <v>210</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="C65" s="2">
+        <v>0</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="C65" s="2">
-        <v>0</v>
-      </c>
-      <c r="D65" s="2">
-        <v>1</v>
-      </c>
-      <c r="E65" s="4">
-        <v>0</v>
-      </c>
-      <c r="F65" s="4">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -4109,36 +4109,36 @@
         <v>0</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="C67" s="2">
+        <v>0</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+      <c r="H67" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C67" s="2">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>0</v>
-      </c>
-      <c r="F67" s="4">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>371</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>372</v>
       </c>
@@ -4190,39 +4190,39 @@
         <v>216</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
+        <v>502</v>
+      </c>
+      <c r="B70" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="11" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="19" t="s">
+      <c r="B71" s="19" t="s">
         <v>505</v>
       </c>
-      <c r="B71" s="19" t="s">
-        <v>506</v>
-      </c>
       <c r="C71" s="2">
         <v>1</v>
       </c>
@@ -4239,15 +4239,15 @@
         <v>1</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C72" s="2">
         <v>1</v>
@@ -4265,88 +4265,88 @@
         <v>1</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B73" s="11" t="s">
         <v>552</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>553</v>
       </c>
-      <c r="C73" s="2">
-        <v>1</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="11" t="s">
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="11" t="s">
+      <c r="B74" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
         <v>555</v>
       </c>
-      <c r="B74" s="11" t="s">
+      <c r="B75" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="C74" s="2">
-        <v>1</v>
-      </c>
-      <c r="D74" s="2">
-        <v>1</v>
-      </c>
-      <c r="E74" s="4">
-        <v>1</v>
-      </c>
-      <c r="F74" s="4">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="11" t="s">
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="11" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="11" t="s">
-        <v>556</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>558</v>
-      </c>
-      <c r="C75" s="2">
-        <v>1</v>
-      </c>
-      <c r="D75" s="2">
-        <v>1</v>
-      </c>
-      <c r="E75" s="4">
-        <v>1</v>
-      </c>
-      <c r="F75" s="4">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="11" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
         <v>373</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
         <v>374</v>
       </c>
@@ -4398,7 +4398,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
         <v>375</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
         <v>376</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
         <v>377</v>
       </c>
@@ -4476,7 +4476,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
         <v>378</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
         <v>379</v>
       </c>
@@ -4528,7 +4528,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
         <v>380</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
         <v>381</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
         <v>382</v>
       </c>
@@ -4606,7 +4606,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
         <v>383</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
         <v>384</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
         <v>385</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
         <v>386</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
         <v>387</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
         <v>388</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
         <v>389</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
         <v>390</v>
       </c>
@@ -4814,7 +4814,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="13" t="s">
         <v>391</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="13" t="s">
         <v>392</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="13" t="s">
         <v>393</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="13" t="s">
         <v>394</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="13" t="s">
         <v>395</v>
       </c>
@@ -4944,7 +4944,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="13" t="s">
         <v>396</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="13" t="s">
         <v>397</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="13" t="s">
         <v>398</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="13" t="s">
         <v>399</v>
       </c>
@@ -5048,7 +5048,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="13" t="s">
         <v>400</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="13" t="s">
         <v>401</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="17" t="s">
         <v>402</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="17" t="s">
         <v>403</v>
       </c>
@@ -5152,7 +5152,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="17" t="s">
         <v>404</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="17" t="s">
         <v>405</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="17" t="s">
         <v>406</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="17" t="s">
         <v>407</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="17" t="s">
         <v>408</v>
       </c>
@@ -5282,7 +5282,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="17" t="s">
         <v>409</v>
       </c>
@@ -5308,7 +5308,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="17" t="s">
         <v>410</v>
       </c>
@@ -5334,7 +5334,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="17" t="s">
         <v>411</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="17" t="s">
         <v>412</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="17" t="s">
         <v>413</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="17" t="s">
         <v>414</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="17" t="s">
         <v>415</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="17" t="s">
         <v>416</v>
       </c>
@@ -5490,7 +5490,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="17" t="s">
         <v>417</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="17" t="s">
         <v>418</v>
       </c>
@@ -5542,7 +5542,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="17" t="s">
         <v>419</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="17" t="s">
         <v>420</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="17" t="s">
         <v>421</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="17" t="s">
         <v>422</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="17" t="s">
         <v>423</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="17" t="s">
         <v>424</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="17" t="s">
         <v>425</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="17" t="s">
         <v>426</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="17" t="s">
         <v>427</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="17" t="s">
         <v>428</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="17" t="s">
         <v>429</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="17" t="s">
         <v>430</v>
       </c>
@@ -5854,7 +5854,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="17" t="s">
         <v>431</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="17" t="s">
         <v>432</v>
       </c>
@@ -5906,7 +5906,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
         <v>433</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="17" t="s">
         <v>434</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="17" t="s">
         <v>435</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="17" t="s">
         <v>436</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
         <v>437</v>
       </c>
@@ -6036,9 +6036,9 @@
         <v>280</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B141" s="14" t="s">
         <v>116</v>
@@ -6059,10 +6059,10 @@
         <v>0</v>
       </c>
       <c r="H141" s="17" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="17" t="s">
         <v>438</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="17" t="s">
         <v>439</v>
       </c>
@@ -6114,33 +6114,33 @@
         <v>282</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="17" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B144" s="14" t="s">
+        <v>600</v>
+      </c>
+      <c r="C144" s="2">
+        <v>0</v>
+      </c>
+      <c r="D144" s="2">
+        <v>0</v>
+      </c>
+      <c r="E144" s="20">
+        <v>1</v>
+      </c>
+      <c r="F144" s="22">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="17" t="s">
         <v>601</v>
       </c>
-      <c r="C144" s="2">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2">
-        <v>0</v>
-      </c>
-      <c r="E144" s="20">
-        <v>1</v>
-      </c>
-      <c r="F144" s="22">
-        <v>1</v>
-      </c>
-      <c r="G144" s="3">
-        <v>0</v>
-      </c>
-      <c r="H144" s="17" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="17" t="s">
         <v>440</v>
       </c>
@@ -6166,7 +6166,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="17" t="s">
         <v>441</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="17" t="s">
         <v>442</v>
       </c>
@@ -6218,165 +6218,165 @@
         <v>285</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0</v>
+      </c>
+      <c r="D148" s="2">
+        <v>0</v>
+      </c>
+      <c r="E148" s="20">
+        <v>1</v>
+      </c>
+      <c r="F148" s="20">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3">
+        <v>0</v>
+      </c>
+      <c r="H148" s="18" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B149" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="C148" s="2">
-        <v>0</v>
-      </c>
-      <c r="D148" s="2">
-        <v>0</v>
-      </c>
-      <c r="E148" s="20">
-        <v>1</v>
-      </c>
-      <c r="F148" s="20">
-        <v>1</v>
-      </c>
-      <c r="G148" s="3">
-        <v>0</v>
-      </c>
-      <c r="H148" s="18" t="s">
+      <c r="C149" s="2">
+        <v>0</v>
+      </c>
+      <c r="D149" s="2">
+        <v>0</v>
+      </c>
+      <c r="E149" s="20">
+        <v>1</v>
+      </c>
+      <c r="F149" s="20">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="18" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="18" t="s">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="B149" s="16" t="s">
+      <c r="B150" s="16" t="s">
         <v>595</v>
       </c>
-      <c r="C149" s="2">
-        <v>0</v>
-      </c>
-      <c r="D149" s="2">
-        <v>0</v>
-      </c>
-      <c r="E149" s="20">
-        <v>1</v>
-      </c>
-      <c r="F149" s="20">
-        <v>1</v>
-      </c>
-      <c r="G149" s="3">
-        <v>0</v>
-      </c>
-      <c r="H149" s="18" t="s">
+      <c r="C150" s="2">
+        <v>0</v>
+      </c>
+      <c r="D150" s="2">
+        <v>0</v>
+      </c>
+      <c r="E150" s="20">
+        <v>1</v>
+      </c>
+      <c r="F150" s="20">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3">
+        <v>0</v>
+      </c>
+      <c r="H150" s="18" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="18" t="s">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B151" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="C150" s="2">
-        <v>0</v>
-      </c>
-      <c r="D150" s="2">
-        <v>0</v>
-      </c>
-      <c r="E150" s="20">
-        <v>1</v>
-      </c>
-      <c r="F150" s="20">
-        <v>1</v>
-      </c>
-      <c r="G150" s="3">
-        <v>0</v>
-      </c>
-      <c r="H150" s="18" t="s">
+      <c r="C151" s="2">
+        <v>0</v>
+      </c>
+      <c r="D151" s="2">
+        <v>0</v>
+      </c>
+      <c r="E151" s="20">
+        <v>1</v>
+      </c>
+      <c r="F151" s="20">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="18" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="18" t="s">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="B152" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="C151" s="2">
-        <v>0</v>
-      </c>
-      <c r="D151" s="2">
-        <v>0</v>
-      </c>
-      <c r="E151" s="20">
-        <v>1</v>
-      </c>
-      <c r="F151" s="20">
-        <v>1</v>
-      </c>
-      <c r="G151" s="3">
-        <v>0</v>
-      </c>
-      <c r="H151" s="18" t="s">
+      <c r="C152" s="2">
+        <v>0</v>
+      </c>
+      <c r="D152" s="2">
+        <v>0</v>
+      </c>
+      <c r="E152" s="20">
+        <v>1</v>
+      </c>
+      <c r="F152" s="20">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="18" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A152" s="18" t="s">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="B152" s="16" t="s">
+      <c r="B153" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="C152" s="2">
-        <v>0</v>
-      </c>
-      <c r="D152" s="2">
-        <v>0</v>
-      </c>
-      <c r="E152" s="20">
-        <v>1</v>
-      </c>
-      <c r="F152" s="20">
-        <v>1</v>
-      </c>
-      <c r="G152" s="3">
-        <v>0</v>
-      </c>
-      <c r="H152" s="18" t="s">
+      <c r="C153" s="2">
+        <v>0</v>
+      </c>
+      <c r="D153" s="2">
+        <v>0</v>
+      </c>
+      <c r="E153" s="20">
+        <v>1</v>
+      </c>
+      <c r="F153" s="20">
+        <v>1</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+      <c r="H153" s="18" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A153" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="B153" s="16" t="s">
-        <v>599</v>
-      </c>
-      <c r="C153" s="2">
-        <v>0</v>
-      </c>
-      <c r="D153" s="2">
-        <v>0</v>
-      </c>
-      <c r="E153" s="20">
-        <v>1</v>
-      </c>
-      <c r="F153" s="20">
-        <v>1</v>
-      </c>
-      <c r="G153" s="3">
-        <v>0</v>
-      </c>
-      <c r="H153" s="18" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" s="17" t="s">
         <v>609</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A154" s="17" t="s">
-        <v>610</v>
       </c>
       <c r="B154" s="14" t="s">
         <v>122</v>
@@ -6400,475 +6400,475 @@
         <v>286</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="B155" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="C155" s="2">
+        <v>0</v>
+      </c>
+      <c r="D155" s="2">
+        <v>0</v>
+      </c>
+      <c r="E155" s="4">
+        <v>1</v>
+      </c>
+      <c r="F155" s="22">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3">
+        <v>0</v>
+      </c>
+      <c r="H155" s="17" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" s="17" t="s">
         <v>570</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B156" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="C155" s="2">
-        <v>0</v>
-      </c>
-      <c r="D155" s="2">
-        <v>0</v>
-      </c>
-      <c r="E155" s="4">
-        <v>1</v>
-      </c>
-      <c r="F155" s="22">
-        <v>1</v>
-      </c>
-      <c r="G155" s="3">
-        <v>0</v>
-      </c>
-      <c r="H155" s="17" t="s">
+      <c r="C156" s="2">
+        <v>0</v>
+      </c>
+      <c r="D156" s="2">
+        <v>0</v>
+      </c>
+      <c r="E156" s="4">
+        <v>1</v>
+      </c>
+      <c r="F156" s="22">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0</v>
+      </c>
+      <c r="H156" s="17" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A156" s="17" t="s">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" s="17" t="s">
         <v>571</v>
       </c>
-      <c r="B156" s="23" t="s">
+      <c r="B157" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0</v>
+      </c>
+      <c r="E157" s="4">
+        <v>1</v>
+      </c>
+      <c r="F157" s="22">
+        <v>1</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0</v>
+      </c>
+      <c r="H157" s="17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" s="17" t="s">
+        <v>572</v>
+      </c>
+      <c r="B158" s="23" t="s">
         <v>533</v>
       </c>
-      <c r="C156" s="2">
-        <v>0</v>
-      </c>
-      <c r="D156" s="2">
-        <v>0</v>
-      </c>
-      <c r="E156" s="4">
-        <v>1</v>
-      </c>
-      <c r="F156" s="22">
-        <v>1</v>
-      </c>
-      <c r="G156" s="3">
-        <v>0</v>
-      </c>
-      <c r="H156" s="17" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A157" s="17" t="s">
-        <v>572</v>
-      </c>
-      <c r="B157" s="23" t="s">
+      <c r="C158" s="2">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+      <c r="E158" s="4">
+        <v>1</v>
+      </c>
+      <c r="F158" s="22">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0</v>
+      </c>
+      <c r="H158" s="17" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="B159" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="C157" s="2">
-        <v>0</v>
-      </c>
-      <c r="D157" s="2">
-        <v>0</v>
-      </c>
-      <c r="E157" s="4">
-        <v>1</v>
-      </c>
-      <c r="F157" s="22">
-        <v>1</v>
-      </c>
-      <c r="G157" s="3">
-        <v>0</v>
-      </c>
-      <c r="H157" s="17" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A158" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="B158" s="23" t="s">
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+      <c r="E159" s="4">
+        <v>1</v>
+      </c>
+      <c r="F159" s="22">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
+      <c r="H159" s="17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="B160" s="23" t="s">
+        <v>540</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0</v>
+      </c>
+      <c r="E160" s="4">
+        <v>1</v>
+      </c>
+      <c r="F160" s="22">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3">
+        <v>0</v>
+      </c>
+      <c r="H160" s="17" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A161" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="B161" s="23" t="s">
         <v>534</v>
       </c>
-      <c r="C158" s="2">
-        <v>0</v>
-      </c>
-      <c r="D158" s="2">
-        <v>0</v>
-      </c>
-      <c r="E158" s="4">
-        <v>1</v>
-      </c>
-      <c r="F158" s="22">
-        <v>1</v>
-      </c>
-      <c r="G158" s="3">
-        <v>0</v>
-      </c>
-      <c r="H158" s="17" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A159" s="17" t="s">
-        <v>574</v>
-      </c>
-      <c r="B159" s="23" t="s">
-        <v>540</v>
-      </c>
-      <c r="C159" s="2">
-        <v>0</v>
-      </c>
-      <c r="D159" s="2">
-        <v>0</v>
-      </c>
-      <c r="E159" s="4">
-        <v>1</v>
-      </c>
-      <c r="F159" s="22">
-        <v>1</v>
-      </c>
-      <c r="G159" s="3">
-        <v>0</v>
-      </c>
-      <c r="H159" s="17" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A160" s="17" t="s">
-        <v>575</v>
-      </c>
-      <c r="B160" s="23" t="s">
+      <c r="C161" s="2">
+        <v>0</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0</v>
+      </c>
+      <c r="E161" s="4">
+        <v>1</v>
+      </c>
+      <c r="F161" s="22">
+        <v>1</v>
+      </c>
+      <c r="G161" s="3">
+        <v>0</v>
+      </c>
+      <c r="H161" s="17" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A162" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="B162" s="23" t="s">
         <v>541</v>
       </c>
-      <c r="C160" s="2">
-        <v>0</v>
-      </c>
-      <c r="D160" s="2">
-        <v>0</v>
-      </c>
-      <c r="E160" s="4">
-        <v>1</v>
-      </c>
-      <c r="F160" s="22">
-        <v>1</v>
-      </c>
-      <c r="G160" s="3">
-        <v>0</v>
-      </c>
-      <c r="H160" s="17" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A161" s="17" t="s">
-        <v>576</v>
-      </c>
-      <c r="B161" s="23" t="s">
+      <c r="C162" s="2">
+        <v>0</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0</v>
+      </c>
+      <c r="E162" s="4">
+        <v>1</v>
+      </c>
+      <c r="F162" s="22">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3">
+        <v>0</v>
+      </c>
+      <c r="H162" s="17" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A163" s="17" t="s">
+        <v>577</v>
+      </c>
+      <c r="B163" s="23" t="s">
         <v>535</v>
       </c>
-      <c r="C161" s="2">
-        <v>0</v>
-      </c>
-      <c r="D161" s="2">
-        <v>0</v>
-      </c>
-      <c r="E161" s="4">
-        <v>1</v>
-      </c>
-      <c r="F161" s="22">
-        <v>1</v>
-      </c>
-      <c r="G161" s="3">
-        <v>0</v>
-      </c>
-      <c r="H161" s="17" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A162" s="17" t="s">
-        <v>577</v>
-      </c>
-      <c r="B162" s="23" t="s">
+      <c r="C163" s="2">
+        <v>0</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1</v>
+      </c>
+      <c r="F163" s="22">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="17" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A164" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="B164" s="23" t="s">
         <v>542</v>
       </c>
-      <c r="C162" s="2">
-        <v>0</v>
-      </c>
-      <c r="D162" s="2">
-        <v>0</v>
-      </c>
-      <c r="E162" s="4">
-        <v>1</v>
-      </c>
-      <c r="F162" s="22">
-        <v>1</v>
-      </c>
-      <c r="G162" s="3">
-        <v>0</v>
-      </c>
-      <c r="H162" s="17" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A163" s="17" t="s">
-        <v>578</v>
-      </c>
-      <c r="B163" s="23" t="s">
+      <c r="C164" s="2">
+        <v>0</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1</v>
+      </c>
+      <c r="F164" s="22">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0</v>
+      </c>
+      <c r="H164" s="17" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A165" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="B165" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="C165" s="2">
+        <v>0</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0</v>
+      </c>
+      <c r="E165" s="4">
+        <v>1</v>
+      </c>
+      <c r="F165" s="22">
+        <v>1</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0</v>
+      </c>
+      <c r="H165" s="17" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A166" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="B166" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="C166" s="2">
+        <v>0</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0</v>
+      </c>
+      <c r="E166" s="4">
+        <v>1</v>
+      </c>
+      <c r="F166" s="22">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3">
+        <v>0</v>
+      </c>
+      <c r="H166" s="17" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A167" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="B167" s="23" t="s">
         <v>536</v>
       </c>
-      <c r="C163" s="2">
-        <v>0</v>
-      </c>
-      <c r="D163" s="2">
-        <v>0</v>
-      </c>
-      <c r="E163" s="4">
-        <v>1</v>
-      </c>
-      <c r="F163" s="22">
-        <v>1</v>
-      </c>
-      <c r="G163" s="3">
-        <v>0</v>
-      </c>
-      <c r="H163" s="17" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A164" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="B164" s="23" t="s">
-        <v>543</v>
-      </c>
-      <c r="C164" s="2">
-        <v>0</v>
-      </c>
-      <c r="D164" s="2">
-        <v>0</v>
-      </c>
-      <c r="E164" s="4">
-        <v>1</v>
-      </c>
-      <c r="F164" s="22">
-        <v>1</v>
-      </c>
-      <c r="G164" s="3">
-        <v>0</v>
-      </c>
-      <c r="H164" s="17" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A165" s="17" t="s">
-        <v>580</v>
-      </c>
-      <c r="B165" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="C165" s="2">
-        <v>0</v>
-      </c>
-      <c r="D165" s="2">
-        <v>0</v>
-      </c>
-      <c r="E165" s="4">
-        <v>1</v>
-      </c>
-      <c r="F165" s="22">
-        <v>1</v>
-      </c>
-      <c r="G165" s="3">
-        <v>0</v>
-      </c>
-      <c r="H165" s="17" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A166" s="17" t="s">
-        <v>581</v>
-      </c>
-      <c r="B166" s="23" t="s">
+      <c r="C167" s="2">
+        <v>0</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0</v>
+      </c>
+      <c r="E167" s="4">
+        <v>1</v>
+      </c>
+      <c r="F167" s="22">
+        <v>1</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0</v>
+      </c>
+      <c r="H167" s="17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A168" s="17" t="s">
+        <v>582</v>
+      </c>
+      <c r="B168" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="C166" s="2">
-        <v>0</v>
-      </c>
-      <c r="D166" s="2">
-        <v>0</v>
-      </c>
-      <c r="E166" s="4">
-        <v>1</v>
-      </c>
-      <c r="F166" s="22">
-        <v>1</v>
-      </c>
-      <c r="G166" s="3">
-        <v>0</v>
-      </c>
-      <c r="H166" s="17" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A167" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="B167" s="23" t="s">
+      <c r="C168" s="2">
+        <v>0</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0</v>
+      </c>
+      <c r="E168" s="4">
+        <v>1</v>
+      </c>
+      <c r="F168" s="22">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3">
+        <v>0</v>
+      </c>
+      <c r="H168" s="17" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A169" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="B169" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="C167" s="2">
-        <v>0</v>
-      </c>
-      <c r="D167" s="2">
-        <v>0</v>
-      </c>
-      <c r="E167" s="4">
-        <v>1</v>
-      </c>
-      <c r="F167" s="22">
-        <v>1</v>
-      </c>
-      <c r="G167" s="3">
-        <v>0</v>
-      </c>
-      <c r="H167" s="17" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A168" s="17" t="s">
-        <v>583</v>
-      </c>
-      <c r="B168" s="23" t="s">
+      <c r="C169" s="2">
+        <v>0</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="4">
+        <v>1</v>
+      </c>
+      <c r="F169" s="22">
+        <v>1</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="17" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A170" s="17" t="s">
+        <v>584</v>
+      </c>
+      <c r="B170" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="C168" s="2">
-        <v>0</v>
-      </c>
-      <c r="D168" s="2">
-        <v>0</v>
-      </c>
-      <c r="E168" s="4">
-        <v>1</v>
-      </c>
-      <c r="F168" s="22">
-        <v>1</v>
-      </c>
-      <c r="G168" s="3">
-        <v>0</v>
-      </c>
-      <c r="H168" s="17" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A169" s="17" t="s">
-        <v>584</v>
-      </c>
-      <c r="B169" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="C169" s="2">
-        <v>0</v>
-      </c>
-      <c r="D169" s="2">
-        <v>0</v>
-      </c>
-      <c r="E169" s="4">
-        <v>1</v>
-      </c>
-      <c r="F169" s="22">
-        <v>1</v>
-      </c>
-      <c r="G169" s="3">
-        <v>0</v>
-      </c>
-      <c r="H169" s="17" t="s">
+      <c r="C170" s="2">
+        <v>0</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>1</v>
+      </c>
+      <c r="F170" s="22">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="17" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A170" s="17" t="s">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A171" s="17" t="s">
         <v>585</v>
       </c>
-      <c r="B170" s="23" t="s">
+      <c r="B171" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="4">
+        <v>1</v>
+      </c>
+      <c r="F171" s="22">
+        <v>1</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="17" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A172" s="17" t="s">
+        <v>586</v>
+      </c>
+      <c r="B172" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="C170" s="2">
-        <v>0</v>
-      </c>
-      <c r="D170" s="2">
-        <v>0</v>
-      </c>
-      <c r="E170" s="4">
-        <v>1</v>
-      </c>
-      <c r="F170" s="22">
-        <v>1</v>
-      </c>
-      <c r="G170" s="3">
-        <v>0</v>
-      </c>
-      <c r="H170" s="17" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A171" s="17" t="s">
-        <v>586</v>
-      </c>
-      <c r="B171" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="C171" s="2">
-        <v>0</v>
-      </c>
-      <c r="D171" s="2">
-        <v>0</v>
-      </c>
-      <c r="E171" s="4">
-        <v>1</v>
-      </c>
-      <c r="F171" s="22">
-        <v>1</v>
-      </c>
-      <c r="G171" s="3">
-        <v>0</v>
-      </c>
-      <c r="H171" s="17" t="s">
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="4">
+        <v>1</v>
+      </c>
+      <c r="F172" s="22">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+      <c r="H172" s="17" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A172" s="17" t="s">
-        <v>587</v>
-      </c>
-      <c r="B172" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="C172" s="2">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2">
-        <v>0</v>
-      </c>
-      <c r="E172" s="4">
-        <v>1</v>
-      </c>
-      <c r="F172" s="22">
-        <v>1</v>
-      </c>
-      <c r="G172" s="3">
-        <v>0</v>
-      </c>
-      <c r="H172" s="17" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="17" t="s">
         <v>443</v>
       </c>
@@ -6894,9 +6894,9 @@
         <v>287</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B174" s="14" t="s">
         <v>124</v>
@@ -6920,7 +6920,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="17" t="s">
         <v>444</v>
       </c>
@@ -6946,7 +6946,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="17" t="s">
         <v>445</v>
       </c>
@@ -6972,59 +6972,59 @@
         <v>290</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B177" s="14" t="s">
         <v>564</v>
       </c>
-      <c r="B177" s="14" t="s">
+      <c r="C177" s="2">
+        <v>0</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0</v>
+      </c>
+      <c r="E177" s="20">
+        <v>1</v>
+      </c>
+      <c r="F177" s="22">
+        <v>1</v>
+      </c>
+      <c r="G177" s="3">
+        <v>1</v>
+      </c>
+      <c r="H177" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="C177" s="2">
-        <v>0</v>
-      </c>
-      <c r="D177" s="2">
-        <v>0</v>
-      </c>
-      <c r="E177" s="20">
-        <v>1</v>
-      </c>
-      <c r="F177" s="22">
-        <v>1</v>
-      </c>
-      <c r="G177" s="3">
-        <v>1</v>
-      </c>
-      <c r="H177" s="17" t="s">
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A178" s="17" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A178" s="17" t="s">
+      <c r="B178" s="14" t="s">
         <v>567</v>
       </c>
-      <c r="B178" s="14" t="s">
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+      <c r="E178" s="20">
+        <v>1</v>
+      </c>
+      <c r="F178" s="22">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>1</v>
+      </c>
+      <c r="H178" s="17" t="s">
         <v>568</v>
       </c>
-      <c r="C178" s="2">
-        <v>0</v>
-      </c>
-      <c r="D178" s="2">
-        <v>0</v>
-      </c>
-      <c r="E178" s="20">
-        <v>1</v>
-      </c>
-      <c r="F178" s="22">
-        <v>1</v>
-      </c>
-      <c r="G178" s="3">
-        <v>1</v>
-      </c>
-      <c r="H178" s="17" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="17" t="s">
         <v>446</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="17" t="s">
         <v>447</v>
       </c>
@@ -7076,7 +7076,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="17" t="s">
         <v>448</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="17" t="s">
         <v>449</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="17" t="s">
         <v>450</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="17" t="s">
         <v>451</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="17" t="s">
         <v>452</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="17" t="s">
         <v>453</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="17" t="s">
         <v>454</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="17" t="s">
         <v>455</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="17" t="s">
         <v>456</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="17" t="s">
         <v>457</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="17" t="s">
         <v>458</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="17" t="s">
         <v>459</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="17" t="s">
         <v>460</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="17" t="s">
         <v>461</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="17" t="s">
         <v>462</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="17" t="s">
         <v>463</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="17" t="s">
         <v>464</v>
       </c>
@@ -7518,7 +7518,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="17" t="s">
         <v>465</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="17" t="s">
         <v>466</v>
       </c>
@@ -7570,7 +7570,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="17" t="s">
         <v>467</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="17" t="s">
         <v>468</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="17" t="s">
         <v>469</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="17" t="s">
         <v>470</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="17" t="s">
         <v>471</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="17" t="s">
         <v>472</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="17" t="s">
         <v>473</v>
       </c>
@@ -7752,7 +7752,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="17" t="s">
         <v>474</v>
       </c>
@@ -7778,9 +7778,9 @@
         <v>319</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="17" t="s">
-        <v>475</v>
+        <v>643</v>
       </c>
       <c r="B208" s="14" t="s">
         <v>156</v>
@@ -7804,9 +7804,9 @@
         <v>320</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="17" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B209" s="14" t="s">
         <v>157</v>
@@ -7830,9 +7830,9 @@
         <v>321</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="17" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B210" s="14" t="s">
         <v>158</v>
@@ -7856,9 +7856,9 @@
         <v>322</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="17" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B211" s="14" t="s">
         <v>159</v>
@@ -7882,9 +7882,9 @@
         <v>323</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="17" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B212" s="14" t="s">
         <v>160</v>
@@ -7908,9 +7908,9 @@
         <v>324</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="17" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B213" s="14" t="s">
         <v>161</v>
@@ -7934,9 +7934,9 @@
         <v>325</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="18" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B214" s="16" t="s">
         <v>162</v>
@@ -7960,9 +7960,9 @@
         <v>326</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="18" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B215" s="16" t="s">
         <v>163</v>
@@ -7986,9 +7986,9 @@
         <v>327</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="18" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B216" s="16" t="s">
         <v>164</v>
@@ -8012,9 +8012,9 @@
         <v>328</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="18" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B217" s="16" t="s">
         <v>165</v>
@@ -8038,9 +8038,9 @@
         <v>329</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="18" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B218" s="16" t="s">
         <v>166</v>
@@ -8064,9 +8064,9 @@
         <v>330</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="18" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B219" s="16" t="s">
         <v>167</v>
@@ -8090,9 +8090,9 @@
         <v>331</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="18" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B220" s="16" t="s">
         <v>168</v>
@@ -8116,9 +8116,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="18" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B221" s="16" t="s">
         <v>169</v>
@@ -8142,30 +8142,30 @@
         <v>212</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="B222" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="C222" s="2">
+        <v>1</v>
+      </c>
+      <c r="D222" s="2">
+        <v>1</v>
+      </c>
+      <c r="E222" s="4">
+        <v>1</v>
+      </c>
+      <c r="F222" s="3">
+        <v>1</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0</v>
+      </c>
+      <c r="H222" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="C222" s="2">
-        <v>1</v>
-      </c>
-      <c r="D222" s="2">
-        <v>1</v>
-      </c>
-      <c r="E222" s="4">
-        <v>1</v>
-      </c>
-      <c r="F222" s="3">
-        <v>1</v>
-      </c>
-      <c r="G222" s="3">
-        <v>0</v>
-      </c>
-      <c r="H222" s="5" t="s">
-        <v>643</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_india.xlsx
+++ b/inst/extdata/main_dict_india.xlsx
@@ -827,9 +827,6 @@
     <t>d2_6</t>
   </si>
   <si>
-    <t>d2_6b</t>
-  </si>
-  <si>
     <t>d2_1</t>
   </si>
   <si>
@@ -875,9 +872,6 @@
     <t>f2_4</t>
   </si>
   <si>
-    <t>f2_5</t>
-  </si>
-  <si>
     <t>f2_10a</t>
   </si>
   <si>
@@ -1587,6 +1581,12 @@
   </si>
   <si>
     <t>birth_order</t>
+  </si>
+  <si>
+    <t>d2_6c</t>
+  </si>
+  <si>
+    <t>f2_5a</t>
   </si>
 </sst>
 </file>
@@ -2009,22 +2009,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="H167" sqref="H167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.875" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2044,13 +2044,13 @@
         <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2076,7 +2076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2128,9 +2128,9 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>153</v>
@@ -2151,15 +2151,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -2177,15 +2177,15 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -2203,15 +2203,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2229,15 +2229,15 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2255,15 +2255,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2281,168 +2281,168 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
+        <v>474</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B12" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>1</v>
-      </c>
-      <c r="H11" s="20" t="s">
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B13" s="20" t="s">
         <v>479</v>
       </c>
-      <c r="C12" s="2">
-        <v>1</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="20" t="s">
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B14" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="3">
-        <v>1</v>
-      </c>
-      <c r="H13" s="20" t="s">
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="20" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B15" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B16" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="B16" s="16" t="s">
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>20</v>
@@ -2466,9 +2466,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -2492,12 +2492,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -2515,12 +2515,12 @@
         <v>0</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>35</v>
@@ -2544,9 +2544,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>36</v>
@@ -2570,13 +2570,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>441</v>
-      </c>
       <c r="C22" s="2">
         <v>1</v>
       </c>
@@ -2593,12 +2593,12 @@
         <v>0</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>9</v>
@@ -2622,9 +2622,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>28</v>
@@ -2648,9 +2648,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>2</v>
@@ -2674,12 +2674,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -2697,12 +2697,12 @@
         <v>0</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>11</v>
@@ -2726,9 +2726,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>12</v>
@@ -2752,9 +2752,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>10</v>
@@ -2778,12 +2778,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -2804,9 +2804,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>22</v>
@@ -2830,9 +2830,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>23</v>
@@ -2856,9 +2856,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>8</v>
@@ -2882,9 +2882,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>37</v>
@@ -2908,9 +2908,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>21</v>
@@ -2934,9 +2934,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>13</v>
@@ -2960,9 +2960,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>14</v>
@@ -2986,9 +2986,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>4</v>
@@ -3012,9 +3012,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>6</v>
@@ -3038,9 +3038,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B40" s="12" t="s">
         <v>15</v>
@@ -3064,9 +3064,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>5</v>
@@ -3090,61 +3090,61 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="B42" s="12" t="s">
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0</v>
-      </c>
-      <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>1</v>
-      </c>
-      <c r="G42" s="3">
-        <v>1</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B44" s="7" t="s">
         <v>16</v>
@@ -3168,9 +3168,9 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>45</v>
@@ -3194,9 +3194,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B46" s="7" t="s">
         <v>46</v>
@@ -3220,9 +3220,9 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B47" s="7" t="s">
         <v>47</v>
@@ -3246,9 +3246,9 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B48" s="7" t="s">
         <v>48</v>
@@ -3272,9 +3272,9 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>49</v>
@@ -3298,9 +3298,9 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>17</v>
@@ -3324,9 +3324,9 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>18</v>
@@ -3350,9 +3350,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>19</v>
@@ -3376,9 +3376,9 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>3</v>
@@ -3402,9 +3402,9 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>29</v>
@@ -3428,9 +3428,9 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>31</v>
@@ -3454,35 +3454,35 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
         <v>330</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>40</v>
@@ -3506,9 +3506,9 @@
         <v>192</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B58" s="9" t="s">
         <v>41</v>
@@ -3532,9 +3532,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>42</v>
@@ -3558,9 +3558,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B60" s="9" t="s">
         <v>32</v>
@@ -3584,9 +3584,9 @@
         <v>187</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>33</v>
@@ -3610,9 +3610,9 @@
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>38</v>
@@ -3636,9 +3636,9 @@
         <v>190</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>39</v>
@@ -3662,38 +3662,38 @@
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
+        <v>488</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C64" s="2">
+        <v>0</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="B64" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="C64" s="2">
-        <v>0</v>
-      </c>
-      <c r="D64" s="2">
-        <v>1</v>
-      </c>
-      <c r="E64" s="4">
-        <v>0</v>
-      </c>
-      <c r="F64" s="4">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -3711,38 +3711,38 @@
         <v>0</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="B66" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>43</v>
@@ -3766,9 +3766,9 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>44</v>
@@ -3792,64 +3792,64 @@
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="C69" s="2">
+        <v>1</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B70" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="11" t="s">
+      <c r="C70" s="2">
+        <v>1</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+      <c r="H70" s="11" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>450</v>
-      </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="11" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C71" s="2">
         <v>1</v>
@@ -3867,42 +3867,42 @@
         <v>1</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B73" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>504</v>
-      </c>
       <c r="C73" s="2">
         <v>1</v>
       </c>
@@ -3919,12 +3919,12 @@
         <v>1</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>51</v>
@@ -3948,9 +3948,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>52</v>
@@ -3974,9 +3974,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>53</v>
@@ -4000,9 +4000,9 @@
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>54</v>
@@ -4026,12 +4026,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C78" s="2">
         <v>0</v>
@@ -4049,12 +4049,12 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>55</v>
@@ -4078,9 +4078,9 @@
         <v>202</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>56</v>
@@ -4104,9 +4104,9 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>57</v>
@@ -4130,9 +4130,9 @@
         <v>216</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>58</v>
@@ -4156,9 +4156,9 @@
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>59</v>
@@ -4182,9 +4182,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>60</v>
@@ -4208,9 +4208,9 @@
         <v>219</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>61</v>
@@ -4234,9 +4234,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>62</v>
@@ -4260,9 +4260,9 @@
         <v>221</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>63</v>
@@ -4286,9 +4286,9 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>64</v>
@@ -4312,9 +4312,9 @@
         <v>223</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>65</v>
@@ -4338,9 +4338,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>66</v>
@@ -4364,9 +4364,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>67</v>
@@ -4390,9 +4390,9 @@
         <v>226</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>68</v>
@@ -4416,9 +4416,9 @@
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>69</v>
@@ -4442,9 +4442,9 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B94" s="14" t="s">
         <v>70</v>
@@ -4468,9 +4468,9 @@
         <v>203</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>71</v>
@@ -4494,9 +4494,9 @@
         <v>204</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>72</v>
@@ -4520,9 +4520,9 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>73</v>
@@ -4546,9 +4546,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B98" s="14" t="s">
         <v>74</v>
@@ -4572,9 +4572,9 @@
         <v>207</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>75</v>
@@ -4598,9 +4598,9 @@
         <v>208</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>76</v>
@@ -4624,9 +4624,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B101" s="14" t="s">
         <v>77</v>
@@ -4650,9 +4650,9 @@
         <v>210</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>78</v>
@@ -4676,9 +4676,9 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>79</v>
@@ -4702,9 +4702,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>80</v>
@@ -4728,9 +4728,9 @@
         <v>213</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B105" s="14" t="s">
         <v>81</v>
@@ -4754,9 +4754,9 @@
         <v>214</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B106" s="14" t="s">
         <v>82</v>
@@ -4780,9 +4780,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>83</v>
@@ -4806,9 +4806,9 @@
         <v>230</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>84</v>
@@ -4832,9 +4832,9 @@
         <v>231</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>85</v>
@@ -4858,9 +4858,9 @@
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B110" s="14" t="s">
         <v>86</v>
@@ -4884,9 +4884,9 @@
         <v>233</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B111" s="14" t="s">
         <v>87</v>
@@ -4910,9 +4910,9 @@
         <v>234</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B112" s="21" t="s">
         <v>88</v>
@@ -4936,9 +4936,9 @@
         <v>235</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B113" s="21" t="s">
         <v>89</v>
@@ -4962,9 +4962,9 @@
         <v>236</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B114" s="21" t="s">
         <v>90</v>
@@ -4988,9 +4988,9 @@
         <v>237</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B115" s="21" t="s">
         <v>91</v>
@@ -5014,9 +5014,9 @@
         <v>238</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B116" s="21" t="s">
         <v>92</v>
@@ -5040,9 +5040,9 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B117" s="21" t="s">
         <v>93</v>
@@ -5066,9 +5066,9 @@
         <v>240</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B118" s="21" t="s">
         <v>94</v>
@@ -5092,9 +5092,9 @@
         <v>241</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B119" s="21" t="s">
         <v>95</v>
@@ -5118,9 +5118,9 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B120" s="21" t="s">
         <v>96</v>
@@ -5144,9 +5144,9 @@
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B121" s="21" t="s">
         <v>97</v>
@@ -5170,9 +5170,9 @@
         <v>244</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B122" s="21" t="s">
         <v>98</v>
@@ -5196,9 +5196,9 @@
         <v>245</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B123" s="21" t="s">
         <v>99</v>
@@ -5222,9 +5222,9 @@
         <v>246</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B124" s="21" t="s">
         <v>100</v>
@@ -5248,9 +5248,9 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B125" s="14" t="s">
         <v>101</v>
@@ -5274,9 +5274,9 @@
         <v>248</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B126" s="14" t="s">
         <v>102</v>
@@ -5300,9 +5300,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>103</v>
@@ -5323,12 +5323,12 @@
         <v>0</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>104</v>
@@ -5352,87 +5352,87 @@
         <v>249</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="B129" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C129" s="2">
+        <v>0</v>
+      </c>
+      <c r="D129" s="2">
+        <v>0</v>
+      </c>
+      <c r="E129" s="17">
+        <v>1</v>
+      </c>
+      <c r="F129" s="19">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+      <c r="H129" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A130" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="B129" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="C129" s="2">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2">
-        <v>0</v>
-      </c>
-      <c r="E129" s="17">
-        <v>1</v>
-      </c>
-      <c r="F129" s="19">
-        <v>1</v>
-      </c>
-      <c r="G129" s="3">
-        <v>0</v>
-      </c>
-      <c r="H129" s="14" t="s">
+      <c r="B130" s="14" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="14" t="s">
+      <c r="C130" s="2">
+        <v>0</v>
+      </c>
+      <c r="D130" s="2">
+        <v>0</v>
+      </c>
+      <c r="E130" s="17">
+        <v>1</v>
+      </c>
+      <c r="F130" s="19">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+      <c r="H130" s="14" t="s">
         <v>511</v>
       </c>
-      <c r="B130" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="C130" s="2">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2">
-        <v>0</v>
-      </c>
-      <c r="E130" s="17">
-        <v>1</v>
-      </c>
-      <c r="F130" s="19">
-        <v>1</v>
-      </c>
-      <c r="G130" s="3">
-        <v>0</v>
-      </c>
-      <c r="H130" s="14" t="s">
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A131" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="B131" s="14" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="B131" s="14" t="s">
+      <c r="C131" s="2">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0</v>
+      </c>
+      <c r="E131" s="17">
+        <v>1</v>
+      </c>
+      <c r="F131" s="19">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="14" t="s">
         <v>515</v>
       </c>
-      <c r="C131" s="2">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="17">
-        <v>1</v>
-      </c>
-      <c r="F131" s="19">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3">
-        <v>0</v>
-      </c>
-      <c r="H131" s="14" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B132" s="14" t="s">
         <v>105</v>
@@ -5456,9 +5456,9 @@
         <v>250</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B133" s="14" t="s">
         <v>106</v>
@@ -5482,9 +5482,9 @@
         <v>251</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>107</v>
@@ -5508,9 +5508,9 @@
         <v>252</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B135" s="14" t="s">
         <v>108</v>
@@ -5534,61 +5534,61 @@
         <v>253</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="B136" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0</v>
+      </c>
+      <c r="D136" s="2">
+        <v>0</v>
+      </c>
+      <c r="E136" s="17">
+        <v>1</v>
+      </c>
+      <c r="F136" s="19">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3">
+        <v>1</v>
+      </c>
+      <c r="H136" s="14" t="s">
         <v>462</v>
       </c>
-      <c r="B136" s="14" t="s">
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A137" s="14" t="s">
         <v>463</v>
       </c>
-      <c r="C136" s="2">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2">
-        <v>0</v>
-      </c>
-      <c r="E136" s="17">
-        <v>1</v>
-      </c>
-      <c r="F136" s="19">
-        <v>1</v>
-      </c>
-      <c r="G136" s="3">
-        <v>1</v>
-      </c>
-      <c r="H136" s="14" t="s">
+      <c r="B137" s="14" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="14" t="s">
+      <c r="C137" s="2">
+        <v>0</v>
+      </c>
+      <c r="D137" s="2">
+        <v>0</v>
+      </c>
+      <c r="E137" s="17">
+        <v>1</v>
+      </c>
+      <c r="F137" s="19">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
+        <v>1</v>
+      </c>
+      <c r="H137" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="B137" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="C137" s="2">
-        <v>0</v>
-      </c>
-      <c r="D137" s="2">
-        <v>0</v>
-      </c>
-      <c r="E137" s="17">
-        <v>1</v>
-      </c>
-      <c r="F137" s="19">
-        <v>1</v>
-      </c>
-      <c r="G137" s="3">
-        <v>1</v>
-      </c>
-      <c r="H137" s="14" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B138" s="21" t="s">
         <v>109</v>
@@ -5612,9 +5612,9 @@
         <v>254</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B139" s="21" t="s">
         <v>110</v>
@@ -5638,9 +5638,9 @@
         <v>255</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B140" s="14" t="s">
         <v>111</v>
@@ -5664,9 +5664,9 @@
         <v>256</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B141" s="14" t="s">
         <v>112</v>
@@ -5690,9 +5690,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B142" s="14" t="s">
         <v>113</v>
@@ -5716,9 +5716,9 @@
         <v>258</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B143" s="14" t="s">
         <v>114</v>
@@ -5742,9 +5742,9 @@
         <v>259</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B144" s="14" t="s">
         <v>115</v>
@@ -5768,9 +5768,9 @@
         <v>260</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B145" s="14" t="s">
         <v>116</v>
@@ -5794,9 +5794,9 @@
         <v>261</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>117</v>
@@ -5820,9 +5820,9 @@
         <v>262</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B147" s="14" t="s">
         <v>118</v>
@@ -5846,9 +5846,9 @@
         <v>263</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B148" s="14" t="s">
         <v>119</v>
@@ -5872,9 +5872,9 @@
         <v>264</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>120</v>
@@ -5898,9 +5898,9 @@
         <v>265</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B150" s="14" t="s">
         <v>121</v>
@@ -5924,12 +5924,12 @@
         <v>266</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -5947,12 +5947,12 @@
         <v>0</v>
       </c>
       <c r="H151" s="14" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B152" s="14" t="s">
         <v>122</v>
@@ -5973,12 +5973,12 @@
         <v>0</v>
       </c>
       <c r="H152" s="14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B153" s="14" t="s">
         <v>123</v>
@@ -5999,12 +5999,12 @@
         <v>0</v>
       </c>
       <c r="H153" s="14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B154" s="14" t="s">
         <v>124</v>
@@ -6025,12 +6025,12 @@
         <v>0</v>
       </c>
       <c r="H154" s="14" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B155" s="14" t="s">
         <v>125</v>
@@ -6051,12 +6051,12 @@
         <v>0</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B156" s="14" t="s">
         <v>126</v>
@@ -6077,12 +6077,12 @@
         <v>0</v>
       </c>
       <c r="H156" s="14" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>127</v>
@@ -6103,12 +6103,12 @@
         <v>0</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B158" s="14" t="s">
         <v>128</v>
@@ -6129,12 +6129,12 @@
         <v>0</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>129</v>
@@ -6155,12 +6155,12 @@
         <v>0</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B160" s="14" t="s">
         <v>130</v>
@@ -6181,12 +6181,12 @@
         <v>0</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B161" s="14" t="s">
         <v>131</v>
@@ -6207,12 +6207,12 @@
         <v>0</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B162" s="14" t="s">
         <v>132</v>
@@ -6233,12 +6233,12 @@
         <v>0</v>
       </c>
       <c r="H162" s="14" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B163" s="14" t="s">
         <v>133</v>
@@ -6259,12 +6259,12 @@
         <v>0</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B164" s="14" t="s">
         <v>134</v>
@@ -6285,12 +6285,12 @@
         <v>0</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B165" s="14" t="s">
         <v>135</v>
@@ -6311,12 +6311,12 @@
         <v>0</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B166" s="14" t="s">
         <v>136</v>
@@ -6337,12 +6337,12 @@
         <v>0</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>137</v>
@@ -6363,12 +6363,12 @@
         <v>0</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B168" s="14" t="s">
         <v>138</v>
@@ -6389,12 +6389,12 @@
         <v>0</v>
       </c>
       <c r="H168" s="14" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>139</v>
@@ -6415,12 +6415,12 @@
         <v>0</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B170" s="14" t="s">
         <v>140</v>
@@ -6441,12 +6441,12 @@
         <v>0</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B171" s="14" t="s">
         <v>141</v>
@@ -6467,12 +6467,12 @@
         <v>0</v>
       </c>
       <c r="H171" s="14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>142</v>
@@ -6493,12 +6493,12 @@
         <v>0</v>
       </c>
       <c r="H172" s="14" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B173" s="15" t="s">
         <v>143</v>
@@ -6519,12 +6519,12 @@
         <v>0</v>
       </c>
       <c r="H173" s="15" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B174" s="15" t="s">
         <v>144</v>
@@ -6545,12 +6545,12 @@
         <v>0</v>
       </c>
       <c r="H174" s="15" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B175" s="15" t="s">
         <v>145</v>
@@ -6571,12 +6571,12 @@
         <v>0</v>
       </c>
       <c r="H175" s="15" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B176" s="15" t="s">
         <v>146</v>
@@ -6597,12 +6597,12 @@
         <v>0</v>
       </c>
       <c r="H176" s="15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B177" s="15" t="s">
         <v>147</v>
@@ -6623,12 +6623,12 @@
         <v>0</v>
       </c>
       <c r="H177" s="15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B178" s="15" t="s">
         <v>148</v>
@@ -6649,12 +6649,12 @@
         <v>0</v>
       </c>
       <c r="H178" s="15" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B179" s="15" t="s">
         <v>149</v>
@@ -6678,9 +6678,9 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B180" s="15" t="s">
         <v>150</v>
@@ -6704,30 +6704,30 @@
         <v>193</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="B181" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="C181" s="2">
+        <v>1</v>
+      </c>
+      <c r="D181" s="2">
+        <v>1</v>
+      </c>
+      <c r="E181" s="4">
+        <v>1</v>
+      </c>
+      <c r="F181" s="3">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="5" t="s">
         <v>497</v>
-      </c>
-      <c r="B181" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="C181" s="2">
-        <v>1</v>
-      </c>
-      <c r="D181" s="2">
-        <v>1</v>
-      </c>
-      <c r="E181" s="4">
-        <v>1</v>
-      </c>
-      <c r="F181" s="3">
-        <v>1</v>
-      </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="5" t="s">
-        <v>499</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_india.xlsx
+++ b/inst/extdata/main_dict_india.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="527">
   <si>
     <t>old</t>
   </si>
@@ -1587,6 +1587,24 @@
   </si>
   <si>
     <t>f2_5a</t>
+  </si>
+  <si>
+    <t>consent-a1_a_4</t>
+  </si>
+  <si>
+    <t>child_id_scan</t>
+  </si>
+  <si>
+    <t>a1_a_4</t>
+  </si>
+  <si>
+    <t>consent-a1_a_4a</t>
+  </si>
+  <si>
+    <t>a1_a_4a</t>
+  </si>
+  <si>
+    <t>child_id_manual</t>
   </si>
 </sst>
 </file>
@@ -2007,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="H167" sqref="H167"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3429,141 +3447,141 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="2">
-        <v>0</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="7" t="s">
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="7" t="s">
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B59" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="2">
-        <v>0</v>
-      </c>
-      <c r="D57" s="2">
-        <v>1</v>
-      </c>
-      <c r="E57" s="4">
-        <v>0</v>
-      </c>
-      <c r="F57" s="4">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="9" t="s">
+      <c r="C59" s="2">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2">
+        <v>1</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+      <c r="F59" s="4">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="2">
-        <v>0</v>
-      </c>
-      <c r="D58" s="2">
-        <v>1</v>
-      </c>
-      <c r="E58" s="4">
-        <v>0</v>
-      </c>
-      <c r="F58" s="4">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0</v>
-      </c>
-      <c r="D59" s="2">
-        <v>1</v>
-      </c>
-      <c r="E59" s="4">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1</v>
-      </c>
-      <c r="H59" s="11" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>471</v>
+        <v>331</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C60" s="2">
         <v>0</v>
@@ -3574,22 +3592,22 @@
       <c r="E60" s="4">
         <v>0</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="4">
         <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>0</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>33</v>
+      <c r="A61" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C61" s="2">
         <v>0</v>
@@ -3598,24 +3616,24 @@
         <v>1</v>
       </c>
       <c r="E61" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>188</v>
+        <v>1</v>
+      </c>
+      <c r="H61" s="11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C62" s="2">
         <v>0</v>
@@ -3626,22 +3644,22 @@
       <c r="E62" s="4">
         <v>0</v>
       </c>
-      <c r="F62" s="4">
+      <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C63" s="2">
         <v>0</v>
@@ -3652,22 +3670,22 @@
       <c r="E63" s="4">
         <v>0</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="3">
         <v>0</v>
       </c>
       <c r="G63" s="3">
         <v>0</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>489</v>
+        <v>38</v>
       </c>
       <c r="C64" s="2">
         <v>0</v>
@@ -3685,15 +3703,15 @@
         <v>0</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>490</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>434</v>
+        <v>39</v>
       </c>
       <c r="C65" s="2">
         <v>0</v>
@@ -3711,15 +3729,15 @@
         <v>0</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>433</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="C66" s="2">
         <v>0</v>
@@ -3737,15 +3755,15 @@
         <v>0</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>332</v>
+        <v>470</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>43</v>
+        <v>434</v>
       </c>
       <c r="C67" s="2">
         <v>0</v>
@@ -3763,223 +3781,223 @@
         <v>0</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>196</v>
+        <v>433</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C68" s="2">
+        <v>0</v>
+      </c>
+      <c r="D68" s="2">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <v>0</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C69" s="2">
+        <v>0</v>
+      </c>
+      <c r="D69" s="2">
+        <v>1</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <v>0</v>
+      </c>
+      <c r="G69" s="3">
+        <v>0</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B70" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C68" s="2">
-        <v>0</v>
-      </c>
-      <c r="D68" s="2">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>0</v>
-      </c>
-      <c r="F68" s="4">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="9" t="s">
+      <c r="C70" s="2">
+        <v>0</v>
+      </c>
+      <c r="D70" s="2">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="9" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B71" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="C69" s="2">
-        <v>1</v>
-      </c>
-      <c r="D69" s="2">
-        <v>1</v>
-      </c>
-      <c r="E69" s="4">
-        <v>1</v>
-      </c>
-      <c r="F69" s="4">
-        <v>1</v>
-      </c>
-      <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="11" t="s">
+      <c r="C71" s="2">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B72" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="C70" s="2">
-        <v>1</v>
-      </c>
-      <c r="D70" s="2">
-        <v>1</v>
-      </c>
-      <c r="E70" s="4">
-        <v>1</v>
-      </c>
-      <c r="F70" s="4">
-        <v>1</v>
-      </c>
-      <c r="G70" s="3">
-        <v>1</v>
-      </c>
-      <c r="H70" s="11" t="s">
+      <c r="C72" s="2">
+        <v>1</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <v>1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1</v>
+      </c>
+      <c r="H72" s="11" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A71" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="C71" s="2">
-        <v>1</v>
-      </c>
-      <c r="D71" s="2">
-        <v>1</v>
-      </c>
-      <c r="E71" s="4">
-        <v>1</v>
-      </c>
-      <c r="F71" s="4">
-        <v>0</v>
-      </c>
-      <c r="G71" s="3">
-        <v>1</v>
-      </c>
-      <c r="H71" s="11" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A72" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="C72" s="2">
-        <v>1</v>
-      </c>
-      <c r="D72" s="2">
-        <v>1</v>
-      </c>
-      <c r="E72" s="4">
-        <v>1</v>
-      </c>
-      <c r="F72" s="4">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>1</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C73" s="2">
+        <v>1</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="C74" s="2">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="11" t="s">
         <v>501</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B75" s="11" t="s">
         <v>502</v>
       </c>
-      <c r="C73" s="2">
-        <v>1</v>
-      </c>
-      <c r="D73" s="2">
-        <v>1</v>
-      </c>
-      <c r="E73" s="4">
-        <v>1</v>
-      </c>
-      <c r="F73" s="4">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
-        <v>1</v>
-      </c>
-      <c r="H73" s="11" t="s">
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>1</v>
+      </c>
+      <c r="E75" s="4">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1</v>
+      </c>
+      <c r="H75" s="11" t="s">
         <v>459</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C74" s="17">
-        <v>0</v>
-      </c>
-      <c r="D74" s="17">
-        <v>0</v>
-      </c>
-      <c r="E74" s="18">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
-        <v>1</v>
-      </c>
-      <c r="H74" s="13" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C75" s="17">
-        <v>0</v>
-      </c>
-      <c r="D75" s="17">
-        <v>0</v>
-      </c>
-      <c r="E75" s="17">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
-        <v>1</v>
-      </c>
-      <c r="H75" s="13" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="13" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C76" s="17">
         <v>0</v>
@@ -3997,23 +4015,23 @@
         <v>1</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="13" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C77" s="2">
-        <v>0</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0</v>
-      </c>
-      <c r="E77" s="4">
+        <v>52</v>
+      </c>
+      <c r="C77" s="17">
+        <v>0</v>
+      </c>
+      <c r="D77" s="17">
+        <v>0</v>
+      </c>
+      <c r="E77" s="17">
         <v>1</v>
       </c>
       <c r="F77" s="3">
@@ -4023,23 +4041,23 @@
         <v>1</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="13" t="s">
-        <v>517</v>
+        <v>336</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="C78" s="2">
-        <v>0</v>
-      </c>
-      <c r="D78" s="2">
-        <v>0</v>
-      </c>
-      <c r="E78" s="4">
+        <v>53</v>
+      </c>
+      <c r="C78" s="17">
+        <v>0</v>
+      </c>
+      <c r="D78" s="17">
+        <v>0</v>
+      </c>
+      <c r="E78" s="18">
         <v>1</v>
       </c>
       <c r="F78" s="3">
@@ -4049,15 +4067,15 @@
         <v>1</v>
       </c>
       <c r="H78" s="13" t="s">
-        <v>516</v>
+        <v>200</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C79" s="2">
         <v>0</v>
@@ -4075,15 +4093,15 @@
         <v>1</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="13" t="s">
-        <v>339</v>
+        <v>517</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>56</v>
+        <v>518</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -4101,15 +4119,15 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>215</v>
+        <v>516</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="13" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -4127,15 +4145,15 @@
         <v>1</v>
       </c>
       <c r="H81" s="13" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="13" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C82" s="2">
         <v>0</v>
@@ -4153,15 +4171,15 @@
         <v>1</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="13" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C83" s="2">
         <v>0</v>
@@ -4179,15 +4197,15 @@
         <v>1</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="13" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C84" s="2">
         <v>0</v>
@@ -4205,15 +4223,15 @@
         <v>1</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="13" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2">
         <v>0</v>
@@ -4231,23 +4249,23 @@
         <v>1</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="13" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C86" s="17">
+        <v>60</v>
+      </c>
+      <c r="C86" s="2">
         <v>0</v>
       </c>
       <c r="D86" s="2">
         <v>0</v>
       </c>
-      <c r="E86" s="18">
+      <c r="E86" s="4">
         <v>1</v>
       </c>
       <c r="F86" s="3">
@@ -4257,23 +4275,23 @@
         <v>1</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="13" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C87" s="17">
+        <v>61</v>
+      </c>
+      <c r="C87" s="2">
         <v>0</v>
       </c>
       <c r="D87" s="2">
         <v>0</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="4">
         <v>1</v>
       </c>
       <c r="F87" s="3">
@@ -4283,15 +4301,15 @@
         <v>1</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="13" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C88" s="17">
         <v>0</v>
@@ -4309,15 +4327,15 @@
         <v>1</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="13" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C89" s="17">
         <v>0</v>
@@ -4325,7 +4343,7 @@
       <c r="D89" s="2">
         <v>0</v>
       </c>
-      <c r="E89" s="18">
+      <c r="E89" s="17">
         <v>1</v>
       </c>
       <c r="F89" s="3">
@@ -4335,15 +4353,15 @@
         <v>1</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="13" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C90" s="17">
         <v>0</v>
@@ -4351,7 +4369,7 @@
       <c r="D90" s="2">
         <v>0</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="18">
         <v>1</v>
       </c>
       <c r="F90" s="3">
@@ -4361,15 +4379,15 @@
         <v>1</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="13" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C91" s="17">
         <v>0</v>
@@ -4377,7 +4395,7 @@
       <c r="D91" s="2">
         <v>0</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E91" s="18">
         <v>1</v>
       </c>
       <c r="F91" s="3">
@@ -4387,23 +4405,23 @@
         <v>1</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B92" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C92" s="2">
+        <v>66</v>
+      </c>
+      <c r="C92" s="17">
         <v>0</v>
       </c>
       <c r="D92" s="2">
         <v>0</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E92" s="17">
         <v>1</v>
       </c>
       <c r="F92" s="3">
@@ -4413,93 +4431,93 @@
         <v>1</v>
       </c>
       <c r="H92" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C93" s="17">
+        <v>0</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <v>1</v>
+      </c>
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>1</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <v>1</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B95" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C93" s="2">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2">
-        <v>0</v>
-      </c>
-      <c r="E93" s="4">
-        <v>1</v>
-      </c>
-      <c r="F93" s="3">
-        <v>0</v>
-      </c>
-      <c r="G93" s="3">
-        <v>1</v>
-      </c>
-      <c r="H93" s="13" t="s">
+      <c r="C95" s="2">
+        <v>0</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="3">
+        <v>0</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+      <c r="H95" s="13" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C94" s="2">
-        <v>0</v>
-      </c>
-      <c r="D94" s="2">
-        <v>0</v>
-      </c>
-      <c r="E94" s="2">
-        <v>1</v>
-      </c>
-      <c r="F94" s="3">
-        <v>1</v>
-      </c>
-      <c r="G94" s="3">
-        <v>1</v>
-      </c>
-      <c r="H94" s="14" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C95" s="2">
-        <v>0</v>
-      </c>
-      <c r="D95" s="2">
-        <v>0</v>
-      </c>
-      <c r="E95" s="2">
-        <v>1</v>
-      </c>
-      <c r="F95" s="3">
-        <v>1</v>
-      </c>
-      <c r="G95" s="3">
-        <v>0</v>
-      </c>
-      <c r="H95" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="14" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B96" s="14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C96" s="2">
         <v>0</v>
@@ -4514,18 +4532,18 @@
         <v>1</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="14" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B97" s="14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2">
         <v>0</v>
@@ -4543,15 +4561,15 @@
         <v>0</v>
       </c>
       <c r="H97" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="14" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C98" s="2">
         <v>0</v>
@@ -4569,15 +4587,15 @@
         <v>0</v>
       </c>
       <c r="H98" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B99" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2">
         <v>0</v>
@@ -4595,15 +4613,15 @@
         <v>0</v>
       </c>
       <c r="H99" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B100" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C100" s="2">
         <v>0</v>
@@ -4621,15 +4639,15 @@
         <v>0</v>
       </c>
       <c r="H100" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B101" s="14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C101" s="2">
         <v>0</v>
@@ -4647,15 +4665,15 @@
         <v>0</v>
       </c>
       <c r="H101" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="14" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B102" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C102" s="2">
         <v>0</v>
@@ -4673,15 +4691,15 @@
         <v>0</v>
       </c>
       <c r="H102" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B103" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C103" s="2">
         <v>0</v>
@@ -4699,15 +4717,15 @@
         <v>0</v>
       </c>
       <c r="H103" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B104" s="14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C104" s="2">
         <v>0</v>
@@ -4725,15 +4743,15 @@
         <v>0</v>
       </c>
       <c r="H104" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="14" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B105" s="14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C105" s="2">
         <v>0</v>
@@ -4751,15 +4769,15 @@
         <v>0</v>
       </c>
       <c r="H105" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="14" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B106" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C106" s="2">
         <v>0</v>
@@ -4777,15 +4795,15 @@
         <v>0</v>
       </c>
       <c r="H106" s="14" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="14" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B107" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C107" s="2">
         <v>0</v>
@@ -4803,15 +4821,15 @@
         <v>0</v>
       </c>
       <c r="H107" s="14" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="14" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B108" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C108" s="2">
         <v>0</v>
@@ -4829,15 +4847,15 @@
         <v>0</v>
       </c>
       <c r="H108" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="14" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C109" s="2">
         <v>0</v>
@@ -4855,15 +4873,15 @@
         <v>0</v>
       </c>
       <c r="H109" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B110" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C110" s="2">
         <v>0</v>
@@ -4881,15 +4899,15 @@
         <v>0</v>
       </c>
       <c r="H110" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="14" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B111" s="14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C111" s="2">
         <v>0</v>
@@ -4904,18 +4922,18 @@
         <v>1</v>
       </c>
       <c r="G111" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H111" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="B112" s="21" t="s">
-        <v>88</v>
+        <v>369</v>
+      </c>
+      <c r="B112" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="C112" s="2">
         <v>0</v>
@@ -4930,18 +4948,18 @@
         <v>1</v>
       </c>
       <c r="G112" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H112" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>89</v>
+        <v>370</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C113" s="2">
         <v>0</v>
@@ -4959,15 +4977,15 @@
         <v>1</v>
       </c>
       <c r="H113" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="14" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B114" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C114" s="2">
         <v>0</v>
@@ -4985,15 +5003,15 @@
         <v>1</v>
       </c>
       <c r="H114" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="14" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C115" s="2">
         <v>0</v>
@@ -5011,15 +5029,15 @@
         <v>1</v>
       </c>
       <c r="H115" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="14" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C116" s="2">
         <v>0</v>
@@ -5037,15 +5055,15 @@
         <v>1</v>
       </c>
       <c r="H116" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C117" s="2">
         <v>0</v>
@@ -5063,15 +5081,15 @@
         <v>1</v>
       </c>
       <c r="H117" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="14" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C118" s="2">
         <v>0</v>
@@ -5089,15 +5107,15 @@
         <v>1</v>
       </c>
       <c r="H118" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C119" s="2">
         <v>0</v>
@@ -5105,25 +5123,25 @@
       <c r="D119" s="2">
         <v>0</v>
       </c>
-      <c r="E119" s="17">
-        <v>1</v>
-      </c>
-      <c r="F119" s="19">
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="3">
         <v>1</v>
       </c>
       <c r="G119" s="3">
         <v>1</v>
       </c>
       <c r="H119" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C120" s="2">
         <v>0</v>
@@ -5131,25 +5149,25 @@
       <c r="D120" s="2">
         <v>0</v>
       </c>
-      <c r="E120" s="17">
-        <v>1</v>
-      </c>
-      <c r="F120" s="19">
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="3">
         <v>1</v>
       </c>
       <c r="G120" s="3">
         <v>1</v>
       </c>
       <c r="H120" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="14" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C121" s="2">
         <v>0</v>
@@ -5167,15 +5185,15 @@
         <v>1</v>
       </c>
       <c r="H121" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C122" s="2">
         <v>0</v>
@@ -5186,22 +5204,22 @@
       <c r="E122" s="17">
         <v>1</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F122" s="19">
         <v>1</v>
       </c>
       <c r="G122" s="3">
         <v>1</v>
       </c>
       <c r="H122" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="14" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C123" s="2">
         <v>0</v>
@@ -5219,15 +5237,15 @@
         <v>1</v>
       </c>
       <c r="H123" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="14" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C124" s="2">
         <v>0</v>
@@ -5238,22 +5256,22 @@
       <c r="E124" s="17">
         <v>1</v>
       </c>
-      <c r="F124" s="19">
+      <c r="F124" s="17">
         <v>1</v>
       </c>
       <c r="G124" s="3">
         <v>1</v>
       </c>
       <c r="H124" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="B125" s="14" t="s">
-        <v>101</v>
+        <v>382</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>99</v>
       </c>
       <c r="C125" s="2">
         <v>0</v>
@@ -5271,15 +5289,15 @@
         <v>1</v>
       </c>
       <c r="H125" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>102</v>
+        <v>383</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="C126" s="2">
         <v>0</v>
@@ -5294,18 +5312,18 @@
         <v>1</v>
       </c>
       <c r="G126" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H126" s="14" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="14" t="s">
-        <v>505</v>
+        <v>384</v>
       </c>
       <c r="B127" s="14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C127" s="2">
         <v>0</v>
@@ -5320,18 +5338,18 @@
         <v>1</v>
       </c>
       <c r="G127" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" s="14" t="s">
-        <v>512</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B128" s="14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C128" s="2">
         <v>0</v>
@@ -5349,15 +5367,15 @@
         <v>0</v>
       </c>
       <c r="H128" s="14" t="s">
-        <v>249</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="14" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B129" s="14" t="s">
-        <v>506</v>
+        <v>103</v>
       </c>
       <c r="C129" s="2">
         <v>0</v>
@@ -5375,15 +5393,15 @@
         <v>0</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>509</v>
+        <v>386</v>
       </c>
       <c r="B130" s="14" t="s">
-        <v>510</v>
+        <v>104</v>
       </c>
       <c r="C130" s="2">
         <v>0</v>
@@ -5401,15 +5419,15 @@
         <v>0</v>
       </c>
       <c r="H130" s="14" t="s">
-        <v>511</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B131" s="14" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="C131" s="2">
         <v>0</v>
@@ -5427,15 +5445,15 @@
         <v>0</v>
       </c>
       <c r="H131" s="14" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
-        <v>387</v>
+        <v>509</v>
       </c>
       <c r="B132" s="14" t="s">
-        <v>105</v>
+        <v>510</v>
       </c>
       <c r="C132" s="2">
         <v>0</v>
@@ -5453,15 +5471,15 @@
         <v>0</v>
       </c>
       <c r="H132" s="14" t="s">
-        <v>250</v>
+        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="14" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="B133" s="14" t="s">
-        <v>106</v>
+        <v>513</v>
       </c>
       <c r="C133" s="2">
         <v>0</v>
@@ -5479,15 +5497,15 @@
         <v>0</v>
       </c>
       <c r="H133" s="14" t="s">
-        <v>251</v>
+        <v>515</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B134" s="14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C134" s="2">
         <v>0</v>
@@ -5502,18 +5520,18 @@
         <v>1</v>
       </c>
       <c r="G134" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H134" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
-        <v>389</v>
+        <v>456</v>
       </c>
       <c r="B135" s="14" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C135" s="2">
         <v>0</v>
@@ -5528,18 +5546,18 @@
         <v>1</v>
       </c>
       <c r="G135" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="14" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
       <c r="B136" s="14" t="s">
-        <v>461</v>
+        <v>107</v>
       </c>
       <c r="C136" s="2">
         <v>0</v>
@@ -5557,15 +5575,15 @@
         <v>1</v>
       </c>
       <c r="H136" s="14" t="s">
-        <v>462</v>
+        <v>252</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="14" t="s">
-        <v>463</v>
+        <v>389</v>
       </c>
       <c r="B137" s="14" t="s">
-        <v>464</v>
+        <v>108</v>
       </c>
       <c r="C137" s="2">
         <v>0</v>
@@ -5583,15 +5601,15 @@
         <v>1</v>
       </c>
       <c r="H137" s="14" t="s">
-        <v>465</v>
+        <v>253</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>109</v>
+        <v>460</v>
+      </c>
+      <c r="B138" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="C138" s="2">
         <v>0</v>
@@ -5606,18 +5624,18 @@
         <v>1</v>
       </c>
       <c r="G138" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" s="14" t="s">
-        <v>254</v>
+        <v>462</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="B139" s="21" t="s">
-        <v>110</v>
+        <v>463</v>
+      </c>
+      <c r="B139" s="14" t="s">
+        <v>464</v>
       </c>
       <c r="C139" s="2">
         <v>0</v>
@@ -5632,18 +5650,18 @@
         <v>1</v>
       </c>
       <c r="G139" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" s="14" t="s">
-        <v>255</v>
+        <v>465</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>111</v>
+        <v>390</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>109</v>
       </c>
       <c r="C140" s="2">
         <v>0</v>
@@ -5661,15 +5679,15 @@
         <v>0</v>
       </c>
       <c r="H140" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="B141" s="14" t="s">
-        <v>112</v>
+        <v>391</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>110</v>
       </c>
       <c r="C141" s="2">
         <v>0</v>
@@ -5680,22 +5698,22 @@
       <c r="E141" s="17">
         <v>1</v>
       </c>
-      <c r="F141" s="17">
+      <c r="F141" s="19">
         <v>1</v>
       </c>
       <c r="G141" s="3">
         <v>0</v>
       </c>
       <c r="H141" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="14" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B142" s="14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C142" s="2">
         <v>0</v>
@@ -5713,15 +5731,15 @@
         <v>0</v>
       </c>
       <c r="H142" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B143" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C143" s="2">
         <v>0</v>
@@ -5732,22 +5750,22 @@
       <c r="E143" s="17">
         <v>1</v>
       </c>
-      <c r="F143" s="19">
+      <c r="F143" s="17">
         <v>1</v>
       </c>
       <c r="G143" s="3">
         <v>0</v>
       </c>
       <c r="H143" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="14" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B144" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C144" s="2">
         <v>0</v>
@@ -5762,18 +5780,18 @@
         <v>1</v>
       </c>
       <c r="G144" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="14" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B145" s="14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C145" s="2">
         <v>0</v>
@@ -5788,18 +5806,18 @@
         <v>1</v>
       </c>
       <c r="G145" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H145" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="14" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B146" s="14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C146" s="2">
         <v>0</v>
@@ -5814,18 +5832,18 @@
         <v>1</v>
       </c>
       <c r="G146" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B147" s="14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C147" s="2">
         <v>0</v>
@@ -5840,18 +5858,18 @@
         <v>1</v>
       </c>
       <c r="G147" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H147" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="14" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B148" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C148" s="2">
         <v>0</v>
@@ -5869,15 +5887,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="14" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B149" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C149" s="2">
         <v>0</v>
@@ -5895,15 +5913,15 @@
         <v>0</v>
       </c>
       <c r="H149" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="14" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B150" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C150" s="2">
         <v>0</v>
@@ -5921,15 +5939,15 @@
         <v>0</v>
       </c>
       <c r="H150" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="14" t="s">
-        <v>504</v>
+        <v>401</v>
       </c>
       <c r="B151" s="14" t="s">
-        <v>503</v>
+        <v>120</v>
       </c>
       <c r="C151" s="2">
         <v>0</v>
@@ -5947,15 +5965,15 @@
         <v>0</v>
       </c>
       <c r="H151" s="14" t="s">
-        <v>519</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B152" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C152" s="2">
         <v>0</v>
@@ -5973,15 +5991,15 @@
         <v>0</v>
       </c>
       <c r="H152" s="14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="14" t="s">
-        <v>404</v>
+        <v>504</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>123</v>
+        <v>503</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -5999,15 +6017,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="14" t="s">
-        <v>268</v>
+        <v>519</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C154" s="2">
         <v>0</v>
@@ -6025,15 +6043,15 @@
         <v>0</v>
       </c>
       <c r="H154" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="14" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B155" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C155" s="2">
         <v>0</v>
@@ -6051,15 +6069,15 @@
         <v>0</v>
       </c>
       <c r="H155" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="14" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B156" s="14" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C156" s="2">
         <v>0</v>
@@ -6077,15 +6095,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="14" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B157" s="14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C157" s="2">
         <v>0</v>
@@ -6103,15 +6121,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="14" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B158" s="14" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C158" s="2">
         <v>0</v>
@@ -6129,15 +6147,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="14" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B159" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C159" s="2">
         <v>0</v>
@@ -6155,15 +6173,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="14" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="14" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B160" s="14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C160" s="2">
         <v>0</v>
@@ -6181,15 +6199,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="14" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B161" s="14" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C161" s="2">
         <v>0</v>
@@ -6207,15 +6225,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="14" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B162" s="14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C162" s="2">
         <v>0</v>
@@ -6233,15 +6251,15 @@
         <v>0</v>
       </c>
       <c r="H162" s="14" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="14" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B163" s="14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C163" s="2">
         <v>0</v>
@@ -6252,22 +6270,22 @@
       <c r="E163" s="17">
         <v>1</v>
       </c>
-      <c r="F163" s="17">
+      <c r="F163" s="19">
         <v>1</v>
       </c>
       <c r="G163" s="3">
         <v>0</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="14" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B164" s="14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C164" s="2">
         <v>0</v>
@@ -6285,15 +6303,15 @@
         <v>0</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="14" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B165" s="14" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C165" s="2">
         <v>0</v>
@@ -6304,22 +6322,22 @@
       <c r="E165" s="17">
         <v>1</v>
       </c>
-      <c r="F165" s="19">
+      <c r="F165" s="17">
         <v>1</v>
       </c>
       <c r="G165" s="3">
         <v>0</v>
       </c>
       <c r="H165" s="14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="14" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B166" s="14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C166" s="2">
         <v>0</v>
@@ -6337,15 +6355,15 @@
         <v>0</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="14" t="s">
-        <v>498</v>
+        <v>416</v>
       </c>
       <c r="B167" s="14" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C167" s="2">
         <v>0</v>
@@ -6363,15 +6381,15 @@
         <v>0</v>
       </c>
       <c r="H167" s="14" t="s">
-        <v>520</v>
+        <v>280</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B168" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C168" s="2">
         <v>0</v>
@@ -6389,15 +6407,15 @@
         <v>0</v>
       </c>
       <c r="H168" s="14" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="14" t="s">
-        <v>419</v>
+        <v>498</v>
       </c>
       <c r="B169" s="14" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C169" s="2">
         <v>0</v>
@@ -6415,15 +6433,15 @@
         <v>0</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>283</v>
+        <v>520</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="14" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B170" s="14" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C170" s="2">
         <v>0</v>
@@ -6441,15 +6459,15 @@
         <v>0</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="14" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B171" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C171" s="2">
         <v>0</v>
@@ -6467,93 +6485,93 @@
         <v>0</v>
       </c>
       <c r="H171" s="14" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B172" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="17">
+        <v>1</v>
+      </c>
+      <c r="F172" s="19">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3">
+        <v>0</v>
+      </c>
+      <c r="H172" s="14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A173" s="14" t="s">
+        <v>421</v>
+      </c>
+      <c r="B173" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C173" s="2">
+        <v>0</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0</v>
+      </c>
+      <c r="E173" s="17">
+        <v>1</v>
+      </c>
+      <c r="F173" s="19">
+        <v>1</v>
+      </c>
+      <c r="G173" s="3">
+        <v>0</v>
+      </c>
+      <c r="H173" s="14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A174" s="14" t="s">
         <v>422</v>
       </c>
-      <c r="B172" s="14" t="s">
+      <c r="B174" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="C172" s="2">
-        <v>0</v>
-      </c>
-      <c r="D172" s="2">
-        <v>0</v>
-      </c>
-      <c r="E172" s="17">
-        <v>1</v>
-      </c>
-      <c r="F172" s="19">
-        <v>1</v>
-      </c>
-      <c r="G172" s="3">
-        <v>0</v>
-      </c>
-      <c r="H172" s="14" t="s">
+      <c r="C174" s="2">
+        <v>0</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0</v>
+      </c>
+      <c r="E174" s="17">
+        <v>1</v>
+      </c>
+      <c r="F174" s="19">
+        <v>1</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="14" t="s">
         <v>286</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A173" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="B173" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="C173" s="2">
-        <v>0</v>
-      </c>
-      <c r="D173" s="2">
-        <v>0</v>
-      </c>
-      <c r="E173" s="17">
-        <v>1</v>
-      </c>
-      <c r="F173" s="19">
-        <v>1</v>
-      </c>
-      <c r="G173" s="3">
-        <v>0</v>
-      </c>
-      <c r="H173" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A174" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="B174" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="C174" s="2">
-        <v>0</v>
-      </c>
-      <c r="D174" s="2">
-        <v>0</v>
-      </c>
-      <c r="E174" s="17">
-        <v>1</v>
-      </c>
-      <c r="F174" s="19">
-        <v>1</v>
-      </c>
-      <c r="G174" s="3">
-        <v>0</v>
-      </c>
-      <c r="H174" s="15" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="15" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C175" s="2">
         <v>0</v>
@@ -6571,15 +6589,15 @@
         <v>0</v>
       </c>
       <c r="H175" s="15" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C176" s="2">
         <v>0</v>
@@ -6597,15 +6615,15 @@
         <v>0</v>
       </c>
       <c r="H176" s="15" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="15" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C177" s="2">
         <v>0</v>
@@ -6623,15 +6641,15 @@
         <v>0</v>
       </c>
       <c r="H177" s="15" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C178" s="2">
         <v>0</v>
@@ -6649,15 +6667,15 @@
         <v>0</v>
       </c>
       <c r="H178" s="15" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="15" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C179" s="2">
         <v>0</v>
@@ -6675,58 +6693,110 @@
         <v>0</v>
       </c>
       <c r="H179" s="15" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B180" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C180" s="2">
+        <v>0</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0</v>
+      </c>
+      <c r="E180" s="17">
+        <v>1</v>
+      </c>
+      <c r="F180" s="19">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+      <c r="H180" s="15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A181" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B181" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+      <c r="E181" s="17">
+        <v>1</v>
+      </c>
+      <c r="F181" s="19">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+      <c r="H181" s="15" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A182" s="15" t="s">
         <v>430</v>
       </c>
-      <c r="B180" s="15" t="s">
+      <c r="B182" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="C180" s="2">
-        <v>0</v>
-      </c>
-      <c r="D180" s="2">
-        <v>0</v>
-      </c>
-      <c r="E180" s="17">
-        <v>1</v>
-      </c>
-      <c r="F180" s="17">
-        <v>1</v>
-      </c>
-      <c r="G180" s="3">
-        <v>0</v>
-      </c>
-      <c r="H180" s="15" t="s">
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+      <c r="E182" s="17">
+        <v>1</v>
+      </c>
+      <c r="F182" s="17">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="15" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A181" s="5" t="s">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B181" s="5" t="s">
+      <c r="B183" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="C181" s="2">
-        <v>1</v>
-      </c>
-      <c r="D181" s="2">
-        <v>1</v>
-      </c>
-      <c r="E181" s="4">
-        <v>1</v>
-      </c>
-      <c r="F181" s="3">
-        <v>1</v>
-      </c>
-      <c r="G181" s="3">
-        <v>0</v>
-      </c>
-      <c r="H181" s="5" t="s">
+      <c r="C183" s="2">
+        <v>1</v>
+      </c>
+      <c r="D183" s="2">
+        <v>1</v>
+      </c>
+      <c r="E183" s="4">
+        <v>1</v>
+      </c>
+      <c r="F183" s="3">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="5" t="s">
         <v>497</v>
       </c>
     </row>

--- a/inst/extdata/main_dict_india.xlsx
+++ b/inst/extdata/main_dict_india.xlsx
@@ -2027,22 +2027,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="2"/>
     <col min="5" max="5" width="9.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="3"/>
-    <col min="8" max="8" width="31.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.08203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>7</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>431</v>
       </c>
@@ -2172,7 +2172,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>493</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>457</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>491</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>467</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>492</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
         <v>474</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
         <v>476</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
         <v>478</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
         <v>480</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
         <v>482</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
         <v>484</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>294</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>295</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>432</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>296</v>
       </c>
@@ -2562,7 +2562,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>297</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>437</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>298</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
         <v>299</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
         <v>300</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
         <v>436</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
         <v>302</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
         <v>303</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
         <v>304</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>301</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>305</v>
       </c>
@@ -2848,7 +2848,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>306</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>307</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>308</v>
       </c>
@@ -2926,7 +2926,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>309</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>310</v>
       </c>
@@ -2978,7 +2978,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>311</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>312</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>313</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>314</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>315</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>449</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>453</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>316</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>317</v>
       </c>
@@ -3212,7 +3212,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>318</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
         <v>319</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
         <v>320</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
         <v>321</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="s">
         <v>322</v>
       </c>
@@ -3342,7 +3342,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
         <v>323</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
         <v>324</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
         <v>325</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>326</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>521</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>524</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
         <v>327</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>328</v>
       </c>
@@ -3550,7 +3550,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>330</v>
       </c>
@@ -3576,7 +3576,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>331</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
         <v>329</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>471</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>472</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>468</v>
       </c>
@@ -3706,7 +3706,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>469</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>488</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>470</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>440</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>332</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>333</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="16" t="s">
         <v>445</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="16" t="s">
         <v>447</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
         <v>473</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
         <v>499</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
         <v>501</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>334</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
         <v>335</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>336</v>
       </c>
@@ -4070,7 +4070,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
         <v>337</v>
       </c>
@@ -4096,7 +4096,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
         <v>517</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
         <v>338</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
         <v>339</v>
       </c>
@@ -4174,7 +4174,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
         <v>340</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>341</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
         <v>342</v>
       </c>
@@ -4252,7 +4252,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
         <v>343</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>344</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
         <v>345</v>
       </c>
@@ -4330,7 +4330,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>346</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
         <v>347</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
         <v>348</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
         <v>349</v>
       </c>
@@ -4434,7 +4434,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
         <v>350</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
         <v>351</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>352</v>
       </c>
@@ -4512,7 +4512,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="14" t="s">
         <v>353</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>354</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="14" t="s">
         <v>355</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="14" t="s">
         <v>356</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="14" t="s">
         <v>357</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="14" t="s">
         <v>358</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="14" t="s">
         <v>359</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="14" t="s">
         <v>360</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="14" t="s">
         <v>361</v>
       </c>
@@ -4746,7 +4746,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="14" t="s">
         <v>362</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
         <v>363</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="14" t="s">
         <v>364</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="14" t="s">
         <v>365</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="14" t="s">
         <v>366</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="14" t="s">
         <v>367</v>
       </c>
@@ -4902,7 +4902,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="14" t="s">
         <v>368</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="14" t="s">
         <v>369</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="14" t="s">
         <v>370</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="14" t="s">
         <v>371</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="14" t="s">
         <v>372</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
         <v>373</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="14" t="s">
         <v>374</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="14" t="s">
         <v>375</v>
       </c>
@@ -5110,7 +5110,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="14" t="s">
         <v>376</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="14" t="s">
         <v>377</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
         <v>378</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
         <v>379</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="14" t="s">
         <v>380</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="14" t="s">
         <v>381</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="14" t="s">
         <v>382</v>
       </c>
@@ -5292,7 +5292,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="14" t="s">
         <v>383</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="14" t="s">
         <v>384</v>
       </c>
@@ -5344,7 +5344,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="14" t="s">
         <v>385</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
         <v>505</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="14" t="s">
         <v>386</v>
       </c>
@@ -5422,7 +5422,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
         <v>507</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
         <v>509</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
         <v>514</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="14" t="s">
         <v>387</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="14" t="s">
         <v>456</v>
       </c>
@@ -5552,7 +5552,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="14" t="s">
         <v>388</v>
       </c>
@@ -5578,7 +5578,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="14" t="s">
         <v>389</v>
       </c>
@@ -5604,7 +5604,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="14" t="s">
         <v>460</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="14" t="s">
         <v>463</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="14" t="s">
         <v>390</v>
       </c>
@@ -5682,7 +5682,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="14" t="s">
         <v>391</v>
       </c>
@@ -5708,7 +5708,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="14" t="s">
         <v>392</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="14" t="s">
         <v>393</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="14" t="s">
         <v>394</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="14" t="s">
         <v>395</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="14" t="s">
         <v>396</v>
       </c>
@@ -5838,7 +5838,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="14" t="s">
         <v>397</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="14" t="s">
         <v>398</v>
       </c>
@@ -5890,7 +5890,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="14" t="s">
         <v>399</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="14" t="s">
         <v>400</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="14" t="s">
         <v>401</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="14" t="s">
         <v>402</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
         <v>504</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="14" t="s">
         <v>403</v>
       </c>
@@ -6046,7 +6046,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="14" t="s">
         <v>404</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="14" t="s">
         <v>405</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="14" t="s">
         <v>406</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="14" t="s">
         <v>407</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="14" t="s">
         <v>408</v>
       </c>
@@ -6176,7 +6176,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="14" t="s">
         <v>409</v>
       </c>
@@ -6202,7 +6202,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="14" t="s">
         <v>410</v>
       </c>
@@ -6228,7 +6228,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="14" t="s">
         <v>411</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="14" t="s">
         <v>412</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="14" t="s">
         <v>413</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="14" t="s">
         <v>414</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="14" t="s">
         <v>415</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="14" t="s">
         <v>416</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="14" t="s">
         <v>417</v>
       </c>
@@ -6410,7 +6410,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
         <v>498</v>
       </c>
@@ -6436,7 +6436,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="14" t="s">
         <v>418</v>
       </c>
@@ -6462,7 +6462,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="14" t="s">
         <v>419</v>
       </c>
@@ -6488,7 +6488,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="14" t="s">
         <v>420</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="14" t="s">
         <v>421</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="14" t="s">
         <v>422</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="15" t="s">
         <v>423</v>
       </c>
@@ -6592,7 +6592,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="15" t="s">
         <v>424</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="15" t="s">
         <v>425</v>
       </c>
@@ -6644,7 +6644,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="15" t="s">
         <v>426</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="15" t="s">
         <v>427</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="15" t="s">
         <v>428</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="15" t="s">
         <v>429</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="15" t="s">
         <v>430</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
         <v>495</v>
       </c>

--- a/inst/extdata/main_dict_india.xlsx
+++ b/inst/extdata/main_dict_india.xlsx
@@ -1424,9 +1424,6 @@
     <t>i2_1o</t>
   </si>
   <si>
-    <t>yg_infant_ctg</t>
-  </si>
-  <si>
     <t>end</t>
   </si>
   <si>
@@ -1605,6 +1602,9 @@
   </si>
   <si>
     <t>child_id_manual</t>
+  </si>
+  <si>
+    <t>who_age_ctg</t>
   </si>
 </sst>
 </file>
@@ -2027,8 +2027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2174,11 +2174,11 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>494</v>
-      </c>
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2226,10 +2226,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -2252,10 +2252,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -2273,15 +2273,15 @@
         <v>0</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -2299,16 +2299,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="20" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>474</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>475</v>
-      </c>
       <c r="C11" s="2">
         <v>1</v>
       </c>
@@ -2325,16 +2325,16 @@
         <v>1</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" s="20" t="s">
         <v>476</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>477</v>
-      </c>
       <c r="C12" s="2">
         <v>1</v>
       </c>
@@ -2351,16 +2351,16 @@
         <v>1</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20" t="s">
+        <v>477</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="B13" s="20" t="s">
-        <v>479</v>
-      </c>
       <c r="C13" s="2">
         <v>1</v>
       </c>
@@ -2377,16 +2377,16 @@
         <v>1</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="20" t="s">
+        <v>479</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>481</v>
-      </c>
       <c r="C14" s="2">
         <v>1</v>
       </c>
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="B15" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>483</v>
-      </c>
       <c r="C15" s="2">
         <v>1</v>
       </c>
@@ -2429,16 +2429,16 @@
         <v>1</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>485</v>
-      </c>
       <c r="C16" s="2">
         <v>1</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2801,7 +2801,7 @@
         <v>301</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>466</v>
+        <v>526</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -3448,54 +3448,54 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>521</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="6" t="s">
         <v>522</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1</v>
-      </c>
-      <c r="E55" s="4">
-        <v>1</v>
-      </c>
-      <c r="F55" s="3">
-        <v>1</v>
-      </c>
-      <c r="G55" s="3">
-        <v>1</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1</v>
+      </c>
+      <c r="E56" s="4">
+        <v>1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>1</v>
+      </c>
+      <c r="H56" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1</v>
-      </c>
-      <c r="E56" s="4">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>1</v>
-      </c>
-      <c r="G56" s="3">
-        <v>1</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3630,7 +3630,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>32</v>
@@ -3656,7 +3656,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>33</v>
@@ -3682,7 +3682,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B64" s="9" t="s">
         <v>38</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>39</v>
@@ -3734,33 +3734,33 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="C66" s="2">
+        <v>0</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="9" t="s">
         <v>489</v>
-      </c>
-      <c r="C66" s="2">
-        <v>0</v>
-      </c>
-      <c r="D66" s="2">
-        <v>1</v>
-      </c>
-      <c r="E66" s="4">
-        <v>0</v>
-      </c>
-      <c r="F66" s="4">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>434</v>
@@ -3916,7 +3916,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>444</v>
@@ -3942,10 +3942,10 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B74" s="11" t="s">
         <v>499</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>500</v>
       </c>
       <c r="C74" s="2">
         <v>1</v>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="B75" s="11" t="s">
         <v>501</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>502</v>
       </c>
       <c r="C75" s="2">
         <v>1</v>
@@ -4098,11 +4098,11 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="B80" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="B80" s="13" t="s">
-        <v>518</v>
-      </c>
       <c r="C80" s="2">
         <v>0</v>
       </c>
@@ -4119,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -5372,7 +5372,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>103</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="H129" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
@@ -5424,80 +5424,80 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="B131" s="14" t="s">
+        <v>505</v>
+      </c>
+      <c r="C131" s="2">
+        <v>0</v>
+      </c>
+      <c r="D131" s="2">
+        <v>0</v>
+      </c>
+      <c r="E131" s="17">
+        <v>1</v>
+      </c>
+      <c r="F131" s="19">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+      <c r="H131" s="14" t="s">
         <v>507</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>506</v>
-      </c>
-      <c r="C131" s="2">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2">
-        <v>0</v>
-      </c>
-      <c r="E131" s="17">
-        <v>1</v>
-      </c>
-      <c r="F131" s="19">
-        <v>1</v>
-      </c>
-      <c r="G131" s="3">
-        <v>0</v>
-      </c>
-      <c r="H131" s="14" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="B132" s="14" t="s">
         <v>509</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="C132" s="2">
+        <v>0</v>
+      </c>
+      <c r="D132" s="2">
+        <v>0</v>
+      </c>
+      <c r="E132" s="17">
+        <v>1</v>
+      </c>
+      <c r="F132" s="19">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3">
+        <v>0</v>
+      </c>
+      <c r="H132" s="14" t="s">
         <v>510</v>
-      </c>
-      <c r="C132" s="2">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2">
-        <v>0</v>
-      </c>
-      <c r="E132" s="17">
-        <v>1</v>
-      </c>
-      <c r="F132" s="19">
-        <v>1</v>
-      </c>
-      <c r="G132" s="3">
-        <v>0</v>
-      </c>
-      <c r="H132" s="14" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="B133" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C133" s="2">
+        <v>0</v>
+      </c>
+      <c r="D133" s="2">
+        <v>0</v>
+      </c>
+      <c r="E133" s="17">
+        <v>1</v>
+      </c>
+      <c r="F133" s="19">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="14" t="s">
         <v>514</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="C133" s="2">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2">
-        <v>0</v>
-      </c>
-      <c r="E133" s="17">
-        <v>1</v>
-      </c>
-      <c r="F133" s="19">
-        <v>1</v>
-      </c>
-      <c r="G133" s="3">
-        <v>0</v>
-      </c>
-      <c r="H133" s="14" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
@@ -5996,10 +5996,10 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B153" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C153" s="2">
         <v>0</v>
@@ -6017,7 +6017,7 @@
         <v>0</v>
       </c>
       <c r="H153" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
@@ -6412,7 +6412,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>137</v>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -6776,28 +6776,28 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="B183" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="B183" s="5" t="s">
+      <c r="C183" s="2">
+        <v>1</v>
+      </c>
+      <c r="D183" s="2">
+        <v>1</v>
+      </c>
+      <c r="E183" s="4">
+        <v>1</v>
+      </c>
+      <c r="F183" s="3">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="5" t="s">
         <v>496</v>
-      </c>
-      <c r="C183" s="2">
-        <v>1</v>
-      </c>
-      <c r="D183" s="2">
-        <v>1</v>
-      </c>
-      <c r="E183" s="4">
-        <v>1</v>
-      </c>
-      <c r="F183" s="3">
-        <v>1</v>
-      </c>
-      <c r="G183" s="3">
-        <v>0</v>
-      </c>
-      <c r="H183" s="5" t="s">
-        <v>497</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/main_dict_india.xlsx
+++ b/inst/extdata/main_dict_india.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="529">
   <si>
     <t>old</t>
   </si>
@@ -1605,6 +1605,12 @@
   </si>
   <si>
     <t>who_age_ctg</t>
+  </si>
+  <si>
+    <t>FormVersion</t>
+  </si>
+  <si>
+    <t>form_version</t>
   </si>
 </sst>
 </file>
@@ -2025,10 +2031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H183"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6800,6 +6806,32 @@
         <v>496</v>
       </c>
     </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="C184" s="2">
+        <v>1</v>
+      </c>
+      <c r="D184" s="2">
+        <v>1</v>
+      </c>
+      <c r="E184" s="2">
+        <v>1</v>
+      </c>
+      <c r="F184" s="2">
+        <v>1</v>
+      </c>
+      <c r="G184" s="2">
+        <v>1</v>
+      </c>
+      <c r="H184" s="5" t="s">
+        <v>527</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="200" r:id="rId1"/>
